--- a/stock_historical_data/60m/KMEW.BO.xlsx
+++ b/stock_historical_data/60m/KMEW.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P253"/>
+  <dimension ref="A1:Q267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>1</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>2</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6118,6 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6168,6 +6509,9 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6218,6 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6268,6 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6318,6 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6368,6 +6721,9 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6418,6 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6468,6 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6518,6 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6568,6 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6618,6 +6986,9 @@
       <c r="P123" t="n">
         <v>1</v>
       </c>
+      <c r="Q123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6668,6 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6718,6 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6768,6 +7145,9 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6818,6 +7198,9 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6868,6 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6918,6 +7304,9 @@
       <c r="P129" t="n">
         <v>0</v>
       </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6968,6 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7018,6 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7068,6 +7463,9 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7118,6 +7516,9 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7168,6 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7218,6 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7268,6 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7318,6 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7368,6 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7418,6 +7834,9 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7468,6 +7887,9 @@
       <c r="P140" t="n">
         <v>2</v>
       </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7518,6 +7940,9 @@
       <c r="P141" t="n">
         <v>0</v>
       </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7568,6 +7993,9 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7618,6 +8046,9 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7668,6 +8099,9 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7718,6 +8152,9 @@
       <c r="P145" t="n">
         <v>0</v>
       </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7768,6 +8205,9 @@
       <c r="P146" t="n">
         <v>0</v>
       </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7818,6 +8258,9 @@
       <c r="P147" t="n">
         <v>0</v>
       </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7868,6 +8311,9 @@
       <c r="P148" t="n">
         <v>0</v>
       </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7918,6 +8364,9 @@
       <c r="P149" t="n">
         <v>0</v>
       </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7968,6 +8417,9 @@
       <c r="P150" t="n">
         <v>0</v>
       </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8018,6 +8470,9 @@
       <c r="P151" t="n">
         <v>0</v>
       </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8068,6 +8523,9 @@
       <c r="P152" t="n">
         <v>0</v>
       </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8118,6 +8576,9 @@
       <c r="P153" t="n">
         <v>0</v>
       </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8168,6 +8629,9 @@
       <c r="P154" t="n">
         <v>0</v>
       </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8218,6 +8682,9 @@
       <c r="P155" t="n">
         <v>0</v>
       </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8268,6 +8735,9 @@
       <c r="P156" t="n">
         <v>0</v>
       </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8318,6 +8788,9 @@
       <c r="P157" t="n">
         <v>0</v>
       </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8368,6 +8841,9 @@
       <c r="P158" t="n">
         <v>0</v>
       </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8418,6 +8894,9 @@
       <c r="P159" t="n">
         <v>0</v>
       </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8468,6 +8947,9 @@
       <c r="P160" t="n">
         <v>0</v>
       </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8518,6 +9000,9 @@
       <c r="P161" t="n">
         <v>0</v>
       </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8568,6 +9053,9 @@
       <c r="P162" t="n">
         <v>0</v>
       </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8618,6 +9106,9 @@
       <c r="P163" t="n">
         <v>0</v>
       </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8668,6 +9159,9 @@
       <c r="P164" t="n">
         <v>0</v>
       </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8718,6 +9212,9 @@
       <c r="P165" t="n">
         <v>1</v>
       </c>
+      <c r="Q165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8768,6 +9265,9 @@
       <c r="P166" t="n">
         <v>0</v>
       </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8818,6 +9318,9 @@
       <c r="P167" t="n">
         <v>0</v>
       </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8868,6 +9371,9 @@
       <c r="P168" t="n">
         <v>0</v>
       </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8918,6 +9424,9 @@
       <c r="P169" t="n">
         <v>0</v>
       </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8968,6 +9477,9 @@
       <c r="P170" t="n">
         <v>0</v>
       </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9018,6 +9530,9 @@
       <c r="P171" t="n">
         <v>0</v>
       </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9068,6 +9583,9 @@
       <c r="P172" t="n">
         <v>0</v>
       </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9118,6 +9636,9 @@
       <c r="P173" t="n">
         <v>0</v>
       </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9168,6 +9689,9 @@
       <c r="P174" t="n">
         <v>2</v>
       </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9218,6 +9742,9 @@
       <c r="P175" t="n">
         <v>0</v>
       </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9268,6 +9795,9 @@
       <c r="P176" t="n">
         <v>0</v>
       </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9318,6 +9848,9 @@
       <c r="P177" t="n">
         <v>0</v>
       </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9368,6 +9901,9 @@
       <c r="P178" t="n">
         <v>0</v>
       </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9418,6 +9954,9 @@
       <c r="P179" t="n">
         <v>0</v>
       </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9468,6 +10007,9 @@
       <c r="P180" t="n">
         <v>0</v>
       </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9518,6 +10060,9 @@
       <c r="P181" t="n">
         <v>0</v>
       </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9568,6 +10113,9 @@
       <c r="P182" t="n">
         <v>0</v>
       </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9618,6 +10166,9 @@
       <c r="P183" t="n">
         <v>1</v>
       </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9668,6 +10219,9 @@
       <c r="P184" t="n">
         <v>0</v>
       </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9718,6 +10272,9 @@
       <c r="P185" t="n">
         <v>0</v>
       </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9768,6 +10325,9 @@
       <c r="P186" t="n">
         <v>0</v>
       </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9818,6 +10378,9 @@
       <c r="P187" t="n">
         <v>0</v>
       </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9868,6 +10431,9 @@
       <c r="P188" t="n">
         <v>0</v>
       </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9918,6 +10484,9 @@
       <c r="P189" t="n">
         <v>0</v>
       </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9968,6 +10537,9 @@
       <c r="P190" t="n">
         <v>0</v>
       </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10018,6 +10590,9 @@
       <c r="P191" t="n">
         <v>0</v>
       </c>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10068,6 +10643,9 @@
       <c r="P192" t="n">
         <v>0</v>
       </c>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10118,6 +10696,9 @@
       <c r="P193" t="n">
         <v>0</v>
       </c>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10168,6 +10749,9 @@
       <c r="P194" t="n">
         <v>0</v>
       </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10218,6 +10802,9 @@
       <c r="P195" t="n">
         <v>0</v>
       </c>
+      <c r="Q195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10268,6 +10855,9 @@
       <c r="P196" t="n">
         <v>0</v>
       </c>
+      <c r="Q196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10318,6 +10908,9 @@
       <c r="P197" t="n">
         <v>0</v>
       </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10368,6 +10961,9 @@
       <c r="P198" t="n">
         <v>0</v>
       </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10418,6 +11014,9 @@
       <c r="P199" t="n">
         <v>0</v>
       </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10468,6 +11067,9 @@
       <c r="P200" t="n">
         <v>0</v>
       </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10518,6 +11120,9 @@
       <c r="P201" t="n">
         <v>0</v>
       </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10568,6 +11173,9 @@
       <c r="P202" t="n">
         <v>0</v>
       </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10618,6 +11226,9 @@
       <c r="P203" t="n">
         <v>0</v>
       </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10668,6 +11279,9 @@
       <c r="P204" t="n">
         <v>0</v>
       </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10718,6 +11332,9 @@
       <c r="P205" t="n">
         <v>0</v>
       </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10768,6 +11385,9 @@
       <c r="P206" t="n">
         <v>0</v>
       </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10818,6 +11438,9 @@
       <c r="P207" t="n">
         <v>0</v>
       </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10868,6 +11491,9 @@
       <c r="P208" t="n">
         <v>0</v>
       </c>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10918,6 +11544,9 @@
       <c r="P209" t="n">
         <v>0</v>
       </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10968,6 +11597,9 @@
       <c r="P210" t="n">
         <v>0</v>
       </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11018,6 +11650,9 @@
       <c r="P211" t="n">
         <v>0</v>
       </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11068,6 +11703,9 @@
       <c r="P212" t="n">
         <v>0</v>
       </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11118,6 +11756,9 @@
       <c r="P213" t="n">
         <v>0</v>
       </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11168,6 +11809,9 @@
       <c r="P214" t="n">
         <v>0</v>
       </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11218,6 +11862,9 @@
       <c r="P215" t="n">
         <v>0</v>
       </c>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11268,6 +11915,9 @@
       <c r="P216" t="n">
         <v>0</v>
       </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11318,6 +11968,9 @@
       <c r="P217" t="n">
         <v>0</v>
       </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -11368,6 +12021,9 @@
       <c r="P218" t="n">
         <v>0</v>
       </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -11418,6 +12074,9 @@
       <c r="P219" t="n">
         <v>0</v>
       </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11468,6 +12127,9 @@
       <c r="P220" t="n">
         <v>0</v>
       </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11518,6 +12180,9 @@
       <c r="P221" t="n">
         <v>1</v>
       </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11568,6 +12233,9 @@
       <c r="P222" t="n">
         <v>0</v>
       </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11618,6 +12286,9 @@
       <c r="P223" t="n">
         <v>0</v>
       </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11668,6 +12339,9 @@
       <c r="P224" t="n">
         <v>0</v>
       </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11718,6 +12392,9 @@
       <c r="P225" t="n">
         <v>0</v>
       </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11768,6 +12445,9 @@
       <c r="P226" t="n">
         <v>0</v>
       </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11818,6 +12498,9 @@
       <c r="P227" t="n">
         <v>0</v>
       </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11868,6 +12551,9 @@
       <c r="P228" t="n">
         <v>0</v>
       </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11918,6 +12604,9 @@
       <c r="P229" t="n">
         <v>0</v>
       </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11968,6 +12657,9 @@
       <c r="P230" t="n">
         <v>0</v>
       </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12018,6 +12710,9 @@
       <c r="P231" t="n">
         <v>0</v>
       </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12068,6 +12763,9 @@
       <c r="P232" t="n">
         <v>0</v>
       </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12118,6 +12816,9 @@
       <c r="P233" t="n">
         <v>0</v>
       </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12168,6 +12869,9 @@
       <c r="P234" t="n">
         <v>1</v>
       </c>
+      <c r="Q234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12218,6 +12922,9 @@
       <c r="P235" t="n">
         <v>0</v>
       </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12268,6 +12975,9 @@
       <c r="P236" t="n">
         <v>0</v>
       </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -12318,6 +13028,9 @@
       <c r="P237" t="n">
         <v>0</v>
       </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -12368,6 +13081,9 @@
       <c r="P238" t="n">
         <v>0</v>
       </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -12418,6 +13134,9 @@
       <c r="P239" t="n">
         <v>0</v>
       </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -12468,6 +13187,9 @@
       <c r="P240" t="n">
         <v>0</v>
       </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12518,6 +13240,9 @@
       <c r="P241" t="n">
         <v>0</v>
       </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12568,6 +13293,9 @@
       <c r="P242" t="n">
         <v>0</v>
       </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12618,6 +13346,9 @@
       <c r="P243" t="n">
         <v>0</v>
       </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12668,6 +13399,9 @@
       <c r="P244" t="n">
         <v>0</v>
       </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12718,6 +13452,9 @@
       <c r="P245" t="n">
         <v>0</v>
       </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12768,6 +13505,9 @@
       <c r="P246" t="n">
         <v>0</v>
       </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12810,12 +13550,15 @@
         <v>4</v>
       </c>
       <c r="N247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O247" t="n">
         <v>0</v>
       </c>
       <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12868,6 +13611,9 @@
       <c r="P248" t="n">
         <v>0</v>
       </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12918,6 +13664,9 @@
       <c r="P249" t="n">
         <v>0</v>
       </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12968,6 +13717,9 @@
       <c r="P250" t="n">
         <v>0</v>
       </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13018,6 +13770,9 @@
       <c r="P251" t="n">
         <v>0</v>
       </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13068,6 +13823,9 @@
       <c r="P252" t="n">
         <v>0</v>
       </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13110,7 +13868,7 @@
         <v>4</v>
       </c>
       <c r="N253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O253" t="n">
         <v>0</v>
@@ -13118,6 +13876,723 @@
       <c r="P253" t="n">
         <v>0</v>
       </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45679.38541666666</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1962.199951171875</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1969.800048828125</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1928</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1969.800048828125</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>22</v>
+      </c>
+      <c r="J254" t="n">
+        <v>9</v>
+      </c>
+      <c r="K254" t="n">
+        <v>15</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>4</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45679.42708333334</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1964.150024414062</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1975.900024414062</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1939.349975585938</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1975.900024414062</v>
+      </c>
+      <c r="F255" t="n">
+        <v>66</v>
+      </c>
+      <c r="G255" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>22</v>
+      </c>
+      <c r="J255" t="n">
+        <v>10</v>
+      </c>
+      <c r="K255" t="n">
+        <v>15</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>4</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45679.46875</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1966.650024414062</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1958.75</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1969.699951171875</v>
+      </c>
+      <c r="F256" t="n">
+        <v>260</v>
+      </c>
+      <c r="G256" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>22</v>
+      </c>
+      <c r="J256" t="n">
+        <v>11</v>
+      </c>
+      <c r="K256" t="n">
+        <v>15</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>4</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45679.51041666666</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1965.699951171875</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1981.650024414062</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1965.699951171875</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1981.650024414062</v>
+      </c>
+      <c r="F257" t="n">
+        <v>58</v>
+      </c>
+      <c r="G257" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>22</v>
+      </c>
+      <c r="J257" t="n">
+        <v>12</v>
+      </c>
+      <c r="K257" t="n">
+        <v>15</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>4</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45679.55208333334</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1991.550048828125</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1998.900024414062</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1976.550048828125</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1998.050048828125</v>
+      </c>
+      <c r="F258" t="n">
+        <v>182</v>
+      </c>
+      <c r="G258" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>22</v>
+      </c>
+      <c r="J258" t="n">
+        <v>13</v>
+      </c>
+      <c r="K258" t="n">
+        <v>15</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>4</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0</v>
+      </c>
+      <c r="O258" t="n">
+        <v>2</v>
+      </c>
+      <c r="P258" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45679.59375</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2003.949951171875</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2009.949951171875</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1987.199951171875</v>
+      </c>
+      <c r="E259" t="n">
+        <v>2009.949951171875</v>
+      </c>
+      <c r="F259" t="n">
+        <v>883</v>
+      </c>
+      <c r="G259" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>22</v>
+      </c>
+      <c r="J259" t="n">
+        <v>14</v>
+      </c>
+      <c r="K259" t="n">
+        <v>15</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>4</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45679.63541666666</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1977.349975585938</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1997</v>
+      </c>
+      <c r="F260" t="n">
+        <v>98</v>
+      </c>
+      <c r="G260" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>22</v>
+      </c>
+      <c r="J260" t="n">
+        <v>15</v>
+      </c>
+      <c r="K260" t="n">
+        <v>15</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>4</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45680.38541666666</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1993.5</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2029.349975585938</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1976.800048828125</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2029.349975585938</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>23</v>
+      </c>
+      <c r="J261" t="n">
+        <v>9</v>
+      </c>
+      <c r="K261" t="n">
+        <v>15</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>4</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45680.42708333334</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2033.150024414062</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2036.949951171875</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2000.5</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2016.900024414062</v>
+      </c>
+      <c r="F262" t="n">
+        <v>110</v>
+      </c>
+      <c r="G262" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>23</v>
+      </c>
+      <c r="J262" t="n">
+        <v>10</v>
+      </c>
+      <c r="K262" t="n">
+        <v>15</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>4</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45680.46875</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2016.5</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2053.5</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2016.5</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2053.5</v>
+      </c>
+      <c r="F263" t="n">
+        <v>127</v>
+      </c>
+      <c r="G263" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>23</v>
+      </c>
+      <c r="J263" t="n">
+        <v>11</v>
+      </c>
+      <c r="K263" t="n">
+        <v>15</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>4</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45680.51041666666</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2047</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2120.050048828125</v>
+      </c>
+      <c r="D264" t="n">
+        <v>2043.199951171875</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2098.699951171875</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1783</v>
+      </c>
+      <c r="G264" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>23</v>
+      </c>
+      <c r="J264" t="n">
+        <v>12</v>
+      </c>
+      <c r="K264" t="n">
+        <v>15</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>4</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1</v>
+      </c>
+      <c r="P264" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45680.55208333334</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2098.699951171875</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2098.699951171875</v>
+      </c>
+      <c r="D265" t="n">
+        <v>2078</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2098</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G265" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>23</v>
+      </c>
+      <c r="J265" t="n">
+        <v>13</v>
+      </c>
+      <c r="K265" t="n">
+        <v>15</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>4</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45680.59375</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2098</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2139.39990234375</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2093</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F266" t="n">
+        <v>568</v>
+      </c>
+      <c r="G266" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>23</v>
+      </c>
+      <c r="J266" t="n">
+        <v>14</v>
+      </c>
+      <c r="K266" t="n">
+        <v>15</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>4</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45680.63541666666</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2109.25</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2143</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2099.25</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2116.14990234375</v>
+      </c>
+      <c r="F267" t="n">
+        <v>169</v>
+      </c>
+      <c r="G267" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>23</v>
+      </c>
+      <c r="J267" t="n">
+        <v>15</v>
+      </c>
+      <c r="K267" t="n">
+        <v>15</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>4</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KMEW.BO.xlsx
+++ b/stock_historical_data/60m/KMEW.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q267"/>
+  <dimension ref="A1:Q274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13929,7 +13929,9 @@
       <c r="P254" t="n">
         <v>0</v>
       </c>
-      <c r="Q254" t="inlineStr"/>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13980,7 +13982,9 @@
       <c r="P255" t="n">
         <v>0</v>
       </c>
-      <c r="Q255" t="inlineStr"/>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14031,7 +14035,9 @@
       <c r="P256" t="n">
         <v>0</v>
       </c>
-      <c r="Q256" t="inlineStr"/>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14082,7 +14088,9 @@
       <c r="P257" t="n">
         <v>0</v>
       </c>
-      <c r="Q257" t="inlineStr"/>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14133,7 +14141,9 @@
       <c r="P258" t="n">
         <v>2</v>
       </c>
-      <c r="Q258" t="inlineStr"/>
+      <c r="Q258" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14184,7 +14194,9 @@
       <c r="P259" t="n">
         <v>0</v>
       </c>
-      <c r="Q259" t="inlineStr"/>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -14235,7 +14247,9 @@
       <c r="P260" t="n">
         <v>0</v>
       </c>
-      <c r="Q260" t="inlineStr"/>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -14286,7 +14300,9 @@
       <c r="P261" t="n">
         <v>0</v>
       </c>
-      <c r="Q261" t="inlineStr"/>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -14337,7 +14353,9 @@
       <c r="P262" t="n">
         <v>0</v>
       </c>
-      <c r="Q262" t="inlineStr"/>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -14388,7 +14406,9 @@
       <c r="P263" t="n">
         <v>0</v>
       </c>
-      <c r="Q263" t="inlineStr"/>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -14439,7 +14459,9 @@
       <c r="P264" t="n">
         <v>1</v>
       </c>
-      <c r="Q264" t="inlineStr"/>
+      <c r="Q264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -14490,7 +14512,9 @@
       <c r="P265" t="n">
         <v>0</v>
       </c>
-      <c r="Q265" t="inlineStr"/>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -14541,7 +14565,9 @@
       <c r="P266" t="n">
         <v>0</v>
       </c>
-      <c r="Q266" t="inlineStr"/>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -14592,7 +14618,366 @@
       <c r="P267" t="n">
         <v>0</v>
       </c>
-      <c r="Q267" t="inlineStr"/>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45681.38541666666</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2118.800048828125</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2120.050048828125</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2072.10009765625</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2072.10009765625</v>
+      </c>
+      <c r="F268" t="n">
+        <v>51</v>
+      </c>
+      <c r="G268" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>24</v>
+      </c>
+      <c r="J268" t="n">
+        <v>9</v>
+      </c>
+      <c r="K268" t="n">
+        <v>15</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>4</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45681.42708333334</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2067.800048828125</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2075.39990234375</v>
+      </c>
+      <c r="D269" t="n">
+        <v>2067.5</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2073.550048828125</v>
+      </c>
+      <c r="F269" t="n">
+        <v>9</v>
+      </c>
+      <c r="G269" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>24</v>
+      </c>
+      <c r="J269" t="n">
+        <v>10</v>
+      </c>
+      <c r="K269" t="n">
+        <v>15</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>4</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45681.46875</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2074.449951171875</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2074.449951171875</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2056.050048828125</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2056.050048828125</v>
+      </c>
+      <c r="F270" t="n">
+        <v>95</v>
+      </c>
+      <c r="G270" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>24</v>
+      </c>
+      <c r="J270" t="n">
+        <v>11</v>
+      </c>
+      <c r="K270" t="n">
+        <v>15</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>4</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45681.51041666666</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2076.699951171875</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2076.699951171875</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2056</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2072.800048828125</v>
+      </c>
+      <c r="F271" t="n">
+        <v>31</v>
+      </c>
+      <c r="G271" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>24</v>
+      </c>
+      <c r="J271" t="n">
+        <v>12</v>
+      </c>
+      <c r="K271" t="n">
+        <v>15</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>4</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45681.55208333334</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2056.800048828125</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2056.800048828125</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2056.35009765625</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2056.35009765625</v>
+      </c>
+      <c r="F272" t="n">
+        <v>19</v>
+      </c>
+      <c r="G272" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>24</v>
+      </c>
+      <c r="J272" t="n">
+        <v>13</v>
+      </c>
+      <c r="K272" t="n">
+        <v>15</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>4</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45681.59375</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2041.300048828125</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2087.199951171875</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1986.050048828125</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2070.60009765625</v>
+      </c>
+      <c r="F273" t="n">
+        <v>651</v>
+      </c>
+      <c r="G273" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>24</v>
+      </c>
+      <c r="J273" t="n">
+        <v>14</v>
+      </c>
+      <c r="K273" t="n">
+        <v>15</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>4</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45681.63541666666</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2076.199951171875</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2081.60009765625</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1970</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2030.300048828125</v>
+      </c>
+      <c r="F274" t="n">
+        <v>266</v>
+      </c>
+      <c r="G274" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>24</v>
+      </c>
+      <c r="J274" t="n">
+        <v>15</v>
+      </c>
+      <c r="K274" t="n">
+        <v>15</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>4</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KMEW.BO.xlsx
+++ b/stock_historical_data/60m/KMEW.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q274"/>
+  <dimension ref="A1:Q288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14610,7 +14610,7 @@
         <v>4</v>
       </c>
       <c r="N267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O267" t="n">
         <v>0</v>
@@ -14671,7 +14671,9 @@
       <c r="P268" t="n">
         <v>0</v>
       </c>
-      <c r="Q268" t="inlineStr"/>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -14722,7 +14724,9 @@
       <c r="P269" t="n">
         <v>0</v>
       </c>
-      <c r="Q269" t="inlineStr"/>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -14773,7 +14777,9 @@
       <c r="P270" t="n">
         <v>0</v>
       </c>
-      <c r="Q270" t="inlineStr"/>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -14824,7 +14830,9 @@
       <c r="P271" t="n">
         <v>0</v>
       </c>
-      <c r="Q271" t="inlineStr"/>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14875,7 +14883,9 @@
       <c r="P272" t="n">
         <v>0</v>
       </c>
-      <c r="Q272" t="inlineStr"/>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14926,7 +14936,9 @@
       <c r="P273" t="n">
         <v>0</v>
       </c>
-      <c r="Q273" t="inlineStr"/>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -14977,7 +14989,723 @@
       <c r="P274" t="n">
         <v>0</v>
       </c>
-      <c r="Q274" t="inlineStr"/>
+      <c r="Q274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45684.38541666666</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2008.050048828125</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2008.050048828125</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1915</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0</v>
+      </c>
+      <c r="G275" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>27</v>
+      </c>
+      <c r="J275" t="n">
+        <v>9</v>
+      </c>
+      <c r="K275" t="n">
+        <v>15</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>5</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0</v>
+      </c>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45684.42708333334</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1918.300048828125</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1939.650024414062</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1890</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1899</v>
+      </c>
+      <c r="F276" t="n">
+        <v>285</v>
+      </c>
+      <c r="G276" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>27</v>
+      </c>
+      <c r="J276" t="n">
+        <v>10</v>
+      </c>
+      <c r="K276" t="n">
+        <v>15</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>5</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45684.46875</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1893.550048828125</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1903.800048828125</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1883.5</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1883.5</v>
+      </c>
+      <c r="F277" t="n">
+        <v>109</v>
+      </c>
+      <c r="G277" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>27</v>
+      </c>
+      <c r="J277" t="n">
+        <v>11</v>
+      </c>
+      <c r="K277" t="n">
+        <v>15</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>5</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45684.51041666666</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1882</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1896.449951171875</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1880</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1888.75</v>
+      </c>
+      <c r="F278" t="n">
+        <v>133</v>
+      </c>
+      <c r="G278" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>27</v>
+      </c>
+      <c r="J278" t="n">
+        <v>12</v>
+      </c>
+      <c r="K278" t="n">
+        <v>15</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>5</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0</v>
+      </c>
+      <c r="O278" t="n">
+        <v>2</v>
+      </c>
+      <c r="P278" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45684.55208333334</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1883</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1883</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1856</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1856</v>
+      </c>
+      <c r="F279" t="n">
+        <v>140</v>
+      </c>
+      <c r="G279" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>27</v>
+      </c>
+      <c r="J279" t="n">
+        <v>13</v>
+      </c>
+      <c r="K279" t="n">
+        <v>15</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>5</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45684.59375</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1869.099975585938</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1884</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1851</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1854.400024414062</v>
+      </c>
+      <c r="F280" t="n">
+        <v>263</v>
+      </c>
+      <c r="G280" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>27</v>
+      </c>
+      <c r="J280" t="n">
+        <v>14</v>
+      </c>
+      <c r="K280" t="n">
+        <v>15</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>5</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0</v>
+      </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45684.63541666666</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1865.900024414062</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1868.349975585938</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1846.349975585938</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1860.800048828125</v>
+      </c>
+      <c r="F281" t="n">
+        <v>153</v>
+      </c>
+      <c r="G281" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>27</v>
+      </c>
+      <c r="J281" t="n">
+        <v>15</v>
+      </c>
+      <c r="K281" t="n">
+        <v>15</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>5</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45685.38541666666</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1748.949951171875</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1765.699951171875</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>28</v>
+      </c>
+      <c r="J282" t="n">
+        <v>9</v>
+      </c>
+      <c r="K282" t="n">
+        <v>15</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>5</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0</v>
+      </c>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45685.42708333334</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1760.25</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1791.5</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1740</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1777</v>
+      </c>
+      <c r="F283" t="n">
+        <v>330</v>
+      </c>
+      <c r="G283" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>28</v>
+      </c>
+      <c r="J283" t="n">
+        <v>10</v>
+      </c>
+      <c r="K283" t="n">
+        <v>15</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>5</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1765.099975585938</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1780.949951171875</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1754.400024414062</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1755.599975585938</v>
+      </c>
+      <c r="F284" t="n">
+        <v>128</v>
+      </c>
+      <c r="G284" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>28</v>
+      </c>
+      <c r="J284" t="n">
+        <v>11</v>
+      </c>
+      <c r="K284" t="n">
+        <v>15</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>5</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1779</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1799</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1779</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1784.5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>65</v>
+      </c>
+      <c r="G285" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>28</v>
+      </c>
+      <c r="J285" t="n">
+        <v>12</v>
+      </c>
+      <c r="K285" t="n">
+        <v>15</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>5</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45685.55208333334</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1780.349975585938</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1815</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1780.349975585938</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1815</v>
+      </c>
+      <c r="F286" t="n">
+        <v>204</v>
+      </c>
+      <c r="G286" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>28</v>
+      </c>
+      <c r="J286" t="n">
+        <v>13</v>
+      </c>
+      <c r="K286" t="n">
+        <v>15</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>5</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0</v>
+      </c>
+      <c r="O286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1832.75</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1840.099975585938</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1798.800048828125</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1818.199951171875</v>
+      </c>
+      <c r="F287" t="n">
+        <v>109</v>
+      </c>
+      <c r="G287" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>28</v>
+      </c>
+      <c r="J287" t="n">
+        <v>14</v>
+      </c>
+      <c r="K287" t="n">
+        <v>15</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>5</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0</v>
+      </c>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45685.63541666666</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1822.150024414062</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1839</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1766.800048828125</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1812.050048828125</v>
+      </c>
+      <c r="F288" t="n">
+        <v>46</v>
+      </c>
+      <c r="G288" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H288" t="n">
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>28</v>
+      </c>
+      <c r="J288" t="n">
+        <v>15</v>
+      </c>
+      <c r="K288" t="n">
+        <v>15</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>5</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0</v>
+      </c>
+      <c r="O288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KMEW.BO.xlsx
+++ b/stock_historical_data/60m/KMEW.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q288"/>
+  <dimension ref="A1:Q302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15042,7 +15042,9 @@
       <c r="P275" t="n">
         <v>0</v>
       </c>
-      <c r="Q275" t="inlineStr"/>
+      <c r="Q275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15093,7 +15095,9 @@
       <c r="P276" t="n">
         <v>0</v>
       </c>
-      <c r="Q276" t="inlineStr"/>
+      <c r="Q276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15144,7 +15148,9 @@
       <c r="P277" t="n">
         <v>0</v>
       </c>
-      <c r="Q277" t="inlineStr"/>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -15195,7 +15201,9 @@
       <c r="P278" t="n">
         <v>2</v>
       </c>
-      <c r="Q278" t="inlineStr"/>
+      <c r="Q278" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -15246,7 +15254,9 @@
       <c r="P279" t="n">
         <v>0</v>
       </c>
-      <c r="Q279" t="inlineStr"/>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -15297,7 +15307,9 @@
       <c r="P280" t="n">
         <v>0</v>
       </c>
-      <c r="Q280" t="inlineStr"/>
+      <c r="Q280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -15348,7 +15360,9 @@
       <c r="P281" t="n">
         <v>0</v>
       </c>
-      <c r="Q281" t="inlineStr"/>
+      <c r="Q281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -15399,7 +15413,9 @@
       <c r="P282" t="n">
         <v>0</v>
       </c>
-      <c r="Q282" t="inlineStr"/>
+      <c r="Q282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -15442,7 +15458,7 @@
         <v>5</v>
       </c>
       <c r="N283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O283" t="n">
         <v>0</v>
@@ -15450,7 +15466,9 @@
       <c r="P283" t="n">
         <v>0</v>
       </c>
-      <c r="Q283" t="inlineStr"/>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -15501,7 +15519,9 @@
       <c r="P284" t="n">
         <v>0</v>
       </c>
-      <c r="Q284" t="inlineStr"/>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -15552,7 +15572,9 @@
       <c r="P285" t="n">
         <v>0</v>
       </c>
-      <c r="Q285" t="inlineStr"/>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -15603,7 +15625,9 @@
       <c r="P286" t="n">
         <v>0</v>
       </c>
-      <c r="Q286" t="inlineStr"/>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -15654,7 +15678,9 @@
       <c r="P287" t="n">
         <v>0</v>
       </c>
-      <c r="Q287" t="inlineStr"/>
+      <c r="Q287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -15705,7 +15731,723 @@
       <c r="P288" t="n">
         <v>0</v>
       </c>
-      <c r="Q288" t="inlineStr"/>
+      <c r="Q288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45686.38541666666</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1857.300048828125</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1810</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1840</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>29</v>
+      </c>
+      <c r="J289" t="n">
+        <v>9</v>
+      </c>
+      <c r="K289" t="n">
+        <v>15</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>5</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1909.849975585938</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1830</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1909.849975585938</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1236</v>
+      </c>
+      <c r="G290" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>29</v>
+      </c>
+      <c r="J290" t="n">
+        <v>10</v>
+      </c>
+      <c r="K290" t="n">
+        <v>15</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>5</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0</v>
+      </c>
+      <c r="O290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1864.449951171875</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1919</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1864.449951171875</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1910</v>
+      </c>
+      <c r="F291" t="n">
+        <v>303</v>
+      </c>
+      <c r="G291" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>29</v>
+      </c>
+      <c r="J291" t="n">
+        <v>11</v>
+      </c>
+      <c r="K291" t="n">
+        <v>15</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>5</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0</v>
+      </c>
+      <c r="O291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1915.199951171875</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1915.199951171875</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1895.25</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F292" t="n">
+        <v>418</v>
+      </c>
+      <c r="G292" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>29</v>
+      </c>
+      <c r="J292" t="n">
+        <v>12</v>
+      </c>
+      <c r="K292" t="n">
+        <v>15</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>5</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0</v>
+      </c>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1883.099975585938</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1883.099975585938</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1883.099975585938</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1883.099975585938</v>
+      </c>
+      <c r="F293" t="n">
+        <v>31</v>
+      </c>
+      <c r="G293" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>29</v>
+      </c>
+      <c r="J293" t="n">
+        <v>13</v>
+      </c>
+      <c r="K293" t="n">
+        <v>15</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>5</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0</v>
+      </c>
+      <c r="O293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1865.050048828125</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1901.949951171875</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1865</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1899.949951171875</v>
+      </c>
+      <c r="F294" t="n">
+        <v>120</v>
+      </c>
+      <c r="G294" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>29</v>
+      </c>
+      <c r="J294" t="n">
+        <v>14</v>
+      </c>
+      <c r="K294" t="n">
+        <v>15</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>5</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0</v>
+      </c>
+      <c r="O294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P294" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1915.25</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1871.599975585938</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1880.75</v>
+      </c>
+      <c r="F295" t="n">
+        <v>160</v>
+      </c>
+      <c r="G295" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>29</v>
+      </c>
+      <c r="J295" t="n">
+        <v>15</v>
+      </c>
+      <c r="K295" t="n">
+        <v>15</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>5</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0</v>
+      </c>
+      <c r="O295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2040</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2040</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1882.099975585938</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1886</v>
+      </c>
+      <c r="F296" t="n">
+        <v>149</v>
+      </c>
+      <c r="G296" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>30</v>
+      </c>
+      <c r="J296" t="n">
+        <v>9</v>
+      </c>
+      <c r="K296" t="n">
+        <v>15</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>5</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0</v>
+      </c>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1893.699951171875</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1893.699951171875</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1893.699951171875</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1893.699951171875</v>
+      </c>
+      <c r="F297" t="n">
+        <v>3</v>
+      </c>
+      <c r="G297" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>30</v>
+      </c>
+      <c r="J297" t="n">
+        <v>10</v>
+      </c>
+      <c r="K297" t="n">
+        <v>15</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>5</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0</v>
+      </c>
+      <c r="O297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1890.150024414062</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1893.849975585938</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1890</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1890</v>
+      </c>
+      <c r="F298" t="n">
+        <v>37</v>
+      </c>
+      <c r="G298" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>30</v>
+      </c>
+      <c r="J298" t="n">
+        <v>11</v>
+      </c>
+      <c r="K298" t="n">
+        <v>15</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>5</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0</v>
+      </c>
+      <c r="O298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F299" t="n">
+        <v>2</v>
+      </c>
+      <c r="G299" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H299" t="n">
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>30</v>
+      </c>
+      <c r="J299" t="n">
+        <v>12</v>
+      </c>
+      <c r="K299" t="n">
+        <v>15</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>5</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0</v>
+      </c>
+      <c r="O299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1890</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1886</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1886</v>
+      </c>
+      <c r="F300" t="n">
+        <v>33</v>
+      </c>
+      <c r="G300" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>30</v>
+      </c>
+      <c r="J300" t="n">
+        <v>13</v>
+      </c>
+      <c r="K300" t="n">
+        <v>15</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>5</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0</v>
+      </c>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1887</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1887</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1864</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1881.449951171875</v>
+      </c>
+      <c r="F301" t="n">
+        <v>196</v>
+      </c>
+      <c r="G301" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>30</v>
+      </c>
+      <c r="J301" t="n">
+        <v>14</v>
+      </c>
+      <c r="K301" t="n">
+        <v>15</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>5</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1875.75</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1923</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1875.75</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1882.550048828125</v>
+      </c>
+      <c r="F302" t="n">
+        <v>7</v>
+      </c>
+      <c r="G302" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>30</v>
+      </c>
+      <c r="J302" t="n">
+        <v>15</v>
+      </c>
+      <c r="K302" t="n">
+        <v>15</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>5</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0</v>
+      </c>
+      <c r="O302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KMEW.BO.xlsx
+++ b/stock_historical_data/60m/KMEW.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q302"/>
+  <dimension ref="A1:Q316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15784,7 +15784,9 @@
       <c r="P289" t="n">
         <v>0</v>
       </c>
-      <c r="Q289" t="inlineStr"/>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -15835,7 +15837,9 @@
       <c r="P290" t="n">
         <v>0</v>
       </c>
-      <c r="Q290" t="inlineStr"/>
+      <c r="Q290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -15886,7 +15890,9 @@
       <c r="P291" t="n">
         <v>0</v>
       </c>
-      <c r="Q291" t="inlineStr"/>
+      <c r="Q291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15937,7 +15943,9 @@
       <c r="P292" t="n">
         <v>0</v>
       </c>
-      <c r="Q292" t="inlineStr"/>
+      <c r="Q292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15988,7 +15996,9 @@
       <c r="P293" t="n">
         <v>0</v>
       </c>
-      <c r="Q293" t="inlineStr"/>
+      <c r="Q293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16039,7 +16049,9 @@
       <c r="P294" t="n">
         <v>1</v>
       </c>
-      <c r="Q294" t="inlineStr"/>
+      <c r="Q294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16090,7 +16102,9 @@
       <c r="P295" t="n">
         <v>0</v>
       </c>
-      <c r="Q295" t="inlineStr"/>
+      <c r="Q295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -16133,7 +16147,7 @@
         <v>5</v>
       </c>
       <c r="N296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O296" t="n">
         <v>0</v>
@@ -16141,7 +16155,9 @@
       <c r="P296" t="n">
         <v>0</v>
       </c>
-      <c r="Q296" t="inlineStr"/>
+      <c r="Q296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -16192,7 +16208,9 @@
       <c r="P297" t="n">
         <v>0</v>
       </c>
-      <c r="Q297" t="inlineStr"/>
+      <c r="Q297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -16243,7 +16261,9 @@
       <c r="P298" t="n">
         <v>0</v>
       </c>
-      <c r="Q298" t="inlineStr"/>
+      <c r="Q298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -16294,7 +16314,9 @@
       <c r="P299" t="n">
         <v>0</v>
       </c>
-      <c r="Q299" t="inlineStr"/>
+      <c r="Q299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -16345,7 +16367,9 @@
       <c r="P300" t="n">
         <v>0</v>
       </c>
-      <c r="Q300" t="inlineStr"/>
+      <c r="Q300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -16396,7 +16420,9 @@
       <c r="P301" t="n">
         <v>0</v>
       </c>
-      <c r="Q301" t="inlineStr"/>
+      <c r="Q301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -16447,7 +16473,723 @@
       <c r="P302" t="n">
         <v>0</v>
       </c>
-      <c r="Q302" t="inlineStr"/>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1887.75</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1898.099975585938</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1850.25</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1880.300048828125</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0</v>
+      </c>
+      <c r="G303" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>31</v>
+      </c>
+      <c r="J303" t="n">
+        <v>9</v>
+      </c>
+      <c r="K303" t="n">
+        <v>15</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>5</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0</v>
+      </c>
+      <c r="O303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1875.150024414062</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1900.050048828125</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1875.150024414062</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1900.050048828125</v>
+      </c>
+      <c r="F304" t="n">
+        <v>97</v>
+      </c>
+      <c r="G304" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>31</v>
+      </c>
+      <c r="J304" t="n">
+        <v>10</v>
+      </c>
+      <c r="K304" t="n">
+        <v>15</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>5</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45688.46875</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1900.449951171875</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1909.900024414062</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1900.449951171875</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1909.900024414062</v>
+      </c>
+      <c r="F305" t="n">
+        <v>69</v>
+      </c>
+      <c r="G305" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H305" t="n">
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>31</v>
+      </c>
+      <c r="J305" t="n">
+        <v>11</v>
+      </c>
+      <c r="K305" t="n">
+        <v>15</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>5</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0</v>
+      </c>
+      <c r="O305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45688.51041666666</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1900.449951171875</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1900.449951171875</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1850</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F306" t="n">
+        <v>277</v>
+      </c>
+      <c r="G306" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H306" t="n">
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>31</v>
+      </c>
+      <c r="J306" t="n">
+        <v>12</v>
+      </c>
+      <c r="K306" t="n">
+        <v>15</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>5</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0</v>
+      </c>
+      <c r="O306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1869.949951171875</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1869.949951171875</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1860.199951171875</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1869.550048828125</v>
+      </c>
+      <c r="F307" t="n">
+        <v>28</v>
+      </c>
+      <c r="G307" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>31</v>
+      </c>
+      <c r="J307" t="n">
+        <v>13</v>
+      </c>
+      <c r="K307" t="n">
+        <v>15</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>5</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0</v>
+      </c>
+      <c r="O307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1878.150024414062</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1878.150024414062</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1847.550048828125</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1847.550048828125</v>
+      </c>
+      <c r="F308" t="n">
+        <v>45</v>
+      </c>
+      <c r="G308" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>31</v>
+      </c>
+      <c r="J308" t="n">
+        <v>14</v>
+      </c>
+      <c r="K308" t="n">
+        <v>15</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>5</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0</v>
+      </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45688.63541666666</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1844.25</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1923.449951171875</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1820.050048828125</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1847.199951171875</v>
+      </c>
+      <c r="F309" t="n">
+        <v>273</v>
+      </c>
+      <c r="G309" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>31</v>
+      </c>
+      <c r="J309" t="n">
+        <v>15</v>
+      </c>
+      <c r="K309" t="n">
+        <v>15</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>5</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0</v>
+      </c>
+      <c r="O309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45691.38541666666</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1868.050048828125</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1967.900024414062</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1857.550048828125</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1967.550048828125</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0</v>
+      </c>
+      <c r="G310" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H310" t="n">
+        <v>2</v>
+      </c>
+      <c r="I310" t="n">
+        <v>3</v>
+      </c>
+      <c r="J310" t="n">
+        <v>9</v>
+      </c>
+      <c r="K310" t="n">
+        <v>15</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>6</v>
+      </c>
+      <c r="N310" t="n">
+        <v>0</v>
+      </c>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45691.42708333334</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1968.349975585938</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2029.699951171875</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1961</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1972.150024414062</v>
+      </c>
+      <c r="F311" t="n">
+        <v>645</v>
+      </c>
+      <c r="G311" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H311" t="n">
+        <v>2</v>
+      </c>
+      <c r="I311" t="n">
+        <v>3</v>
+      </c>
+      <c r="J311" t="n">
+        <v>10</v>
+      </c>
+      <c r="K311" t="n">
+        <v>15</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>6</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0</v>
+      </c>
+      <c r="O311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45691.46875</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1961.949951171875</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1983.5</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1961.949951171875</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1979.900024414062</v>
+      </c>
+      <c r="F312" t="n">
+        <v>23</v>
+      </c>
+      <c r="G312" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H312" t="n">
+        <v>2</v>
+      </c>
+      <c r="I312" t="n">
+        <v>3</v>
+      </c>
+      <c r="J312" t="n">
+        <v>11</v>
+      </c>
+      <c r="K312" t="n">
+        <v>15</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M312" t="n">
+        <v>6</v>
+      </c>
+      <c r="N312" t="n">
+        <v>0</v>
+      </c>
+      <c r="O312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45691.51041666666</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1937.900024414062</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1965.949951171875</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1937.900024414062</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1951.349975585938</v>
+      </c>
+      <c r="F313" t="n">
+        <v>162</v>
+      </c>
+      <c r="G313" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H313" t="n">
+        <v>2</v>
+      </c>
+      <c r="I313" t="n">
+        <v>3</v>
+      </c>
+      <c r="J313" t="n">
+        <v>12</v>
+      </c>
+      <c r="K313" t="n">
+        <v>15</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M313" t="n">
+        <v>6</v>
+      </c>
+      <c r="N313" t="n">
+        <v>0</v>
+      </c>
+      <c r="O313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45691.55208333334</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1969.349975585938</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1983.5</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1960.599975585938</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1983.5</v>
+      </c>
+      <c r="F314" t="n">
+        <v>49</v>
+      </c>
+      <c r="G314" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H314" t="n">
+        <v>2</v>
+      </c>
+      <c r="I314" t="n">
+        <v>3</v>
+      </c>
+      <c r="J314" t="n">
+        <v>13</v>
+      </c>
+      <c r="K314" t="n">
+        <v>15</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" t="n">
+        <v>6</v>
+      </c>
+      <c r="N314" t="n">
+        <v>0</v>
+      </c>
+      <c r="O314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45691.59375</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1979.050048828125</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1991.150024414062</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1970</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1991.150024414062</v>
+      </c>
+      <c r="F315" t="n">
+        <v>69</v>
+      </c>
+      <c r="G315" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H315" t="n">
+        <v>2</v>
+      </c>
+      <c r="I315" t="n">
+        <v>3</v>
+      </c>
+      <c r="J315" t="n">
+        <v>14</v>
+      </c>
+      <c r="K315" t="n">
+        <v>15</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" t="n">
+        <v>6</v>
+      </c>
+      <c r="N315" t="n">
+        <v>0</v>
+      </c>
+      <c r="O315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45691.63541666666</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1984.349975585938</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2029.699951171875</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1984.349975585938</v>
+      </c>
+      <c r="E316" t="n">
+        <v>2010.900024414062</v>
+      </c>
+      <c r="F316" t="n">
+        <v>116</v>
+      </c>
+      <c r="G316" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H316" t="n">
+        <v>2</v>
+      </c>
+      <c r="I316" t="n">
+        <v>3</v>
+      </c>
+      <c r="J316" t="n">
+        <v>15</v>
+      </c>
+      <c r="K316" t="n">
+        <v>15</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" t="n">
+        <v>6</v>
+      </c>
+      <c r="N316" t="n">
+        <v>0</v>
+      </c>
+      <c r="O316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q316" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KMEW.BO.xlsx
+++ b/stock_historical_data/60m/KMEW.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q316"/>
+  <dimension ref="A1:Q329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16526,7 +16526,9 @@
       <c r="P303" t="n">
         <v>0</v>
       </c>
-      <c r="Q303" t="inlineStr"/>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -16577,7 +16579,9 @@
       <c r="P304" t="n">
         <v>0</v>
       </c>
-      <c r="Q304" t="inlineStr"/>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -16628,7 +16632,9 @@
       <c r="P305" t="n">
         <v>0</v>
       </c>
-      <c r="Q305" t="inlineStr"/>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -16679,7 +16685,9 @@
       <c r="P306" t="n">
         <v>0</v>
       </c>
-      <c r="Q306" t="inlineStr"/>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -16730,7 +16738,9 @@
       <c r="P307" t="n">
         <v>0</v>
       </c>
-      <c r="Q307" t="inlineStr"/>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -16781,7 +16791,9 @@
       <c r="P308" t="n">
         <v>0</v>
       </c>
-      <c r="Q308" t="inlineStr"/>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -16824,7 +16836,7 @@
         <v>5</v>
       </c>
       <c r="N309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O309" t="n">
         <v>0</v>
@@ -16832,7 +16844,9 @@
       <c r="P309" t="n">
         <v>0</v>
       </c>
-      <c r="Q309" t="inlineStr"/>
+      <c r="Q309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -16883,7 +16897,9 @@
       <c r="P310" t="n">
         <v>0</v>
       </c>
-      <c r="Q310" t="inlineStr"/>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -16934,7 +16950,9 @@
       <c r="P311" t="n">
         <v>0</v>
       </c>
-      <c r="Q311" t="inlineStr"/>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -16985,7 +17003,9 @@
       <c r="P312" t="n">
         <v>0</v>
       </c>
-      <c r="Q312" t="inlineStr"/>
+      <c r="Q312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17036,7 +17056,9 @@
       <c r="P313" t="n">
         <v>0</v>
       </c>
-      <c r="Q313" t="inlineStr"/>
+      <c r="Q313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -17087,7 +17109,9 @@
       <c r="P314" t="n">
         <v>0</v>
       </c>
-      <c r="Q314" t="inlineStr"/>
+      <c r="Q314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -17138,7 +17162,9 @@
       <c r="P315" t="n">
         <v>0</v>
       </c>
-      <c r="Q315" t="inlineStr"/>
+      <c r="Q315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -17189,7 +17215,672 @@
       <c r="P316" t="n">
         <v>0</v>
       </c>
-      <c r="Q316" t="inlineStr"/>
+      <c r="Q316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45692.38541666666</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2033.699951171875</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2048.89990234375</v>
+      </c>
+      <c r="D317" t="n">
+        <v>2016.75</v>
+      </c>
+      <c r="E317" t="n">
+        <v>2048.10009765625</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0</v>
+      </c>
+      <c r="G317" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H317" t="n">
+        <v>2</v>
+      </c>
+      <c r="I317" t="n">
+        <v>4</v>
+      </c>
+      <c r="J317" t="n">
+        <v>9</v>
+      </c>
+      <c r="K317" t="n">
+        <v>15</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>6</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0</v>
+      </c>
+      <c r="O317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45692.42708333334</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2047.449951171875</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2047.449951171875</v>
+      </c>
+      <c r="D318" t="n">
+        <v>2009.949951171875</v>
+      </c>
+      <c r="E318" t="n">
+        <v>2009.949951171875</v>
+      </c>
+      <c r="F318" t="n">
+        <v>77</v>
+      </c>
+      <c r="G318" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H318" t="n">
+        <v>2</v>
+      </c>
+      <c r="I318" t="n">
+        <v>4</v>
+      </c>
+      <c r="J318" t="n">
+        <v>10</v>
+      </c>
+      <c r="K318" t="n">
+        <v>15</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M318" t="n">
+        <v>6</v>
+      </c>
+      <c r="N318" t="n">
+        <v>0</v>
+      </c>
+      <c r="O318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45692.46875</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2015.699951171875</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2015.699951171875</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2015.699951171875</v>
+      </c>
+      <c r="E319" t="n">
+        <v>2015.699951171875</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2</v>
+      </c>
+      <c r="G319" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H319" t="n">
+        <v>2</v>
+      </c>
+      <c r="I319" t="n">
+        <v>4</v>
+      </c>
+      <c r="J319" t="n">
+        <v>11</v>
+      </c>
+      <c r="K319" t="n">
+        <v>15</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="n">
+        <v>6</v>
+      </c>
+      <c r="N319" t="n">
+        <v>0</v>
+      </c>
+      <c r="O319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45692.51041666666</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2030.5</v>
+      </c>
+      <c r="D320" t="n">
+        <v>2010.650024414062</v>
+      </c>
+      <c r="E320" t="n">
+        <v>2023.949951171875</v>
+      </c>
+      <c r="F320" t="n">
+        <v>171</v>
+      </c>
+      <c r="G320" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H320" t="n">
+        <v>2</v>
+      </c>
+      <c r="I320" t="n">
+        <v>4</v>
+      </c>
+      <c r="J320" t="n">
+        <v>12</v>
+      </c>
+      <c r="K320" t="n">
+        <v>15</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M320" t="n">
+        <v>6</v>
+      </c>
+      <c r="N320" t="n">
+        <v>0</v>
+      </c>
+      <c r="O320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45692.59375</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2011.949951171875</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2020.949951171875</v>
+      </c>
+      <c r="D321" t="n">
+        <v>2007.949951171875</v>
+      </c>
+      <c r="E321" t="n">
+        <v>2008.349975585938</v>
+      </c>
+      <c r="F321" t="n">
+        <v>93</v>
+      </c>
+      <c r="G321" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H321" t="n">
+        <v>2</v>
+      </c>
+      <c r="I321" t="n">
+        <v>4</v>
+      </c>
+      <c r="J321" t="n">
+        <v>14</v>
+      </c>
+      <c r="K321" t="n">
+        <v>15</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M321" t="n">
+        <v>6</v>
+      </c>
+      <c r="N321" t="n">
+        <v>0</v>
+      </c>
+      <c r="O321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45692.63541666666</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2057.39990234375</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2058.800048828125</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E322" t="n">
+        <v>2046.800048828125</v>
+      </c>
+      <c r="F322" t="n">
+        <v>33</v>
+      </c>
+      <c r="G322" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H322" t="n">
+        <v>2</v>
+      </c>
+      <c r="I322" t="n">
+        <v>4</v>
+      </c>
+      <c r="J322" t="n">
+        <v>15</v>
+      </c>
+      <c r="K322" t="n">
+        <v>15</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M322" t="n">
+        <v>6</v>
+      </c>
+      <c r="N322" t="n">
+        <v>0</v>
+      </c>
+      <c r="O322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45693.38541666666</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2005.900024414062</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2005.900024414062</v>
+      </c>
+      <c r="E323" t="n">
+        <v>2060</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0</v>
+      </c>
+      <c r="G323" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H323" t="n">
+        <v>2</v>
+      </c>
+      <c r="I323" t="n">
+        <v>5</v>
+      </c>
+      <c r="J323" t="n">
+        <v>9</v>
+      </c>
+      <c r="K323" t="n">
+        <v>15</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M323" t="n">
+        <v>6</v>
+      </c>
+      <c r="N323" t="n">
+        <v>0</v>
+      </c>
+      <c r="O323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45693.42708333334</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2032.5</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2059.25</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2032.5</v>
+      </c>
+      <c r="E324" t="n">
+        <v>2041.699951171875</v>
+      </c>
+      <c r="F324" t="n">
+        <v>6</v>
+      </c>
+      <c r="G324" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H324" t="n">
+        <v>2</v>
+      </c>
+      <c r="I324" t="n">
+        <v>5</v>
+      </c>
+      <c r="J324" t="n">
+        <v>10</v>
+      </c>
+      <c r="K324" t="n">
+        <v>15</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>6</v>
+      </c>
+      <c r="N324" t="n">
+        <v>0</v>
+      </c>
+      <c r="O324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45693.46875</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2005.050048828125</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2040.75</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2005.050048828125</v>
+      </c>
+      <c r="E325" t="n">
+        <v>2030.300048828125</v>
+      </c>
+      <c r="F325" t="n">
+        <v>107</v>
+      </c>
+      <c r="G325" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H325" t="n">
+        <v>2</v>
+      </c>
+      <c r="I325" t="n">
+        <v>5</v>
+      </c>
+      <c r="J325" t="n">
+        <v>11</v>
+      </c>
+      <c r="K325" t="n">
+        <v>15</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M325" t="n">
+        <v>6</v>
+      </c>
+      <c r="N325" t="n">
+        <v>0</v>
+      </c>
+      <c r="O325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45693.51041666666</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2012.550048828125</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2034.849975585938</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2012.550048828125</v>
+      </c>
+      <c r="E326" t="n">
+        <v>2020.699951171875</v>
+      </c>
+      <c r="F326" t="n">
+        <v>58</v>
+      </c>
+      <c r="G326" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H326" t="n">
+        <v>2</v>
+      </c>
+      <c r="I326" t="n">
+        <v>5</v>
+      </c>
+      <c r="J326" t="n">
+        <v>12</v>
+      </c>
+      <c r="K326" t="n">
+        <v>15</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" t="n">
+        <v>6</v>
+      </c>
+      <c r="N326" t="n">
+        <v>0</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45693.55208333334</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2016.099975585938</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2032.449951171875</v>
+      </c>
+      <c r="D327" t="n">
+        <v>2016.099975585938</v>
+      </c>
+      <c r="E327" t="n">
+        <v>2032.449951171875</v>
+      </c>
+      <c r="F327" t="n">
+        <v>16</v>
+      </c>
+      <c r="G327" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H327" t="n">
+        <v>2</v>
+      </c>
+      <c r="I327" t="n">
+        <v>5</v>
+      </c>
+      <c r="J327" t="n">
+        <v>13</v>
+      </c>
+      <c r="K327" t="n">
+        <v>15</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>6</v>
+      </c>
+      <c r="N327" t="n">
+        <v>0</v>
+      </c>
+      <c r="O327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45693.59375</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2080</v>
+      </c>
+      <c r="D328" t="n">
+        <v>2018.099975585938</v>
+      </c>
+      <c r="E328" t="n">
+        <v>2080</v>
+      </c>
+      <c r="F328" t="n">
+        <v>2307</v>
+      </c>
+      <c r="G328" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H328" t="n">
+        <v>2</v>
+      </c>
+      <c r="I328" t="n">
+        <v>5</v>
+      </c>
+      <c r="J328" t="n">
+        <v>14</v>
+      </c>
+      <c r="K328" t="n">
+        <v>15</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="n">
+        <v>6</v>
+      </c>
+      <c r="N328" t="n">
+        <v>0</v>
+      </c>
+      <c r="O328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45693.63541666666</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2064.199951171875</v>
+      </c>
+      <c r="D329" t="n">
+        <v>2016.099975585938</v>
+      </c>
+      <c r="E329" t="n">
+        <v>2064.199951171875</v>
+      </c>
+      <c r="F329" t="n">
+        <v>73</v>
+      </c>
+      <c r="G329" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H329" t="n">
+        <v>2</v>
+      </c>
+      <c r="I329" t="n">
+        <v>5</v>
+      </c>
+      <c r="J329" t="n">
+        <v>15</v>
+      </c>
+      <c r="K329" t="n">
+        <v>15</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>6</v>
+      </c>
+      <c r="N329" t="n">
+        <v>0</v>
+      </c>
+      <c r="O329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KMEW.BO.xlsx
+++ b/stock_historical_data/60m/KMEW.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q329"/>
+  <dimension ref="A1:Q350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17268,7 +17268,9 @@
       <c r="P317" t="n">
         <v>0</v>
       </c>
-      <c r="Q317" t="inlineStr"/>
+      <c r="Q317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -17319,7 +17321,9 @@
       <c r="P318" t="n">
         <v>0</v>
       </c>
-      <c r="Q318" t="inlineStr"/>
+      <c r="Q318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -17370,7 +17374,9 @@
       <c r="P319" t="n">
         <v>0</v>
       </c>
-      <c r="Q319" t="inlineStr"/>
+      <c r="Q319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -17421,7 +17427,9 @@
       <c r="P320" t="n">
         <v>0</v>
       </c>
-      <c r="Q320" t="inlineStr"/>
+      <c r="Q320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -17472,7 +17480,9 @@
       <c r="P321" t="n">
         <v>0</v>
       </c>
-      <c r="Q321" t="inlineStr"/>
+      <c r="Q321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -17523,7 +17533,9 @@
       <c r="P322" t="n">
         <v>0</v>
       </c>
-      <c r="Q322" t="inlineStr"/>
+      <c r="Q322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -17566,7 +17578,7 @@
         <v>6</v>
       </c>
       <c r="N323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O323" t="n">
         <v>0</v>
@@ -17574,7 +17586,9 @@
       <c r="P323" t="n">
         <v>0</v>
       </c>
-      <c r="Q323" t="inlineStr"/>
+      <c r="Q323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -17625,7 +17639,9 @@
       <c r="P324" t="n">
         <v>0</v>
       </c>
-      <c r="Q324" t="inlineStr"/>
+      <c r="Q324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -17676,7 +17692,9 @@
       <c r="P325" t="n">
         <v>0</v>
       </c>
-      <c r="Q325" t="inlineStr"/>
+      <c r="Q325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -17727,7 +17745,9 @@
       <c r="P326" t="n">
         <v>0</v>
       </c>
-      <c r="Q326" t="inlineStr"/>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -17778,7 +17798,9 @@
       <c r="P327" t="n">
         <v>0</v>
       </c>
-      <c r="Q327" t="inlineStr"/>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -17829,7 +17851,9 @@
       <c r="P328" t="n">
         <v>0</v>
       </c>
-      <c r="Q328" t="inlineStr"/>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -17880,7 +17904,1080 @@
       <c r="P329" t="n">
         <v>0</v>
       </c>
-      <c r="Q329" t="inlineStr"/>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2039.900024414062</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2039.900024414062</v>
+      </c>
+      <c r="D330" t="n">
+        <v>2015.550048828125</v>
+      </c>
+      <c r="E330" t="n">
+        <v>2021.099975585938</v>
+      </c>
+      <c r="F330" t="n">
+        <v>288</v>
+      </c>
+      <c r="G330" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H330" t="n">
+        <v>2</v>
+      </c>
+      <c r="I330" t="n">
+        <v>6</v>
+      </c>
+      <c r="J330" t="n">
+        <v>9</v>
+      </c>
+      <c r="K330" t="n">
+        <v>15</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>6</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0</v>
+      </c>
+      <c r="O330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45694.42708333334</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2021.099975585938</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2027.849975585938</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E331" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F331" t="n">
+        <v>49</v>
+      </c>
+      <c r="G331" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H331" t="n">
+        <v>2</v>
+      </c>
+      <c r="I331" t="n">
+        <v>6</v>
+      </c>
+      <c r="J331" t="n">
+        <v>10</v>
+      </c>
+      <c r="K331" t="n">
+        <v>15</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>6</v>
+      </c>
+      <c r="N331" t="n">
+        <v>0</v>
+      </c>
+      <c r="O331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45694.46875</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2011.650024414062</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2012.150024414062</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E332" t="n">
+        <v>2012.150024414062</v>
+      </c>
+      <c r="F332" t="n">
+        <v>14</v>
+      </c>
+      <c r="G332" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H332" t="n">
+        <v>2</v>
+      </c>
+      <c r="I332" t="n">
+        <v>6</v>
+      </c>
+      <c r="J332" t="n">
+        <v>11</v>
+      </c>
+      <c r="K332" t="n">
+        <v>15</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>6</v>
+      </c>
+      <c r="N332" t="n">
+        <v>0</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45694.51041666666</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2029.75</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F333" t="n">
+        <v>205</v>
+      </c>
+      <c r="G333" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H333" t="n">
+        <v>2</v>
+      </c>
+      <c r="I333" t="n">
+        <v>6</v>
+      </c>
+      <c r="J333" t="n">
+        <v>12</v>
+      </c>
+      <c r="K333" t="n">
+        <v>15</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>6</v>
+      </c>
+      <c r="N333" t="n">
+        <v>0</v>
+      </c>
+      <c r="O333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45694.55208333334</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2001.800048828125</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D334" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E334" t="n">
+        <v>2002</v>
+      </c>
+      <c r="F334" t="n">
+        <v>170</v>
+      </c>
+      <c r="G334" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H334" t="n">
+        <v>2</v>
+      </c>
+      <c r="I334" t="n">
+        <v>6</v>
+      </c>
+      <c r="J334" t="n">
+        <v>13</v>
+      </c>
+      <c r="K334" t="n">
+        <v>15</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" t="n">
+        <v>6</v>
+      </c>
+      <c r="N334" t="n">
+        <v>0</v>
+      </c>
+      <c r="O334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1998.849975585938</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1998.849975585938</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1992.050048828125</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1992.050048828125</v>
+      </c>
+      <c r="F335" t="n">
+        <v>2</v>
+      </c>
+      <c r="G335" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H335" t="n">
+        <v>2</v>
+      </c>
+      <c r="I335" t="n">
+        <v>6</v>
+      </c>
+      <c r="J335" t="n">
+        <v>14</v>
+      </c>
+      <c r="K335" t="n">
+        <v>15</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>6</v>
+      </c>
+      <c r="N335" t="n">
+        <v>0</v>
+      </c>
+      <c r="O335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>45694.63541666666</v>
+      </c>
+      <c r="B336" t="n">
+        <v>1992.050048828125</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1994</v>
+      </c>
+      <c r="F336" t="n">
+        <v>32</v>
+      </c>
+      <c r="G336" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H336" t="n">
+        <v>2</v>
+      </c>
+      <c r="I336" t="n">
+        <v>6</v>
+      </c>
+      <c r="J336" t="n">
+        <v>15</v>
+      </c>
+      <c r="K336" t="n">
+        <v>15</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>6</v>
+      </c>
+      <c r="N336" t="n">
+        <v>0</v>
+      </c>
+      <c r="O336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>45695.38541666666</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1975</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1950</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1962.5</v>
+      </c>
+      <c r="F337" t="n">
+        <v>397</v>
+      </c>
+      <c r="G337" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H337" t="n">
+        <v>2</v>
+      </c>
+      <c r="I337" t="n">
+        <v>7</v>
+      </c>
+      <c r="J337" t="n">
+        <v>9</v>
+      </c>
+      <c r="K337" t="n">
+        <v>15</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M337" t="n">
+        <v>6</v>
+      </c>
+      <c r="N337" t="n">
+        <v>0</v>
+      </c>
+      <c r="O337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>45695.42708333334</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1955.300048828125</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1984.650024414062</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1955.300048828125</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1982</v>
+      </c>
+      <c r="F338" t="n">
+        <v>382</v>
+      </c>
+      <c r="G338" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H338" t="n">
+        <v>2</v>
+      </c>
+      <c r="I338" t="n">
+        <v>7</v>
+      </c>
+      <c r="J338" t="n">
+        <v>10</v>
+      </c>
+      <c r="K338" t="n">
+        <v>15</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>6</v>
+      </c>
+      <c r="N338" t="n">
+        <v>0</v>
+      </c>
+      <c r="O338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45695.46875</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1979.550048828125</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1979.550048828125</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1957.550048828125</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1965</v>
+      </c>
+      <c r="F339" t="n">
+        <v>176</v>
+      </c>
+      <c r="G339" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H339" t="n">
+        <v>2</v>
+      </c>
+      <c r="I339" t="n">
+        <v>7</v>
+      </c>
+      <c r="J339" t="n">
+        <v>11</v>
+      </c>
+      <c r="K339" t="n">
+        <v>15</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>6</v>
+      </c>
+      <c r="N339" t="n">
+        <v>0</v>
+      </c>
+      <c r="O339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45695.51041666666</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1964.900024414062</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1964.900024414062</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1957</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1959.75</v>
+      </c>
+      <c r="F340" t="n">
+        <v>24</v>
+      </c>
+      <c r="G340" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H340" t="n">
+        <v>2</v>
+      </c>
+      <c r="I340" t="n">
+        <v>7</v>
+      </c>
+      <c r="J340" t="n">
+        <v>12</v>
+      </c>
+      <c r="K340" t="n">
+        <v>15</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>6</v>
+      </c>
+      <c r="N340" t="n">
+        <v>0</v>
+      </c>
+      <c r="O340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45695.55208333334</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1938</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1947.300048828125</v>
+      </c>
+      <c r="F341" t="n">
+        <v>111</v>
+      </c>
+      <c r="G341" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H341" t="n">
+        <v>2</v>
+      </c>
+      <c r="I341" t="n">
+        <v>7</v>
+      </c>
+      <c r="J341" t="n">
+        <v>13</v>
+      </c>
+      <c r="K341" t="n">
+        <v>15</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" t="n">
+        <v>6</v>
+      </c>
+      <c r="N341" t="n">
+        <v>0</v>
+      </c>
+      <c r="O341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45695.59375</v>
+      </c>
+      <c r="B342" t="n">
+        <v>1928.199951171875</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1945.849975585938</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1928.199951171875</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1945.849975585938</v>
+      </c>
+      <c r="F342" t="n">
+        <v>159</v>
+      </c>
+      <c r="G342" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H342" t="n">
+        <v>2</v>
+      </c>
+      <c r="I342" t="n">
+        <v>7</v>
+      </c>
+      <c r="J342" t="n">
+        <v>14</v>
+      </c>
+      <c r="K342" t="n">
+        <v>15</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="n">
+        <v>6</v>
+      </c>
+      <c r="N342" t="n">
+        <v>0</v>
+      </c>
+      <c r="O342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45695.63541666666</v>
+      </c>
+      <c r="B343" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1962.849975585938</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1932.25</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1941.949951171875</v>
+      </c>
+      <c r="F343" t="n">
+        <v>56</v>
+      </c>
+      <c r="G343" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H343" t="n">
+        <v>2</v>
+      </c>
+      <c r="I343" t="n">
+        <v>7</v>
+      </c>
+      <c r="J343" t="n">
+        <v>15</v>
+      </c>
+      <c r="K343" t="n">
+        <v>15</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M343" t="n">
+        <v>6</v>
+      </c>
+      <c r="N343" t="n">
+        <v>0</v>
+      </c>
+      <c r="O343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45698.38541666666</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1999.400024414062</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1999.400024414062</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1869.949951171875</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1900</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0</v>
+      </c>
+      <c r="G344" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H344" t="n">
+        <v>2</v>
+      </c>
+      <c r="I344" t="n">
+        <v>10</v>
+      </c>
+      <c r="J344" t="n">
+        <v>9</v>
+      </c>
+      <c r="K344" t="n">
+        <v>15</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>7</v>
+      </c>
+      <c r="N344" t="n">
+        <v>0</v>
+      </c>
+      <c r="O344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B345" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1908.449951171875</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1892.650024414062</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1894.150024414062</v>
+      </c>
+      <c r="F345" t="n">
+        <v>317</v>
+      </c>
+      <c r="G345" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H345" t="n">
+        <v>2</v>
+      </c>
+      <c r="I345" t="n">
+        <v>10</v>
+      </c>
+      <c r="J345" t="n">
+        <v>10</v>
+      </c>
+      <c r="K345" t="n">
+        <v>15</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M345" t="n">
+        <v>7</v>
+      </c>
+      <c r="N345" t="n">
+        <v>0</v>
+      </c>
+      <c r="O345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B346" t="n">
+        <v>1894.150024414062</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1894.150024414062</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1880</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1880</v>
+      </c>
+      <c r="F346" t="n">
+        <v>128</v>
+      </c>
+      <c r="G346" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H346" t="n">
+        <v>2</v>
+      </c>
+      <c r="I346" t="n">
+        <v>10</v>
+      </c>
+      <c r="J346" t="n">
+        <v>11</v>
+      </c>
+      <c r="K346" t="n">
+        <v>15</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M346" t="n">
+        <v>7</v>
+      </c>
+      <c r="N346" t="n">
+        <v>0</v>
+      </c>
+      <c r="O346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45698.51041666666</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1870.050048828125</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1877.75</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1870.050048828125</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1870.050048828125</v>
+      </c>
+      <c r="F347" t="n">
+        <v>23</v>
+      </c>
+      <c r="G347" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H347" t="n">
+        <v>2</v>
+      </c>
+      <c r="I347" t="n">
+        <v>10</v>
+      </c>
+      <c r="J347" t="n">
+        <v>12</v>
+      </c>
+      <c r="K347" t="n">
+        <v>15</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" t="n">
+        <v>7</v>
+      </c>
+      <c r="N347" t="n">
+        <v>0</v>
+      </c>
+      <c r="O347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B348" t="n">
+        <v>1887.849975585938</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1887.849975585938</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1870.150024414062</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1870.150024414062</v>
+      </c>
+      <c r="F348" t="n">
+        <v>35</v>
+      </c>
+      <c r="G348" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H348" t="n">
+        <v>2</v>
+      </c>
+      <c r="I348" t="n">
+        <v>10</v>
+      </c>
+      <c r="J348" t="n">
+        <v>13</v>
+      </c>
+      <c r="K348" t="n">
+        <v>15</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M348" t="n">
+        <v>7</v>
+      </c>
+      <c r="N348" t="n">
+        <v>0</v>
+      </c>
+      <c r="O348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B349" t="n">
+        <v>1873.349975585938</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1919.25</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1873.349975585938</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1900.599975585938</v>
+      </c>
+      <c r="F349" t="n">
+        <v>127</v>
+      </c>
+      <c r="G349" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H349" t="n">
+        <v>2</v>
+      </c>
+      <c r="I349" t="n">
+        <v>10</v>
+      </c>
+      <c r="J349" t="n">
+        <v>14</v>
+      </c>
+      <c r="K349" t="n">
+        <v>15</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>7</v>
+      </c>
+      <c r="N349" t="n">
+        <v>0</v>
+      </c>
+      <c r="O349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45698.63541666666</v>
+      </c>
+      <c r="B350" t="n">
+        <v>1909.300048828125</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1914.75</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1872</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1895.900024414062</v>
+      </c>
+      <c r="F350" t="n">
+        <v>116</v>
+      </c>
+      <c r="G350" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H350" t="n">
+        <v>2</v>
+      </c>
+      <c r="I350" t="n">
+        <v>10</v>
+      </c>
+      <c r="J350" t="n">
+        <v>15</v>
+      </c>
+      <c r="K350" t="n">
+        <v>15</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>7</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q350" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KMEW.BO.xlsx
+++ b/stock_historical_data/60m/KMEW.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q350"/>
+  <dimension ref="A1:Q364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17957,7 +17957,9 @@
       <c r="P330" t="n">
         <v>0</v>
       </c>
-      <c r="Q330" t="inlineStr"/>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -18008,7 +18010,9 @@
       <c r="P331" t="n">
         <v>0</v>
       </c>
-      <c r="Q331" t="inlineStr"/>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -18059,7 +18063,9 @@
       <c r="P332" t="n">
         <v>0</v>
       </c>
-      <c r="Q332" t="inlineStr"/>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -18110,7 +18116,9 @@
       <c r="P333" t="n">
         <v>0</v>
       </c>
-      <c r="Q333" t="inlineStr"/>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -18161,7 +18169,9 @@
       <c r="P334" t="n">
         <v>0</v>
       </c>
-      <c r="Q334" t="inlineStr"/>
+      <c r="Q334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -18212,7 +18222,9 @@
       <c r="P335" t="n">
         <v>0</v>
       </c>
-      <c r="Q335" t="inlineStr"/>
+      <c r="Q335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -18263,7 +18275,9 @@
       <c r="P336" t="n">
         <v>0</v>
       </c>
-      <c r="Q336" t="inlineStr"/>
+      <c r="Q336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -18314,7 +18328,9 @@
       <c r="P337" t="n">
         <v>0</v>
       </c>
-      <c r="Q337" t="inlineStr"/>
+      <c r="Q337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -18365,7 +18381,9 @@
       <c r="P338" t="n">
         <v>0</v>
       </c>
-      <c r="Q338" t="inlineStr"/>
+      <c r="Q338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -18416,7 +18434,9 @@
       <c r="P339" t="n">
         <v>0</v>
       </c>
-      <c r="Q339" t="inlineStr"/>
+      <c r="Q339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -18467,7 +18487,9 @@
       <c r="P340" t="n">
         <v>0</v>
       </c>
-      <c r="Q340" t="inlineStr"/>
+      <c r="Q340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -18518,7 +18540,9 @@
       <c r="P341" t="n">
         <v>0</v>
       </c>
-      <c r="Q341" t="inlineStr"/>
+      <c r="Q341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -18569,7 +18593,9 @@
       <c r="P342" t="n">
         <v>0</v>
       </c>
-      <c r="Q342" t="inlineStr"/>
+      <c r="Q342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -18620,7 +18646,9 @@
       <c r="P343" t="n">
         <v>0</v>
       </c>
-      <c r="Q343" t="inlineStr"/>
+      <c r="Q343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -18671,7 +18699,9 @@
       <c r="P344" t="n">
         <v>0</v>
       </c>
-      <c r="Q344" t="inlineStr"/>
+      <c r="Q344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -18722,7 +18752,9 @@
       <c r="P345" t="n">
         <v>0</v>
       </c>
-      <c r="Q345" t="inlineStr"/>
+      <c r="Q345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -18773,7 +18805,9 @@
       <c r="P346" t="n">
         <v>0</v>
       </c>
-      <c r="Q346" t="inlineStr"/>
+      <c r="Q346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -18824,7 +18858,9 @@
       <c r="P347" t="n">
         <v>0</v>
       </c>
-      <c r="Q347" t="inlineStr"/>
+      <c r="Q347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -18875,7 +18911,9 @@
       <c r="P348" t="n">
         <v>0</v>
       </c>
-      <c r="Q348" t="inlineStr"/>
+      <c r="Q348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -18926,7 +18964,9 @@
       <c r="P349" t="n">
         <v>0</v>
       </c>
-      <c r="Q349" t="inlineStr"/>
+      <c r="Q349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -18977,7 +19017,723 @@
       <c r="P350" t="n">
         <v>0</v>
       </c>
-      <c r="Q350" t="inlineStr"/>
+      <c r="Q350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45699.38541666666</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1949.449951171875</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1949.449951171875</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1850.900024414062</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1863.599975585938</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0</v>
+      </c>
+      <c r="G351" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H351" t="n">
+        <v>2</v>
+      </c>
+      <c r="I351" t="n">
+        <v>11</v>
+      </c>
+      <c r="J351" t="n">
+        <v>9</v>
+      </c>
+      <c r="K351" t="n">
+        <v>15</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>7</v>
+      </c>
+      <c r="N351" t="n">
+        <v>0</v>
+      </c>
+      <c r="O351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B352" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1861</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1845</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1854.699951171875</v>
+      </c>
+      <c r="F352" t="n">
+        <v>316</v>
+      </c>
+      <c r="G352" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H352" t="n">
+        <v>2</v>
+      </c>
+      <c r="I352" t="n">
+        <v>11</v>
+      </c>
+      <c r="J352" t="n">
+        <v>10</v>
+      </c>
+      <c r="K352" t="n">
+        <v>15</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M352" t="n">
+        <v>7</v>
+      </c>
+      <c r="N352" t="n">
+        <v>0</v>
+      </c>
+      <c r="O352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1840.650024414062</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1840.650024414062</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1801</v>
+      </c>
+      <c r="F353" t="n">
+        <v>1206</v>
+      </c>
+      <c r="G353" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H353" t="n">
+        <v>2</v>
+      </c>
+      <c r="I353" t="n">
+        <v>11</v>
+      </c>
+      <c r="J353" t="n">
+        <v>11</v>
+      </c>
+      <c r="K353" t="n">
+        <v>15</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" t="n">
+        <v>7</v>
+      </c>
+      <c r="N353" t="n">
+        <v>0</v>
+      </c>
+      <c r="O353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B354" t="n">
+        <v>1811.300048828125</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1814</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1750</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1776.650024414062</v>
+      </c>
+      <c r="F354" t="n">
+        <v>129</v>
+      </c>
+      <c r="G354" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H354" t="n">
+        <v>2</v>
+      </c>
+      <c r="I354" t="n">
+        <v>11</v>
+      </c>
+      <c r="J354" t="n">
+        <v>12</v>
+      </c>
+      <c r="K354" t="n">
+        <v>15</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M354" t="n">
+        <v>7</v>
+      </c>
+      <c r="N354" t="n">
+        <v>0</v>
+      </c>
+      <c r="O354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B355" t="n">
+        <v>1757.25</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1775.650024414062</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1749.099975585938</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1751.5</v>
+      </c>
+      <c r="F355" t="n">
+        <v>436</v>
+      </c>
+      <c r="G355" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H355" t="n">
+        <v>2</v>
+      </c>
+      <c r="I355" t="n">
+        <v>11</v>
+      </c>
+      <c r="J355" t="n">
+        <v>13</v>
+      </c>
+      <c r="K355" t="n">
+        <v>15</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M355" t="n">
+        <v>7</v>
+      </c>
+      <c r="N355" t="n">
+        <v>0</v>
+      </c>
+      <c r="O355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45699.59375</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1751.5</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1785.050048828125</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1751</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1785.050048828125</v>
+      </c>
+      <c r="F356" t="n">
+        <v>36</v>
+      </c>
+      <c r="G356" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H356" t="n">
+        <v>2</v>
+      </c>
+      <c r="I356" t="n">
+        <v>11</v>
+      </c>
+      <c r="J356" t="n">
+        <v>14</v>
+      </c>
+      <c r="K356" t="n">
+        <v>15</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>7</v>
+      </c>
+      <c r="N356" t="n">
+        <v>0</v>
+      </c>
+      <c r="O356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B357" t="n">
+        <v>1819.050048828125</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1819.050048828125</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1795.400024414062</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1795.400024414062</v>
+      </c>
+      <c r="F357" t="n">
+        <v>32</v>
+      </c>
+      <c r="G357" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H357" t="n">
+        <v>2</v>
+      </c>
+      <c r="I357" t="n">
+        <v>11</v>
+      </c>
+      <c r="J357" t="n">
+        <v>15</v>
+      </c>
+      <c r="K357" t="n">
+        <v>15</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M357" t="n">
+        <v>7</v>
+      </c>
+      <c r="N357" t="n">
+        <v>0</v>
+      </c>
+      <c r="O357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45700.38541666666</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1869.949951171875</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1888.199951171875</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1791.800048828125</v>
+      </c>
+      <c r="F358" t="n">
+        <v>516</v>
+      </c>
+      <c r="G358" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H358" t="n">
+        <v>2</v>
+      </c>
+      <c r="I358" t="n">
+        <v>12</v>
+      </c>
+      <c r="J358" t="n">
+        <v>9</v>
+      </c>
+      <c r="K358" t="n">
+        <v>15</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M358" t="n">
+        <v>7</v>
+      </c>
+      <c r="N358" t="n">
+        <v>0</v>
+      </c>
+      <c r="O358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B359" t="n">
+        <v>1786.449951171875</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1885.949951171875</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1774.25</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1867.050048828125</v>
+      </c>
+      <c r="F359" t="n">
+        <v>508</v>
+      </c>
+      <c r="G359" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H359" t="n">
+        <v>2</v>
+      </c>
+      <c r="I359" t="n">
+        <v>12</v>
+      </c>
+      <c r="J359" t="n">
+        <v>10</v>
+      </c>
+      <c r="K359" t="n">
+        <v>15</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M359" t="n">
+        <v>7</v>
+      </c>
+      <c r="N359" t="n">
+        <v>0</v>
+      </c>
+      <c r="O359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B360" t="n">
+        <v>1860.25</v>
+      </c>
+      <c r="C360" t="n">
+        <v>1863.449951171875</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1838.949951171875</v>
+      </c>
+      <c r="E360" t="n">
+        <v>1838.949951171875</v>
+      </c>
+      <c r="F360" t="n">
+        <v>78</v>
+      </c>
+      <c r="G360" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H360" t="n">
+        <v>2</v>
+      </c>
+      <c r="I360" t="n">
+        <v>12</v>
+      </c>
+      <c r="J360" t="n">
+        <v>11</v>
+      </c>
+      <c r="K360" t="n">
+        <v>15</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M360" t="n">
+        <v>7</v>
+      </c>
+      <c r="N360" t="n">
+        <v>0</v>
+      </c>
+      <c r="O360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45700.51041666666</v>
+      </c>
+      <c r="B361" t="n">
+        <v>1851.400024414062</v>
+      </c>
+      <c r="C361" t="n">
+        <v>1853.400024414062</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1840</v>
+      </c>
+      <c r="E361" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F361" t="n">
+        <v>46</v>
+      </c>
+      <c r="G361" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H361" t="n">
+        <v>2</v>
+      </c>
+      <c r="I361" t="n">
+        <v>12</v>
+      </c>
+      <c r="J361" t="n">
+        <v>12</v>
+      </c>
+      <c r="K361" t="n">
+        <v>15</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M361" t="n">
+        <v>7</v>
+      </c>
+      <c r="N361" t="n">
+        <v>0</v>
+      </c>
+      <c r="O361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45700.55208333334</v>
+      </c>
+      <c r="B362" t="n">
+        <v>1854</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1854</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1737.949951171875</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1775.449951171875</v>
+      </c>
+      <c r="F362" t="n">
+        <v>381</v>
+      </c>
+      <c r="G362" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H362" t="n">
+        <v>2</v>
+      </c>
+      <c r="I362" t="n">
+        <v>12</v>
+      </c>
+      <c r="J362" t="n">
+        <v>13</v>
+      </c>
+      <c r="K362" t="n">
+        <v>15</v>
+      </c>
+      <c r="L362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M362" t="n">
+        <v>7</v>
+      </c>
+      <c r="N362" t="n">
+        <v>0</v>
+      </c>
+      <c r="O362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45700.59375</v>
+      </c>
+      <c r="B363" t="n">
+        <v>1780.900024414062</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1793.599975585938</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1774.150024414062</v>
+      </c>
+      <c r="E363" t="n">
+        <v>1791.25</v>
+      </c>
+      <c r="F363" t="n">
+        <v>79</v>
+      </c>
+      <c r="G363" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H363" t="n">
+        <v>2</v>
+      </c>
+      <c r="I363" t="n">
+        <v>12</v>
+      </c>
+      <c r="J363" t="n">
+        <v>14</v>
+      </c>
+      <c r="K363" t="n">
+        <v>15</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M363" t="n">
+        <v>7</v>
+      </c>
+      <c r="N363" t="n">
+        <v>0</v>
+      </c>
+      <c r="O363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B364" t="n">
+        <v>1788.900024414062</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1804.5</v>
+      </c>
+      <c r="D364" t="n">
+        <v>1769.599975585938</v>
+      </c>
+      <c r="E364" t="n">
+        <v>1788.449951171875</v>
+      </c>
+      <c r="F364" t="n">
+        <v>28</v>
+      </c>
+      <c r="G364" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H364" t="n">
+        <v>2</v>
+      </c>
+      <c r="I364" t="n">
+        <v>12</v>
+      </c>
+      <c r="J364" t="n">
+        <v>15</v>
+      </c>
+      <c r="K364" t="n">
+        <v>15</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M364" t="n">
+        <v>7</v>
+      </c>
+      <c r="N364" t="n">
+        <v>0</v>
+      </c>
+      <c r="O364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q364" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KMEW.BO.xlsx
+++ b/stock_historical_data/60m/KMEW.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q364"/>
+  <dimension ref="A1:Q378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19070,7 +19070,9 @@
       <c r="P351" t="n">
         <v>0</v>
       </c>
-      <c r="Q351" t="inlineStr"/>
+      <c r="Q351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -19121,7 +19123,9 @@
       <c r="P352" t="n">
         <v>0</v>
       </c>
-      <c r="Q352" t="inlineStr"/>
+      <c r="Q352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -19172,7 +19176,9 @@
       <c r="P353" t="n">
         <v>0</v>
       </c>
-      <c r="Q353" t="inlineStr"/>
+      <c r="Q353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -19223,7 +19229,9 @@
       <c r="P354" t="n">
         <v>0</v>
       </c>
-      <c r="Q354" t="inlineStr"/>
+      <c r="Q354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -19274,7 +19282,9 @@
       <c r="P355" t="n">
         <v>0</v>
       </c>
-      <c r="Q355" t="inlineStr"/>
+      <c r="Q355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -19325,7 +19335,9 @@
       <c r="P356" t="n">
         <v>0</v>
       </c>
-      <c r="Q356" t="inlineStr"/>
+      <c r="Q356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -19376,7 +19388,9 @@
       <c r="P357" t="n">
         <v>0</v>
       </c>
-      <c r="Q357" t="inlineStr"/>
+      <c r="Q357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -19427,7 +19441,9 @@
       <c r="P358" t="n">
         <v>0</v>
       </c>
-      <c r="Q358" t="inlineStr"/>
+      <c r="Q358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -19478,7 +19494,9 @@
       <c r="P359" t="n">
         <v>0</v>
       </c>
-      <c r="Q359" t="inlineStr"/>
+      <c r="Q359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -19529,7 +19547,9 @@
       <c r="P360" t="n">
         <v>0</v>
       </c>
-      <c r="Q360" t="inlineStr"/>
+      <c r="Q360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -19580,7 +19600,9 @@
       <c r="P361" t="n">
         <v>0</v>
       </c>
-      <c r="Q361" t="inlineStr"/>
+      <c r="Q361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -19631,7 +19653,9 @@
       <c r="P362" t="n">
         <v>0</v>
       </c>
-      <c r="Q362" t="inlineStr"/>
+      <c r="Q362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -19682,7 +19706,9 @@
       <c r="P363" t="n">
         <v>0</v>
       </c>
-      <c r="Q363" t="inlineStr"/>
+      <c r="Q363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -19733,7 +19759,723 @@
       <c r="P364" t="n">
         <v>0</v>
       </c>
-      <c r="Q364" t="inlineStr"/>
+      <c r="Q364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45701.38541666666</v>
+      </c>
+      <c r="B365" t="n">
+        <v>1707.949951171875</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1823.949951171875</v>
+      </c>
+      <c r="D365" t="n">
+        <v>1707.949951171875</v>
+      </c>
+      <c r="E365" t="n">
+        <v>1823.949951171875</v>
+      </c>
+      <c r="F365" t="n">
+        <v>325</v>
+      </c>
+      <c r="G365" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H365" t="n">
+        <v>2</v>
+      </c>
+      <c r="I365" t="n">
+        <v>13</v>
+      </c>
+      <c r="J365" t="n">
+        <v>9</v>
+      </c>
+      <c r="K365" t="n">
+        <v>15</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M365" t="n">
+        <v>7</v>
+      </c>
+      <c r="N365" t="n">
+        <v>2</v>
+      </c>
+      <c r="O365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45701.42708333334</v>
+      </c>
+      <c r="B366" t="n">
+        <v>1841.400024414062</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1855.599975585938</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1820.650024414062</v>
+      </c>
+      <c r="E366" t="n">
+        <v>1820.650024414062</v>
+      </c>
+      <c r="F366" t="n">
+        <v>132</v>
+      </c>
+      <c r="G366" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H366" t="n">
+        <v>2</v>
+      </c>
+      <c r="I366" t="n">
+        <v>13</v>
+      </c>
+      <c r="J366" t="n">
+        <v>10</v>
+      </c>
+      <c r="K366" t="n">
+        <v>15</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M366" t="n">
+        <v>7</v>
+      </c>
+      <c r="N366" t="n">
+        <v>0</v>
+      </c>
+      <c r="O366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B367" t="n">
+        <v>1830.449951171875</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1830.449951171875</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1820</v>
+      </c>
+      <c r="F367" t="n">
+        <v>32</v>
+      </c>
+      <c r="G367" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H367" t="n">
+        <v>2</v>
+      </c>
+      <c r="I367" t="n">
+        <v>13</v>
+      </c>
+      <c r="J367" t="n">
+        <v>11</v>
+      </c>
+      <c r="K367" t="n">
+        <v>15</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M367" t="n">
+        <v>7</v>
+      </c>
+      <c r="N367" t="n">
+        <v>0</v>
+      </c>
+      <c r="O367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45701.51041666666</v>
+      </c>
+      <c r="B368" t="n">
+        <v>1813.349975585938</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1813.349975585938</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1778.400024414062</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1778.400024414062</v>
+      </c>
+      <c r="F368" t="n">
+        <v>159</v>
+      </c>
+      <c r="G368" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H368" t="n">
+        <v>2</v>
+      </c>
+      <c r="I368" t="n">
+        <v>13</v>
+      </c>
+      <c r="J368" t="n">
+        <v>12</v>
+      </c>
+      <c r="K368" t="n">
+        <v>15</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M368" t="n">
+        <v>7</v>
+      </c>
+      <c r="N368" t="n">
+        <v>0</v>
+      </c>
+      <c r="O368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45701.55208333334</v>
+      </c>
+      <c r="B369" t="n">
+        <v>1785.25</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1789.949951171875</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1757.699951171875</v>
+      </c>
+      <c r="E369" t="n">
+        <v>1780.5</v>
+      </c>
+      <c r="F369" t="n">
+        <v>145</v>
+      </c>
+      <c r="G369" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H369" t="n">
+        <v>2</v>
+      </c>
+      <c r="I369" t="n">
+        <v>13</v>
+      </c>
+      <c r="J369" t="n">
+        <v>13</v>
+      </c>
+      <c r="K369" t="n">
+        <v>15</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M369" t="n">
+        <v>7</v>
+      </c>
+      <c r="N369" t="n">
+        <v>0</v>
+      </c>
+      <c r="O369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1791.449951171875</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1796.800048828125</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1768.449951171875</v>
+      </c>
+      <c r="E370" t="n">
+        <v>1796.800048828125</v>
+      </c>
+      <c r="F370" t="n">
+        <v>126</v>
+      </c>
+      <c r="G370" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H370" t="n">
+        <v>2</v>
+      </c>
+      <c r="I370" t="n">
+        <v>13</v>
+      </c>
+      <c r="J370" t="n">
+        <v>14</v>
+      </c>
+      <c r="K370" t="n">
+        <v>15</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M370" t="n">
+        <v>7</v>
+      </c>
+      <c r="N370" t="n">
+        <v>0</v>
+      </c>
+      <c r="O370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45701.63541666666</v>
+      </c>
+      <c r="B371" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1804.150024414062</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1776.099975585938</v>
+      </c>
+      <c r="E371" t="n">
+        <v>1788.849975585938</v>
+      </c>
+      <c r="F371" t="n">
+        <v>67</v>
+      </c>
+      <c r="G371" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H371" t="n">
+        <v>2</v>
+      </c>
+      <c r="I371" t="n">
+        <v>13</v>
+      </c>
+      <c r="J371" t="n">
+        <v>15</v>
+      </c>
+      <c r="K371" t="n">
+        <v>15</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M371" t="n">
+        <v>7</v>
+      </c>
+      <c r="N371" t="n">
+        <v>0</v>
+      </c>
+      <c r="O371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45702.38541666666</v>
+      </c>
+      <c r="B372" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1790</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1757.550048828125</v>
+      </c>
+      <c r="E372" t="n">
+        <v>1757.550048828125</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0</v>
+      </c>
+      <c r="G372" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H372" t="n">
+        <v>2</v>
+      </c>
+      <c r="I372" t="n">
+        <v>14</v>
+      </c>
+      <c r="J372" t="n">
+        <v>9</v>
+      </c>
+      <c r="K372" t="n">
+        <v>15</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M372" t="n">
+        <v>7</v>
+      </c>
+      <c r="N372" t="n">
+        <v>0</v>
+      </c>
+      <c r="O372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45702.42708333334</v>
+      </c>
+      <c r="B373" t="n">
+        <v>1763.150024414062</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1763.150024414062</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1724</v>
+      </c>
+      <c r="E373" t="n">
+        <v>1724</v>
+      </c>
+      <c r="F373" t="n">
+        <v>45</v>
+      </c>
+      <c r="G373" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H373" t="n">
+        <v>2</v>
+      </c>
+      <c r="I373" t="n">
+        <v>14</v>
+      </c>
+      <c r="J373" t="n">
+        <v>10</v>
+      </c>
+      <c r="K373" t="n">
+        <v>15</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M373" t="n">
+        <v>7</v>
+      </c>
+      <c r="N373" t="n">
+        <v>0</v>
+      </c>
+      <c r="O373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45702.46875</v>
+      </c>
+      <c r="B374" t="n">
+        <v>1733.599975585938</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1743</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1724.599975585938</v>
+      </c>
+      <c r="E374" t="n">
+        <v>1743</v>
+      </c>
+      <c r="F374" t="n">
+        <v>40</v>
+      </c>
+      <c r="G374" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H374" t="n">
+        <v>2</v>
+      </c>
+      <c r="I374" t="n">
+        <v>14</v>
+      </c>
+      <c r="J374" t="n">
+        <v>11</v>
+      </c>
+      <c r="K374" t="n">
+        <v>15</v>
+      </c>
+      <c r="L374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M374" t="n">
+        <v>7</v>
+      </c>
+      <c r="N374" t="n">
+        <v>0</v>
+      </c>
+      <c r="O374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45702.51041666666</v>
+      </c>
+      <c r="B375" t="n">
+        <v>1745</v>
+      </c>
+      <c r="C375" t="n">
+        <v>1745</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1721.349975585938</v>
+      </c>
+      <c r="E375" t="n">
+        <v>1721.349975585938</v>
+      </c>
+      <c r="F375" t="n">
+        <v>68</v>
+      </c>
+      <c r="G375" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H375" t="n">
+        <v>2</v>
+      </c>
+      <c r="I375" t="n">
+        <v>14</v>
+      </c>
+      <c r="J375" t="n">
+        <v>12</v>
+      </c>
+      <c r="K375" t="n">
+        <v>15</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M375" t="n">
+        <v>7</v>
+      </c>
+      <c r="N375" t="n">
+        <v>0</v>
+      </c>
+      <c r="O375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45702.55208333334</v>
+      </c>
+      <c r="B376" t="n">
+        <v>1721.349975585938</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1727.800048828125</v>
+      </c>
+      <c r="D376" t="n">
+        <v>1715</v>
+      </c>
+      <c r="E376" t="n">
+        <v>1719.699951171875</v>
+      </c>
+      <c r="F376" t="n">
+        <v>84</v>
+      </c>
+      <c r="G376" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H376" t="n">
+        <v>2</v>
+      </c>
+      <c r="I376" t="n">
+        <v>14</v>
+      </c>
+      <c r="J376" t="n">
+        <v>13</v>
+      </c>
+      <c r="K376" t="n">
+        <v>15</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M376" t="n">
+        <v>7</v>
+      </c>
+      <c r="N376" t="n">
+        <v>0</v>
+      </c>
+      <c r="O376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45702.59375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>1715.099975585938</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1743.900024414062</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E377" t="n">
+        <v>1740</v>
+      </c>
+      <c r="F377" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G377" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H377" t="n">
+        <v>2</v>
+      </c>
+      <c r="I377" t="n">
+        <v>14</v>
+      </c>
+      <c r="J377" t="n">
+        <v>14</v>
+      </c>
+      <c r="K377" t="n">
+        <v>15</v>
+      </c>
+      <c r="L377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M377" t="n">
+        <v>7</v>
+      </c>
+      <c r="N377" t="n">
+        <v>0</v>
+      </c>
+      <c r="O377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45702.63541666666</v>
+      </c>
+      <c r="B378" t="n">
+        <v>1728.099975585938</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1790</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1728.099975585938</v>
+      </c>
+      <c r="E378" t="n">
+        <v>1779.300048828125</v>
+      </c>
+      <c r="F378" t="n">
+        <v>232</v>
+      </c>
+      <c r="G378" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H378" t="n">
+        <v>2</v>
+      </c>
+      <c r="I378" t="n">
+        <v>14</v>
+      </c>
+      <c r="J378" t="n">
+        <v>15</v>
+      </c>
+      <c r="K378" t="n">
+        <v>15</v>
+      </c>
+      <c r="L378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M378" t="n">
+        <v>7</v>
+      </c>
+      <c r="N378" t="n">
+        <v>0</v>
+      </c>
+      <c r="O378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q378" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/KMEW.BO.xlsx
+++ b/stock_historical_data/60m/KMEW.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q789"/>
+  <dimension ref="A1:Q816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38972,6 +38972,1221 @@
       <c r="P789" t="inlineStr"/>
       <c r="Q789" t="inlineStr"/>
     </row>
+    <row r="790">
+      <c r="A790" s="2" t="n">
+        <v>45712.15625</v>
+      </c>
+      <c r="B790" t="n">
+        <v>1706.400024414062</v>
+      </c>
+      <c r="C790" t="n">
+        <v>1722.349975585938</v>
+      </c>
+      <c r="D790" t="n">
+        <v>1614.400024414062</v>
+      </c>
+      <c r="E790" t="n">
+        <v>1650.099975585938</v>
+      </c>
+      <c r="F790" t="n">
+        <v>309</v>
+      </c>
+      <c r="G790" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H790" t="n">
+        <v>2</v>
+      </c>
+      <c r="I790" t="n">
+        <v>24</v>
+      </c>
+      <c r="J790" t="n">
+        <v>3</v>
+      </c>
+      <c r="K790" t="n">
+        <v>45</v>
+      </c>
+      <c r="L790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M790" t="n">
+        <v>9</v>
+      </c>
+      <c r="N790" t="inlineStr"/>
+      <c r="O790" t="inlineStr"/>
+      <c r="P790" t="inlineStr"/>
+      <c r="Q790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="2" t="n">
+        <v>45712.19791666666</v>
+      </c>
+      <c r="B791" t="n">
+        <v>1656.550048828125</v>
+      </c>
+      <c r="C791" t="n">
+        <v>1665.849975585938</v>
+      </c>
+      <c r="D791" t="n">
+        <v>1655.449951171875</v>
+      </c>
+      <c r="E791" t="n">
+        <v>1665.849975585938</v>
+      </c>
+      <c r="F791" t="n">
+        <v>23</v>
+      </c>
+      <c r="G791" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H791" t="n">
+        <v>2</v>
+      </c>
+      <c r="I791" t="n">
+        <v>24</v>
+      </c>
+      <c r="J791" t="n">
+        <v>4</v>
+      </c>
+      <c r="K791" t="n">
+        <v>45</v>
+      </c>
+      <c r="L791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M791" t="n">
+        <v>9</v>
+      </c>
+      <c r="N791" t="inlineStr"/>
+      <c r="O791" t="inlineStr"/>
+      <c r="P791" t="inlineStr"/>
+      <c r="Q791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="2" t="n">
+        <v>45712.23958333334</v>
+      </c>
+      <c r="B792" t="n">
+        <v>1670.150024414062</v>
+      </c>
+      <c r="C792" t="n">
+        <v>1676.5</v>
+      </c>
+      <c r="D792" t="n">
+        <v>1665</v>
+      </c>
+      <c r="E792" t="n">
+        <v>1676.5</v>
+      </c>
+      <c r="F792" t="n">
+        <v>9</v>
+      </c>
+      <c r="G792" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H792" t="n">
+        <v>2</v>
+      </c>
+      <c r="I792" t="n">
+        <v>24</v>
+      </c>
+      <c r="J792" t="n">
+        <v>5</v>
+      </c>
+      <c r="K792" t="n">
+        <v>45</v>
+      </c>
+      <c r="L792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M792" t="n">
+        <v>9</v>
+      </c>
+      <c r="N792" t="inlineStr"/>
+      <c r="O792" t="inlineStr"/>
+      <c r="P792" t="inlineStr"/>
+      <c r="Q792" t="inlineStr"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="2" t="n">
+        <v>45712.28125</v>
+      </c>
+      <c r="B793" t="n">
+        <v>1675</v>
+      </c>
+      <c r="C793" t="n">
+        <v>1677.199951171875</v>
+      </c>
+      <c r="D793" t="n">
+        <v>1669.25</v>
+      </c>
+      <c r="E793" t="n">
+        <v>1669.25</v>
+      </c>
+      <c r="F793" t="n">
+        <v>22</v>
+      </c>
+      <c r="G793" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H793" t="n">
+        <v>2</v>
+      </c>
+      <c r="I793" t="n">
+        <v>24</v>
+      </c>
+      <c r="J793" t="n">
+        <v>6</v>
+      </c>
+      <c r="K793" t="n">
+        <v>45</v>
+      </c>
+      <c r="L793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M793" t="n">
+        <v>9</v>
+      </c>
+      <c r="N793" t="inlineStr"/>
+      <c r="O793" t="inlineStr"/>
+      <c r="P793" t="inlineStr"/>
+      <c r="Q793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="2" t="n">
+        <v>45712.32291666666</v>
+      </c>
+      <c r="B794" t="n">
+        <v>1660.050048828125</v>
+      </c>
+      <c r="C794" t="n">
+        <v>1660.050048828125</v>
+      </c>
+      <c r="D794" t="n">
+        <v>1646.300048828125</v>
+      </c>
+      <c r="E794" t="n">
+        <v>1647.150024414062</v>
+      </c>
+      <c r="F794" t="n">
+        <v>206</v>
+      </c>
+      <c r="G794" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H794" t="n">
+        <v>2</v>
+      </c>
+      <c r="I794" t="n">
+        <v>24</v>
+      </c>
+      <c r="J794" t="n">
+        <v>7</v>
+      </c>
+      <c r="K794" t="n">
+        <v>45</v>
+      </c>
+      <c r="L794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M794" t="n">
+        <v>9</v>
+      </c>
+      <c r="N794" t="inlineStr"/>
+      <c r="O794" t="inlineStr"/>
+      <c r="P794" t="inlineStr"/>
+      <c r="Q794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="2" t="n">
+        <v>45712.36458333334</v>
+      </c>
+      <c r="B795" t="n">
+        <v>1646.800048828125</v>
+      </c>
+      <c r="C795" t="n">
+        <v>1651.900024414062</v>
+      </c>
+      <c r="D795" t="n">
+        <v>1632.650024414062</v>
+      </c>
+      <c r="E795" t="n">
+        <v>1632.650024414062</v>
+      </c>
+      <c r="F795" t="n">
+        <v>191</v>
+      </c>
+      <c r="G795" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H795" t="n">
+        <v>2</v>
+      </c>
+      <c r="I795" t="n">
+        <v>24</v>
+      </c>
+      <c r="J795" t="n">
+        <v>8</v>
+      </c>
+      <c r="K795" t="n">
+        <v>45</v>
+      </c>
+      <c r="L795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M795" t="n">
+        <v>9</v>
+      </c>
+      <c r="N795" t="inlineStr"/>
+      <c r="O795" t="inlineStr"/>
+      <c r="P795" t="inlineStr"/>
+      <c r="Q795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="2" t="n">
+        <v>45712.40625</v>
+      </c>
+      <c r="B796" t="n">
+        <v>1643.599975585938</v>
+      </c>
+      <c r="C796" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D796" t="n">
+        <v>1628</v>
+      </c>
+      <c r="E796" t="n">
+        <v>1628</v>
+      </c>
+      <c r="F796" t="n">
+        <v>29</v>
+      </c>
+      <c r="G796" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H796" t="n">
+        <v>2</v>
+      </c>
+      <c r="I796" t="n">
+        <v>24</v>
+      </c>
+      <c r="J796" t="n">
+        <v>9</v>
+      </c>
+      <c r="K796" t="n">
+        <v>45</v>
+      </c>
+      <c r="L796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M796" t="n">
+        <v>9</v>
+      </c>
+      <c r="N796" t="inlineStr"/>
+      <c r="O796" t="inlineStr"/>
+      <c r="P796" t="inlineStr"/>
+      <c r="Q796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="2" t="n">
+        <v>45713.15625</v>
+      </c>
+      <c r="B797" t="n">
+        <v>1640</v>
+      </c>
+      <c r="C797" t="n">
+        <v>1667.349975585938</v>
+      </c>
+      <c r="D797" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E797" t="n">
+        <v>1666.5</v>
+      </c>
+      <c r="F797" t="n">
+        <v>106</v>
+      </c>
+      <c r="G797" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H797" t="n">
+        <v>2</v>
+      </c>
+      <c r="I797" t="n">
+        <v>25</v>
+      </c>
+      <c r="J797" t="n">
+        <v>3</v>
+      </c>
+      <c r="K797" t="n">
+        <v>45</v>
+      </c>
+      <c r="L797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M797" t="n">
+        <v>9</v>
+      </c>
+      <c r="N797" t="inlineStr"/>
+      <c r="O797" t="inlineStr"/>
+      <c r="P797" t="inlineStr"/>
+      <c r="Q797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="2" t="n">
+        <v>45713.19791666666</v>
+      </c>
+      <c r="B798" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C798" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D798" t="n">
+        <v>1650</v>
+      </c>
+      <c r="E798" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F798" t="n">
+        <v>14</v>
+      </c>
+      <c r="G798" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H798" t="n">
+        <v>2</v>
+      </c>
+      <c r="I798" t="n">
+        <v>25</v>
+      </c>
+      <c r="J798" t="n">
+        <v>4</v>
+      </c>
+      <c r="K798" t="n">
+        <v>45</v>
+      </c>
+      <c r="L798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M798" t="n">
+        <v>9</v>
+      </c>
+      <c r="N798" t="inlineStr"/>
+      <c r="O798" t="inlineStr"/>
+      <c r="P798" t="inlineStr"/>
+      <c r="Q798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="2" t="n">
+        <v>45713.23958333334</v>
+      </c>
+      <c r="B799" t="n">
+        <v>1657.949951171875</v>
+      </c>
+      <c r="C799" t="n">
+        <v>1657.949951171875</v>
+      </c>
+      <c r="D799" t="n">
+        <v>1649.949951171875</v>
+      </c>
+      <c r="E799" t="n">
+        <v>1649.949951171875</v>
+      </c>
+      <c r="F799" t="n">
+        <v>126</v>
+      </c>
+      <c r="G799" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H799" t="n">
+        <v>2</v>
+      </c>
+      <c r="I799" t="n">
+        <v>25</v>
+      </c>
+      <c r="J799" t="n">
+        <v>5</v>
+      </c>
+      <c r="K799" t="n">
+        <v>45</v>
+      </c>
+      <c r="L799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M799" t="n">
+        <v>9</v>
+      </c>
+      <c r="N799" t="inlineStr"/>
+      <c r="O799" t="inlineStr"/>
+      <c r="P799" t="inlineStr"/>
+      <c r="Q799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="2" t="n">
+        <v>45713.32291666666</v>
+      </c>
+      <c r="B800" t="n">
+        <v>1666</v>
+      </c>
+      <c r="C800" t="n">
+        <v>1666</v>
+      </c>
+      <c r="D800" t="n">
+        <v>1639.949951171875</v>
+      </c>
+      <c r="E800" t="n">
+        <v>1640</v>
+      </c>
+      <c r="F800" t="n">
+        <v>468</v>
+      </c>
+      <c r="G800" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H800" t="n">
+        <v>2</v>
+      </c>
+      <c r="I800" t="n">
+        <v>25</v>
+      </c>
+      <c r="J800" t="n">
+        <v>7</v>
+      </c>
+      <c r="K800" t="n">
+        <v>45</v>
+      </c>
+      <c r="L800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M800" t="n">
+        <v>9</v>
+      </c>
+      <c r="N800" t="inlineStr"/>
+      <c r="O800" t="inlineStr"/>
+      <c r="P800" t="inlineStr"/>
+      <c r="Q800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="2" t="n">
+        <v>45713.36458333334</v>
+      </c>
+      <c r="B801" t="n">
+        <v>1640</v>
+      </c>
+      <c r="C801" t="n">
+        <v>1640</v>
+      </c>
+      <c r="D801" t="n">
+        <v>1620</v>
+      </c>
+      <c r="E801" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F801" t="n">
+        <v>223</v>
+      </c>
+      <c r="G801" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H801" t="n">
+        <v>2</v>
+      </c>
+      <c r="I801" t="n">
+        <v>25</v>
+      </c>
+      <c r="J801" t="n">
+        <v>8</v>
+      </c>
+      <c r="K801" t="n">
+        <v>45</v>
+      </c>
+      <c r="L801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M801" t="n">
+        <v>9</v>
+      </c>
+      <c r="N801" t="inlineStr"/>
+      <c r="O801" t="inlineStr"/>
+      <c r="P801" t="inlineStr"/>
+      <c r="Q801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="2" t="n">
+        <v>45713.40625</v>
+      </c>
+      <c r="B802" t="n">
+        <v>1629.150024414062</v>
+      </c>
+      <c r="C802" t="n">
+        <v>1629.150024414062</v>
+      </c>
+      <c r="D802" t="n">
+        <v>1617.349975585938</v>
+      </c>
+      <c r="E802" t="n">
+        <v>1619.800048828125</v>
+      </c>
+      <c r="F802" t="n">
+        <v>44</v>
+      </c>
+      <c r="G802" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H802" t="n">
+        <v>2</v>
+      </c>
+      <c r="I802" t="n">
+        <v>25</v>
+      </c>
+      <c r="J802" t="n">
+        <v>9</v>
+      </c>
+      <c r="K802" t="n">
+        <v>45</v>
+      </c>
+      <c r="L802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M802" t="n">
+        <v>9</v>
+      </c>
+      <c r="N802" t="inlineStr"/>
+      <c r="O802" t="inlineStr"/>
+      <c r="P802" t="inlineStr"/>
+      <c r="Q802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="2" t="n">
+        <v>45715.15625</v>
+      </c>
+      <c r="B803" t="n">
+        <v>1610.550048828125</v>
+      </c>
+      <c r="C803" t="n">
+        <v>1610.550048828125</v>
+      </c>
+      <c r="D803" t="n">
+        <v>1589.900024414062</v>
+      </c>
+      <c r="E803" t="n">
+        <v>1589.900024414062</v>
+      </c>
+      <c r="F803" t="n">
+        <v>0</v>
+      </c>
+      <c r="G803" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H803" t="n">
+        <v>2</v>
+      </c>
+      <c r="I803" t="n">
+        <v>27</v>
+      </c>
+      <c r="J803" t="n">
+        <v>3</v>
+      </c>
+      <c r="K803" t="n">
+        <v>45</v>
+      </c>
+      <c r="L803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M803" t="n">
+        <v>9</v>
+      </c>
+      <c r="N803" t="inlineStr"/>
+      <c r="O803" t="inlineStr"/>
+      <c r="P803" t="inlineStr"/>
+      <c r="Q803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="2" t="n">
+        <v>45715.19791666666</v>
+      </c>
+      <c r="B804" t="n">
+        <v>1573.050048828125</v>
+      </c>
+      <c r="C804" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D804" t="n">
+        <v>1573.050048828125</v>
+      </c>
+      <c r="E804" t="n">
+        <v>1576.5</v>
+      </c>
+      <c r="F804" t="n">
+        <v>88</v>
+      </c>
+      <c r="G804" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H804" t="n">
+        <v>2</v>
+      </c>
+      <c r="I804" t="n">
+        <v>27</v>
+      </c>
+      <c r="J804" t="n">
+        <v>4</v>
+      </c>
+      <c r="K804" t="n">
+        <v>45</v>
+      </c>
+      <c r="L804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M804" t="n">
+        <v>9</v>
+      </c>
+      <c r="N804" t="inlineStr"/>
+      <c r="O804" t="inlineStr"/>
+      <c r="P804" t="inlineStr"/>
+      <c r="Q804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="2" t="n">
+        <v>45715.23958333334</v>
+      </c>
+      <c r="B805" t="n">
+        <v>1594.699951171875</v>
+      </c>
+      <c r="C805" t="n">
+        <v>1594.699951171875</v>
+      </c>
+      <c r="D805" t="n">
+        <v>1550</v>
+      </c>
+      <c r="E805" t="n">
+        <v>1550</v>
+      </c>
+      <c r="F805" t="n">
+        <v>331</v>
+      </c>
+      <c r="G805" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H805" t="n">
+        <v>2</v>
+      </c>
+      <c r="I805" t="n">
+        <v>27</v>
+      </c>
+      <c r="J805" t="n">
+        <v>5</v>
+      </c>
+      <c r="K805" t="n">
+        <v>45</v>
+      </c>
+      <c r="L805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M805" t="n">
+        <v>9</v>
+      </c>
+      <c r="N805" t="inlineStr"/>
+      <c r="O805" t="inlineStr"/>
+      <c r="P805" t="inlineStr"/>
+      <c r="Q805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="2" t="n">
+        <v>45715.28125</v>
+      </c>
+      <c r="B806" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C806" t="n">
+        <v>1561.199951171875</v>
+      </c>
+      <c r="D806" t="n">
+        <v>1550</v>
+      </c>
+      <c r="E806" t="n">
+        <v>1550</v>
+      </c>
+      <c r="F806" t="n">
+        <v>20</v>
+      </c>
+      <c r="G806" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H806" t="n">
+        <v>2</v>
+      </c>
+      <c r="I806" t="n">
+        <v>27</v>
+      </c>
+      <c r="J806" t="n">
+        <v>6</v>
+      </c>
+      <c r="K806" t="n">
+        <v>45</v>
+      </c>
+      <c r="L806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M806" t="n">
+        <v>9</v>
+      </c>
+      <c r="N806" t="inlineStr"/>
+      <c r="O806" t="inlineStr"/>
+      <c r="P806" t="inlineStr"/>
+      <c r="Q806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="2" t="n">
+        <v>45715.32291666666</v>
+      </c>
+      <c r="B807" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C807" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D807" t="n">
+        <v>1539</v>
+      </c>
+      <c r="E807" t="n">
+        <v>1539</v>
+      </c>
+      <c r="F807" t="n">
+        <v>58</v>
+      </c>
+      <c r="G807" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H807" t="n">
+        <v>2</v>
+      </c>
+      <c r="I807" t="n">
+        <v>27</v>
+      </c>
+      <c r="J807" t="n">
+        <v>7</v>
+      </c>
+      <c r="K807" t="n">
+        <v>45</v>
+      </c>
+      <c r="L807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M807" t="n">
+        <v>9</v>
+      </c>
+      <c r="N807" t="inlineStr"/>
+      <c r="O807" t="inlineStr"/>
+      <c r="P807" t="inlineStr"/>
+      <c r="Q807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="2" t="n">
+        <v>45715.36458333334</v>
+      </c>
+      <c r="B808" t="n">
+        <v>1525.050048828125</v>
+      </c>
+      <c r="C808" t="n">
+        <v>1538.300048828125</v>
+      </c>
+      <c r="D808" t="n">
+        <v>1525</v>
+      </c>
+      <c r="E808" t="n">
+        <v>1534.599975585938</v>
+      </c>
+      <c r="F808" t="n">
+        <v>198</v>
+      </c>
+      <c r="G808" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H808" t="n">
+        <v>2</v>
+      </c>
+      <c r="I808" t="n">
+        <v>27</v>
+      </c>
+      <c r="J808" t="n">
+        <v>8</v>
+      </c>
+      <c r="K808" t="n">
+        <v>45</v>
+      </c>
+      <c r="L808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M808" t="n">
+        <v>9</v>
+      </c>
+      <c r="N808" t="inlineStr"/>
+      <c r="O808" t="inlineStr"/>
+      <c r="P808" t="inlineStr"/>
+      <c r="Q808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="2" t="n">
+        <v>45715.40625</v>
+      </c>
+      <c r="B809" t="n">
+        <v>1535</v>
+      </c>
+      <c r="C809" t="n">
+        <v>1535</v>
+      </c>
+      <c r="D809" t="n">
+        <v>1513.25</v>
+      </c>
+      <c r="E809" t="n">
+        <v>1525.800048828125</v>
+      </c>
+      <c r="F809" t="n">
+        <v>92</v>
+      </c>
+      <c r="G809" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H809" t="n">
+        <v>2</v>
+      </c>
+      <c r="I809" t="n">
+        <v>27</v>
+      </c>
+      <c r="J809" t="n">
+        <v>9</v>
+      </c>
+      <c r="K809" t="n">
+        <v>45</v>
+      </c>
+      <c r="L809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M809" t="n">
+        <v>9</v>
+      </c>
+      <c r="N809" t="inlineStr"/>
+      <c r="O809" t="inlineStr"/>
+      <c r="P809" t="inlineStr"/>
+      <c r="Q809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="2" t="n">
+        <v>45716.15625</v>
+      </c>
+      <c r="B810" t="n">
+        <v>1525.849975585938</v>
+      </c>
+      <c r="C810" t="n">
+        <v>1531.449951171875</v>
+      </c>
+      <c r="D810" t="n">
+        <v>1485</v>
+      </c>
+      <c r="E810" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F810" t="n">
+        <v>588</v>
+      </c>
+      <c r="G810" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H810" t="n">
+        <v>2</v>
+      </c>
+      <c r="I810" t="n">
+        <v>28</v>
+      </c>
+      <c r="J810" t="n">
+        <v>3</v>
+      </c>
+      <c r="K810" t="n">
+        <v>45</v>
+      </c>
+      <c r="L810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M810" t="n">
+        <v>9</v>
+      </c>
+      <c r="N810" t="inlineStr"/>
+      <c r="O810" t="inlineStr"/>
+      <c r="P810" t="inlineStr"/>
+      <c r="Q810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="2" t="n">
+        <v>45716.19791666666</v>
+      </c>
+      <c r="B811" t="n">
+        <v>1491.699951171875</v>
+      </c>
+      <c r="C811" t="n">
+        <v>1516.550048828125</v>
+      </c>
+      <c r="D811" t="n">
+        <v>1491.699951171875</v>
+      </c>
+      <c r="E811" t="n">
+        <v>1510.099975585938</v>
+      </c>
+      <c r="F811" t="n">
+        <v>276</v>
+      </c>
+      <c r="G811" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H811" t="n">
+        <v>2</v>
+      </c>
+      <c r="I811" t="n">
+        <v>28</v>
+      </c>
+      <c r="J811" t="n">
+        <v>4</v>
+      </c>
+      <c r="K811" t="n">
+        <v>45</v>
+      </c>
+      <c r="L811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M811" t="n">
+        <v>9</v>
+      </c>
+      <c r="N811" t="inlineStr"/>
+      <c r="O811" t="inlineStr"/>
+      <c r="P811" t="inlineStr"/>
+      <c r="Q811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="2" t="n">
+        <v>45716.23958333334</v>
+      </c>
+      <c r="B812" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C812" t="n">
+        <v>1516.550048828125</v>
+      </c>
+      <c r="D812" t="n">
+        <v>1507.5</v>
+      </c>
+      <c r="E812" t="n">
+        <v>1507.5</v>
+      </c>
+      <c r="F812" t="n">
+        <v>330</v>
+      </c>
+      <c r="G812" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H812" t="n">
+        <v>2</v>
+      </c>
+      <c r="I812" t="n">
+        <v>28</v>
+      </c>
+      <c r="J812" t="n">
+        <v>5</v>
+      </c>
+      <c r="K812" t="n">
+        <v>45</v>
+      </c>
+      <c r="L812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M812" t="n">
+        <v>9</v>
+      </c>
+      <c r="N812" t="inlineStr"/>
+      <c r="O812" t="inlineStr"/>
+      <c r="P812" t="inlineStr"/>
+      <c r="Q812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="2" t="n">
+        <v>45716.28125</v>
+      </c>
+      <c r="B813" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C813" t="n">
+        <v>1514.099975585938</v>
+      </c>
+      <c r="D813" t="n">
+        <v>1501.050048828125</v>
+      </c>
+      <c r="E813" t="n">
+        <v>1511.800048828125</v>
+      </c>
+      <c r="F813" t="n">
+        <v>205</v>
+      </c>
+      <c r="G813" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H813" t="n">
+        <v>2</v>
+      </c>
+      <c r="I813" t="n">
+        <v>28</v>
+      </c>
+      <c r="J813" t="n">
+        <v>6</v>
+      </c>
+      <c r="K813" t="n">
+        <v>45</v>
+      </c>
+      <c r="L813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M813" t="n">
+        <v>9</v>
+      </c>
+      <c r="N813" t="inlineStr"/>
+      <c r="O813" t="inlineStr"/>
+      <c r="P813" t="inlineStr"/>
+      <c r="Q813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="2" t="n">
+        <v>45716.32291666666</v>
+      </c>
+      <c r="B814" t="n">
+        <v>1506.949951171875</v>
+      </c>
+      <c r="C814" t="n">
+        <v>1516.550048828125</v>
+      </c>
+      <c r="D814" t="n">
+        <v>1498</v>
+      </c>
+      <c r="E814" t="n">
+        <v>1499</v>
+      </c>
+      <c r="F814" t="n">
+        <v>4100</v>
+      </c>
+      <c r="G814" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H814" t="n">
+        <v>2</v>
+      </c>
+      <c r="I814" t="n">
+        <v>28</v>
+      </c>
+      <c r="J814" t="n">
+        <v>7</v>
+      </c>
+      <c r="K814" t="n">
+        <v>45</v>
+      </c>
+      <c r="L814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M814" t="n">
+        <v>9</v>
+      </c>
+      <c r="N814" t="inlineStr"/>
+      <c r="O814" t="inlineStr"/>
+      <c r="P814" t="inlineStr"/>
+      <c r="Q814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="2" t="n">
+        <v>45716.36458333334</v>
+      </c>
+      <c r="B815" t="n">
+        <v>1498.800048828125</v>
+      </c>
+      <c r="C815" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D815" t="n">
+        <v>1485</v>
+      </c>
+      <c r="E815" t="n">
+        <v>1510</v>
+      </c>
+      <c r="F815" t="n">
+        <v>500</v>
+      </c>
+      <c r="G815" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H815" t="n">
+        <v>2</v>
+      </c>
+      <c r="I815" t="n">
+        <v>28</v>
+      </c>
+      <c r="J815" t="n">
+        <v>8</v>
+      </c>
+      <c r="K815" t="n">
+        <v>45</v>
+      </c>
+      <c r="L815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M815" t="n">
+        <v>9</v>
+      </c>
+      <c r="N815" t="inlineStr"/>
+      <c r="O815" t="inlineStr"/>
+      <c r="P815" t="inlineStr"/>
+      <c r="Q815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="2" t="n">
+        <v>45716.40625</v>
+      </c>
+      <c r="B816" t="n">
+        <v>1510.5</v>
+      </c>
+      <c r="C816" t="n">
+        <v>1559.550048828125</v>
+      </c>
+      <c r="D816" t="n">
+        <v>1484.699951171875</v>
+      </c>
+      <c r="E816" t="n">
+        <v>1518.5</v>
+      </c>
+      <c r="F816" t="n">
+        <v>709</v>
+      </c>
+      <c r="G816" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H816" t="n">
+        <v>2</v>
+      </c>
+      <c r="I816" t="n">
+        <v>28</v>
+      </c>
+      <c r="J816" t="n">
+        <v>9</v>
+      </c>
+      <c r="K816" t="n">
+        <v>45</v>
+      </c>
+      <c r="L816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M816" t="n">
+        <v>9</v>
+      </c>
+      <c r="N816" t="inlineStr"/>
+      <c r="O816" t="inlineStr"/>
+      <c r="P816" t="inlineStr"/>
+      <c r="Q816" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/KMEW.BO.xlsx
+++ b/stock_historical_data/60m/KMEW.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q816"/>
+  <dimension ref="A1:Q858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40187,6 +40187,1896 @@
       <c r="P816" t="inlineStr"/>
       <c r="Q816" t="inlineStr"/>
     </row>
+    <row r="817">
+      <c r="A817" s="2" t="n">
+        <v>45719.15625</v>
+      </c>
+      <c r="B817" t="n">
+        <v>1513</v>
+      </c>
+      <c r="C817" t="n">
+        <v>1519.949951171875</v>
+      </c>
+      <c r="D817" t="n">
+        <v>1474.400024414062</v>
+      </c>
+      <c r="E817" t="n">
+        <v>1481</v>
+      </c>
+      <c r="F817" t="n">
+        <v>266</v>
+      </c>
+      <c r="G817" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H817" t="n">
+        <v>3</v>
+      </c>
+      <c r="I817" t="n">
+        <v>3</v>
+      </c>
+      <c r="J817" t="n">
+        <v>3</v>
+      </c>
+      <c r="K817" t="n">
+        <v>45</v>
+      </c>
+      <c r="L817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M817" t="n">
+        <v>10</v>
+      </c>
+      <c r="N817" t="inlineStr"/>
+      <c r="O817" t="inlineStr"/>
+      <c r="P817" t="inlineStr"/>
+      <c r="Q817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="2" t="n">
+        <v>45719.19791666666</v>
+      </c>
+      <c r="B818" t="n">
+        <v>1482</v>
+      </c>
+      <c r="C818" t="n">
+        <v>1482</v>
+      </c>
+      <c r="D818" t="n">
+        <v>1456</v>
+      </c>
+      <c r="E818" t="n">
+        <v>1460.050048828125</v>
+      </c>
+      <c r="F818" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G818" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H818" t="n">
+        <v>3</v>
+      </c>
+      <c r="I818" t="n">
+        <v>3</v>
+      </c>
+      <c r="J818" t="n">
+        <v>4</v>
+      </c>
+      <c r="K818" t="n">
+        <v>45</v>
+      </c>
+      <c r="L818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M818" t="n">
+        <v>10</v>
+      </c>
+      <c r="N818" t="inlineStr"/>
+      <c r="O818" t="inlineStr"/>
+      <c r="P818" t="inlineStr"/>
+      <c r="Q818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="2" t="n">
+        <v>45719.23958333334</v>
+      </c>
+      <c r="B819" t="n">
+        <v>1460</v>
+      </c>
+      <c r="C819" t="n">
+        <v>1466.849975585938</v>
+      </c>
+      <c r="D819" t="n">
+        <v>1451.050048828125</v>
+      </c>
+      <c r="E819" t="n">
+        <v>1451.050048828125</v>
+      </c>
+      <c r="F819" t="n">
+        <v>184</v>
+      </c>
+      <c r="G819" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H819" t="n">
+        <v>3</v>
+      </c>
+      <c r="I819" t="n">
+        <v>3</v>
+      </c>
+      <c r="J819" t="n">
+        <v>5</v>
+      </c>
+      <c r="K819" t="n">
+        <v>45</v>
+      </c>
+      <c r="L819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M819" t="n">
+        <v>10</v>
+      </c>
+      <c r="N819" t="inlineStr"/>
+      <c r="O819" t="inlineStr"/>
+      <c r="P819" t="inlineStr"/>
+      <c r="Q819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="2" t="n">
+        <v>45719.28125</v>
+      </c>
+      <c r="B820" t="n">
+        <v>1456</v>
+      </c>
+      <c r="C820" t="n">
+        <v>1470.050048828125</v>
+      </c>
+      <c r="D820" t="n">
+        <v>1450.050048828125</v>
+      </c>
+      <c r="E820" t="n">
+        <v>1470</v>
+      </c>
+      <c r="F820" t="n">
+        <v>65</v>
+      </c>
+      <c r="G820" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H820" t="n">
+        <v>3</v>
+      </c>
+      <c r="I820" t="n">
+        <v>3</v>
+      </c>
+      <c r="J820" t="n">
+        <v>6</v>
+      </c>
+      <c r="K820" t="n">
+        <v>45</v>
+      </c>
+      <c r="L820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M820" t="n">
+        <v>10</v>
+      </c>
+      <c r="N820" t="inlineStr"/>
+      <c r="O820" t="inlineStr"/>
+      <c r="P820" t="inlineStr"/>
+      <c r="Q820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="2" t="n">
+        <v>45719.32291666666</v>
+      </c>
+      <c r="B821" t="n">
+        <v>1470.349975585938</v>
+      </c>
+      <c r="C821" t="n">
+        <v>1482</v>
+      </c>
+      <c r="D821" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E821" t="n">
+        <v>1482</v>
+      </c>
+      <c r="F821" t="n">
+        <v>190</v>
+      </c>
+      <c r="G821" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H821" t="n">
+        <v>3</v>
+      </c>
+      <c r="I821" t="n">
+        <v>3</v>
+      </c>
+      <c r="J821" t="n">
+        <v>7</v>
+      </c>
+      <c r="K821" t="n">
+        <v>45</v>
+      </c>
+      <c r="L821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M821" t="n">
+        <v>10</v>
+      </c>
+      <c r="N821" t="inlineStr"/>
+      <c r="O821" t="inlineStr"/>
+      <c r="P821" t="inlineStr"/>
+      <c r="Q821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="2" t="n">
+        <v>45719.36458333334</v>
+      </c>
+      <c r="B822" t="n">
+        <v>1482</v>
+      </c>
+      <c r="C822" t="n">
+        <v>1507.599975585938</v>
+      </c>
+      <c r="D822" t="n">
+        <v>1478.650024414062</v>
+      </c>
+      <c r="E822" t="n">
+        <v>1507.599975585938</v>
+      </c>
+      <c r="F822" t="n">
+        <v>954</v>
+      </c>
+      <c r="G822" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H822" t="n">
+        <v>3</v>
+      </c>
+      <c r="I822" t="n">
+        <v>3</v>
+      </c>
+      <c r="J822" t="n">
+        <v>8</v>
+      </c>
+      <c r="K822" t="n">
+        <v>45</v>
+      </c>
+      <c r="L822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M822" t="n">
+        <v>10</v>
+      </c>
+      <c r="N822" t="inlineStr"/>
+      <c r="O822" t="inlineStr"/>
+      <c r="P822" t="inlineStr"/>
+      <c r="Q822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="2" t="n">
+        <v>45719.40625</v>
+      </c>
+      <c r="B823" t="n">
+        <v>1518.599975585938</v>
+      </c>
+      <c r="C823" t="n">
+        <v>1647.349975585938</v>
+      </c>
+      <c r="D823" t="n">
+        <v>1518.599975585938</v>
+      </c>
+      <c r="E823" t="n">
+        <v>1588.849975585938</v>
+      </c>
+      <c r="F823" t="n">
+        <v>528</v>
+      </c>
+      <c r="G823" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H823" t="n">
+        <v>3</v>
+      </c>
+      <c r="I823" t="n">
+        <v>3</v>
+      </c>
+      <c r="J823" t="n">
+        <v>9</v>
+      </c>
+      <c r="K823" t="n">
+        <v>45</v>
+      </c>
+      <c r="L823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M823" t="n">
+        <v>10</v>
+      </c>
+      <c r="N823" t="inlineStr"/>
+      <c r="O823" t="inlineStr"/>
+      <c r="P823" t="inlineStr"/>
+      <c r="Q823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="2" t="n">
+        <v>45720.15625</v>
+      </c>
+      <c r="B824" t="n">
+        <v>1548.550048828125</v>
+      </c>
+      <c r="C824" t="n">
+        <v>1572.599975585938</v>
+      </c>
+      <c r="D824" t="n">
+        <v>1548.150024414062</v>
+      </c>
+      <c r="E824" t="n">
+        <v>1572</v>
+      </c>
+      <c r="F824" t="n">
+        <v>0</v>
+      </c>
+      <c r="G824" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H824" t="n">
+        <v>3</v>
+      </c>
+      <c r="I824" t="n">
+        <v>4</v>
+      </c>
+      <c r="J824" t="n">
+        <v>3</v>
+      </c>
+      <c r="K824" t="n">
+        <v>45</v>
+      </c>
+      <c r="L824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M824" t="n">
+        <v>10</v>
+      </c>
+      <c r="N824" t="inlineStr"/>
+      <c r="O824" t="inlineStr"/>
+      <c r="P824" t="inlineStr"/>
+      <c r="Q824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="2" t="n">
+        <v>45720.19791666666</v>
+      </c>
+      <c r="B825" t="n">
+        <v>1555.75</v>
+      </c>
+      <c r="C825" t="n">
+        <v>1565.650024414062</v>
+      </c>
+      <c r="D825" t="n">
+        <v>1555.75</v>
+      </c>
+      <c r="E825" t="n">
+        <v>1557.050048828125</v>
+      </c>
+      <c r="F825" t="n">
+        <v>5</v>
+      </c>
+      <c r="G825" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H825" t="n">
+        <v>3</v>
+      </c>
+      <c r="I825" t="n">
+        <v>4</v>
+      </c>
+      <c r="J825" t="n">
+        <v>4</v>
+      </c>
+      <c r="K825" t="n">
+        <v>45</v>
+      </c>
+      <c r="L825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M825" t="n">
+        <v>10</v>
+      </c>
+      <c r="N825" t="inlineStr"/>
+      <c r="O825" t="inlineStr"/>
+      <c r="P825" t="inlineStr"/>
+      <c r="Q825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="2" t="n">
+        <v>45720.23958333334</v>
+      </c>
+      <c r="B826" t="n">
+        <v>1556</v>
+      </c>
+      <c r="C826" t="n">
+        <v>1556</v>
+      </c>
+      <c r="D826" t="n">
+        <v>1519.949951171875</v>
+      </c>
+      <c r="E826" t="n">
+        <v>1525.650024414062</v>
+      </c>
+      <c r="F826" t="n">
+        <v>167</v>
+      </c>
+      <c r="G826" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H826" t="n">
+        <v>3</v>
+      </c>
+      <c r="I826" t="n">
+        <v>4</v>
+      </c>
+      <c r="J826" t="n">
+        <v>5</v>
+      </c>
+      <c r="K826" t="n">
+        <v>45</v>
+      </c>
+      <c r="L826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M826" t="n">
+        <v>10</v>
+      </c>
+      <c r="N826" t="inlineStr"/>
+      <c r="O826" t="inlineStr"/>
+      <c r="P826" t="inlineStr"/>
+      <c r="Q826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="2" t="n">
+        <v>45720.28125</v>
+      </c>
+      <c r="B827" t="n">
+        <v>1525.599975585938</v>
+      </c>
+      <c r="C827" t="n">
+        <v>1533.050048828125</v>
+      </c>
+      <c r="D827" t="n">
+        <v>1502</v>
+      </c>
+      <c r="E827" t="n">
+        <v>1502</v>
+      </c>
+      <c r="F827" t="n">
+        <v>233</v>
+      </c>
+      <c r="G827" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H827" t="n">
+        <v>3</v>
+      </c>
+      <c r="I827" t="n">
+        <v>4</v>
+      </c>
+      <c r="J827" t="n">
+        <v>6</v>
+      </c>
+      <c r="K827" t="n">
+        <v>45</v>
+      </c>
+      <c r="L827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M827" t="n">
+        <v>10</v>
+      </c>
+      <c r="N827" t="inlineStr"/>
+      <c r="O827" t="inlineStr"/>
+      <c r="P827" t="inlineStr"/>
+      <c r="Q827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="2" t="n">
+        <v>45720.32291666666</v>
+      </c>
+      <c r="B828" t="n">
+        <v>1507.199951171875</v>
+      </c>
+      <c r="C828" t="n">
+        <v>1515</v>
+      </c>
+      <c r="D828" t="n">
+        <v>1502</v>
+      </c>
+      <c r="E828" t="n">
+        <v>1506</v>
+      </c>
+      <c r="F828" t="n">
+        <v>374</v>
+      </c>
+      <c r="G828" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H828" t="n">
+        <v>3</v>
+      </c>
+      <c r="I828" t="n">
+        <v>4</v>
+      </c>
+      <c r="J828" t="n">
+        <v>7</v>
+      </c>
+      <c r="K828" t="n">
+        <v>45</v>
+      </c>
+      <c r="L828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M828" t="n">
+        <v>10</v>
+      </c>
+      <c r="N828" t="inlineStr"/>
+      <c r="O828" t="inlineStr"/>
+      <c r="P828" t="inlineStr"/>
+      <c r="Q828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="2" t="n">
+        <v>45720.36458333334</v>
+      </c>
+      <c r="B829" t="n">
+        <v>1503</v>
+      </c>
+      <c r="C829" t="n">
+        <v>1503</v>
+      </c>
+      <c r="D829" t="n">
+        <v>1490.400024414062</v>
+      </c>
+      <c r="E829" t="n">
+        <v>1498.550048828125</v>
+      </c>
+      <c r="F829" t="n">
+        <v>279</v>
+      </c>
+      <c r="G829" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H829" t="n">
+        <v>3</v>
+      </c>
+      <c r="I829" t="n">
+        <v>4</v>
+      </c>
+      <c r="J829" t="n">
+        <v>8</v>
+      </c>
+      <c r="K829" t="n">
+        <v>45</v>
+      </c>
+      <c r="L829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M829" t="n">
+        <v>10</v>
+      </c>
+      <c r="N829" t="inlineStr"/>
+      <c r="O829" t="inlineStr"/>
+      <c r="P829" t="inlineStr"/>
+      <c r="Q829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="2" t="n">
+        <v>45720.40625</v>
+      </c>
+      <c r="B830" t="n">
+        <v>1490.449951171875</v>
+      </c>
+      <c r="C830" t="n">
+        <v>1504</v>
+      </c>
+      <c r="D830" t="n">
+        <v>1475</v>
+      </c>
+      <c r="E830" t="n">
+        <v>1498</v>
+      </c>
+      <c r="F830" t="n">
+        <v>599</v>
+      </c>
+      <c r="G830" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H830" t="n">
+        <v>3</v>
+      </c>
+      <c r="I830" t="n">
+        <v>4</v>
+      </c>
+      <c r="J830" t="n">
+        <v>9</v>
+      </c>
+      <c r="K830" t="n">
+        <v>45</v>
+      </c>
+      <c r="L830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M830" t="n">
+        <v>10</v>
+      </c>
+      <c r="N830" t="inlineStr"/>
+      <c r="O830" t="inlineStr"/>
+      <c r="P830" t="inlineStr"/>
+      <c r="Q830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="2" t="n">
+        <v>45721.15625</v>
+      </c>
+      <c r="B831" t="n">
+        <v>1527.400024414062</v>
+      </c>
+      <c r="C831" t="n">
+        <v>1539.449951171875</v>
+      </c>
+      <c r="D831" t="n">
+        <v>1516.900024414062</v>
+      </c>
+      <c r="E831" t="n">
+        <v>1522.199951171875</v>
+      </c>
+      <c r="F831" t="n">
+        <v>290</v>
+      </c>
+      <c r="G831" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H831" t="n">
+        <v>3</v>
+      </c>
+      <c r="I831" t="n">
+        <v>5</v>
+      </c>
+      <c r="J831" t="n">
+        <v>3</v>
+      </c>
+      <c r="K831" t="n">
+        <v>45</v>
+      </c>
+      <c r="L831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M831" t="n">
+        <v>10</v>
+      </c>
+      <c r="N831" t="inlineStr"/>
+      <c r="O831" t="inlineStr"/>
+      <c r="P831" t="inlineStr"/>
+      <c r="Q831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="2" t="n">
+        <v>45721.19791666666</v>
+      </c>
+      <c r="B832" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C832" t="n">
+        <v>1539.449951171875</v>
+      </c>
+      <c r="D832" t="n">
+        <v>1514.050048828125</v>
+      </c>
+      <c r="E832" t="n">
+        <v>1539.449951171875</v>
+      </c>
+      <c r="F832" t="n">
+        <v>162</v>
+      </c>
+      <c r="G832" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H832" t="n">
+        <v>3</v>
+      </c>
+      <c r="I832" t="n">
+        <v>5</v>
+      </c>
+      <c r="J832" t="n">
+        <v>4</v>
+      </c>
+      <c r="K832" t="n">
+        <v>45</v>
+      </c>
+      <c r="L832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M832" t="n">
+        <v>10</v>
+      </c>
+      <c r="N832" t="inlineStr"/>
+      <c r="O832" t="inlineStr"/>
+      <c r="P832" t="inlineStr"/>
+      <c r="Q832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="2" t="n">
+        <v>45721.23958333334</v>
+      </c>
+      <c r="B833" t="n">
+        <v>1539.449951171875</v>
+      </c>
+      <c r="C833" t="n">
+        <v>1643</v>
+      </c>
+      <c r="D833" t="n">
+        <v>1531.300048828125</v>
+      </c>
+      <c r="E833" t="n">
+        <v>1615.900024414062</v>
+      </c>
+      <c r="F833" t="n">
+        <v>927</v>
+      </c>
+      <c r="G833" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H833" t="n">
+        <v>3</v>
+      </c>
+      <c r="I833" t="n">
+        <v>5</v>
+      </c>
+      <c r="J833" t="n">
+        <v>5</v>
+      </c>
+      <c r="K833" t="n">
+        <v>45</v>
+      </c>
+      <c r="L833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M833" t="n">
+        <v>10</v>
+      </c>
+      <c r="N833" t="inlineStr"/>
+      <c r="O833" t="inlineStr"/>
+      <c r="P833" t="inlineStr"/>
+      <c r="Q833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="2" t="n">
+        <v>45721.28125</v>
+      </c>
+      <c r="B834" t="n">
+        <v>1572.150024414062</v>
+      </c>
+      <c r="C834" t="n">
+        <v>1583.400024414062</v>
+      </c>
+      <c r="D834" t="n">
+        <v>1545.150024414062</v>
+      </c>
+      <c r="E834" t="n">
+        <v>1559.900024414062</v>
+      </c>
+      <c r="F834" t="n">
+        <v>164</v>
+      </c>
+      <c r="G834" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H834" t="n">
+        <v>3</v>
+      </c>
+      <c r="I834" t="n">
+        <v>5</v>
+      </c>
+      <c r="J834" t="n">
+        <v>6</v>
+      </c>
+      <c r="K834" t="n">
+        <v>45</v>
+      </c>
+      <c r="L834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M834" t="n">
+        <v>10</v>
+      </c>
+      <c r="N834" t="inlineStr"/>
+      <c r="O834" t="inlineStr"/>
+      <c r="P834" t="inlineStr"/>
+      <c r="Q834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="2" t="n">
+        <v>45721.32291666666</v>
+      </c>
+      <c r="B835" t="n">
+        <v>1566.849975585938</v>
+      </c>
+      <c r="C835" t="n">
+        <v>1566.849975585938</v>
+      </c>
+      <c r="D835" t="n">
+        <v>1559.599975585938</v>
+      </c>
+      <c r="E835" t="n">
+        <v>1561.099975585938</v>
+      </c>
+      <c r="F835" t="n">
+        <v>20</v>
+      </c>
+      <c r="G835" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H835" t="n">
+        <v>3</v>
+      </c>
+      <c r="I835" t="n">
+        <v>5</v>
+      </c>
+      <c r="J835" t="n">
+        <v>7</v>
+      </c>
+      <c r="K835" t="n">
+        <v>45</v>
+      </c>
+      <c r="L835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M835" t="n">
+        <v>10</v>
+      </c>
+      <c r="N835" t="inlineStr"/>
+      <c r="O835" t="inlineStr"/>
+      <c r="P835" t="inlineStr"/>
+      <c r="Q835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="2" t="n">
+        <v>45721.36458333334</v>
+      </c>
+      <c r="B836" t="n">
+        <v>1563.050048828125</v>
+      </c>
+      <c r="C836" t="n">
+        <v>1582.099975585938</v>
+      </c>
+      <c r="D836" t="n">
+        <v>1557</v>
+      </c>
+      <c r="E836" t="n">
+        <v>1582.099975585938</v>
+      </c>
+      <c r="F836" t="n">
+        <v>153</v>
+      </c>
+      <c r="G836" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H836" t="n">
+        <v>3</v>
+      </c>
+      <c r="I836" t="n">
+        <v>5</v>
+      </c>
+      <c r="J836" t="n">
+        <v>8</v>
+      </c>
+      <c r="K836" t="n">
+        <v>45</v>
+      </c>
+      <c r="L836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M836" t="n">
+        <v>10</v>
+      </c>
+      <c r="N836" t="inlineStr"/>
+      <c r="O836" t="inlineStr"/>
+      <c r="P836" t="inlineStr"/>
+      <c r="Q836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="2" t="n">
+        <v>45721.40625</v>
+      </c>
+      <c r="B837" t="n">
+        <v>1583.25</v>
+      </c>
+      <c r="C837" t="n">
+        <v>1597.949951171875</v>
+      </c>
+      <c r="D837" t="n">
+        <v>1583.199951171875</v>
+      </c>
+      <c r="E837" t="n">
+        <v>1588.5</v>
+      </c>
+      <c r="F837" t="n">
+        <v>366</v>
+      </c>
+      <c r="G837" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H837" t="n">
+        <v>3</v>
+      </c>
+      <c r="I837" t="n">
+        <v>5</v>
+      </c>
+      <c r="J837" t="n">
+        <v>9</v>
+      </c>
+      <c r="K837" t="n">
+        <v>45</v>
+      </c>
+      <c r="L837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M837" t="n">
+        <v>10</v>
+      </c>
+      <c r="N837" t="inlineStr"/>
+      <c r="O837" t="inlineStr"/>
+      <c r="P837" t="inlineStr"/>
+      <c r="Q837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="2" t="n">
+        <v>45722.15625</v>
+      </c>
+      <c r="B838" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C838" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D838" t="n">
+        <v>1575</v>
+      </c>
+      <c r="E838" t="n">
+        <v>1588.099975585938</v>
+      </c>
+      <c r="F838" t="n">
+        <v>347</v>
+      </c>
+      <c r="G838" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H838" t="n">
+        <v>3</v>
+      </c>
+      <c r="I838" t="n">
+        <v>6</v>
+      </c>
+      <c r="J838" t="n">
+        <v>3</v>
+      </c>
+      <c r="K838" t="n">
+        <v>45</v>
+      </c>
+      <c r="L838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M838" t="n">
+        <v>10</v>
+      </c>
+      <c r="N838" t="inlineStr"/>
+      <c r="O838" t="inlineStr"/>
+      <c r="P838" t="inlineStr"/>
+      <c r="Q838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="2" t="n">
+        <v>45722.19791666666</v>
+      </c>
+      <c r="B839" t="n">
+        <v>1592.349975585938</v>
+      </c>
+      <c r="C839" t="n">
+        <v>1628.050048828125</v>
+      </c>
+      <c r="D839" t="n">
+        <v>1592.349975585938</v>
+      </c>
+      <c r="E839" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F839" t="n">
+        <v>417</v>
+      </c>
+      <c r="G839" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H839" t="n">
+        <v>3</v>
+      </c>
+      <c r="I839" t="n">
+        <v>6</v>
+      </c>
+      <c r="J839" t="n">
+        <v>4</v>
+      </c>
+      <c r="K839" t="n">
+        <v>45</v>
+      </c>
+      <c r="L839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M839" t="n">
+        <v>10</v>
+      </c>
+      <c r="N839" t="inlineStr"/>
+      <c r="O839" t="inlineStr"/>
+      <c r="P839" t="inlineStr"/>
+      <c r="Q839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="2" t="n">
+        <v>45722.23958333334</v>
+      </c>
+      <c r="B840" t="n">
+        <v>1619</v>
+      </c>
+      <c r="C840" t="n">
+        <v>1632.099975585938</v>
+      </c>
+      <c r="D840" t="n">
+        <v>1612</v>
+      </c>
+      <c r="E840" t="n">
+        <v>1632.099975585938</v>
+      </c>
+      <c r="F840" t="n">
+        <v>8334</v>
+      </c>
+      <c r="G840" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H840" t="n">
+        <v>3</v>
+      </c>
+      <c r="I840" t="n">
+        <v>6</v>
+      </c>
+      <c r="J840" t="n">
+        <v>5</v>
+      </c>
+      <c r="K840" t="n">
+        <v>45</v>
+      </c>
+      <c r="L840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M840" t="n">
+        <v>10</v>
+      </c>
+      <c r="N840" t="inlineStr"/>
+      <c r="O840" t="inlineStr"/>
+      <c r="P840" t="inlineStr"/>
+      <c r="Q840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="2" t="n">
+        <v>45722.28125</v>
+      </c>
+      <c r="B841" t="n">
+        <v>1636.650024414062</v>
+      </c>
+      <c r="C841" t="n">
+        <v>1678</v>
+      </c>
+      <c r="D841" t="n">
+        <v>1636.650024414062</v>
+      </c>
+      <c r="E841" t="n">
+        <v>1645.599975585938</v>
+      </c>
+      <c r="F841" t="n">
+        <v>310</v>
+      </c>
+      <c r="G841" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H841" t="n">
+        <v>3</v>
+      </c>
+      <c r="I841" t="n">
+        <v>6</v>
+      </c>
+      <c r="J841" t="n">
+        <v>6</v>
+      </c>
+      <c r="K841" t="n">
+        <v>45</v>
+      </c>
+      <c r="L841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M841" t="n">
+        <v>10</v>
+      </c>
+      <c r="N841" t="inlineStr"/>
+      <c r="O841" t="inlineStr"/>
+      <c r="P841" t="inlineStr"/>
+      <c r="Q841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="2" t="n">
+        <v>45722.32291666666</v>
+      </c>
+      <c r="B842" t="n">
+        <v>1643.650024414062</v>
+      </c>
+      <c r="C842" t="n">
+        <v>1678</v>
+      </c>
+      <c r="D842" t="n">
+        <v>1642.199951171875</v>
+      </c>
+      <c r="E842" t="n">
+        <v>1642.199951171875</v>
+      </c>
+      <c r="F842" t="n">
+        <v>178</v>
+      </c>
+      <c r="G842" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H842" t="n">
+        <v>3</v>
+      </c>
+      <c r="I842" t="n">
+        <v>6</v>
+      </c>
+      <c r="J842" t="n">
+        <v>7</v>
+      </c>
+      <c r="K842" t="n">
+        <v>45</v>
+      </c>
+      <c r="L842" t="n">
+        <v>0</v>
+      </c>
+      <c r="M842" t="n">
+        <v>10</v>
+      </c>
+      <c r="N842" t="inlineStr"/>
+      <c r="O842" t="inlineStr"/>
+      <c r="P842" t="inlineStr"/>
+      <c r="Q842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="2" t="n">
+        <v>45722.36458333334</v>
+      </c>
+      <c r="B843" t="n">
+        <v>1658.099975585938</v>
+      </c>
+      <c r="C843" t="n">
+        <v>1661.949951171875</v>
+      </c>
+      <c r="D843" t="n">
+        <v>1639.800048828125</v>
+      </c>
+      <c r="E843" t="n">
+        <v>1651.949951171875</v>
+      </c>
+      <c r="F843" t="n">
+        <v>281</v>
+      </c>
+      <c r="G843" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H843" t="n">
+        <v>3</v>
+      </c>
+      <c r="I843" t="n">
+        <v>6</v>
+      </c>
+      <c r="J843" t="n">
+        <v>8</v>
+      </c>
+      <c r="K843" t="n">
+        <v>45</v>
+      </c>
+      <c r="L843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M843" t="n">
+        <v>10</v>
+      </c>
+      <c r="N843" t="inlineStr"/>
+      <c r="O843" t="inlineStr"/>
+      <c r="P843" t="inlineStr"/>
+      <c r="Q843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="n">
+        <v>45722.40625</v>
+      </c>
+      <c r="B844" t="n">
+        <v>1627</v>
+      </c>
+      <c r="C844" t="n">
+        <v>1665.900024414062</v>
+      </c>
+      <c r="D844" t="n">
+        <v>1601.050048828125</v>
+      </c>
+      <c r="E844" t="n">
+        <v>1650.849975585938</v>
+      </c>
+      <c r="F844" t="n">
+        <v>365</v>
+      </c>
+      <c r="G844" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H844" t="n">
+        <v>3</v>
+      </c>
+      <c r="I844" t="n">
+        <v>6</v>
+      </c>
+      <c r="J844" t="n">
+        <v>9</v>
+      </c>
+      <c r="K844" t="n">
+        <v>45</v>
+      </c>
+      <c r="L844" t="n">
+        <v>0</v>
+      </c>
+      <c r="M844" t="n">
+        <v>10</v>
+      </c>
+      <c r="N844" t="inlineStr"/>
+      <c r="O844" t="inlineStr"/>
+      <c r="P844" t="inlineStr"/>
+      <c r="Q844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="2" t="n">
+        <v>45723.15625</v>
+      </c>
+      <c r="B845" t="n">
+        <v>1658.050048828125</v>
+      </c>
+      <c r="C845" t="n">
+        <v>1691.300048828125</v>
+      </c>
+      <c r="D845" t="n">
+        <v>1644.050048828125</v>
+      </c>
+      <c r="E845" t="n">
+        <v>1650</v>
+      </c>
+      <c r="F845" t="n">
+        <v>0</v>
+      </c>
+      <c r="G845" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H845" t="n">
+        <v>3</v>
+      </c>
+      <c r="I845" t="n">
+        <v>7</v>
+      </c>
+      <c r="J845" t="n">
+        <v>3</v>
+      </c>
+      <c r="K845" t="n">
+        <v>45</v>
+      </c>
+      <c r="L845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M845" t="n">
+        <v>10</v>
+      </c>
+      <c r="N845" t="inlineStr"/>
+      <c r="O845" t="inlineStr"/>
+      <c r="P845" t="inlineStr"/>
+      <c r="Q845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="2" t="n">
+        <v>45723.19791666666</v>
+      </c>
+      <c r="B846" t="n">
+        <v>1660.650024414062</v>
+      </c>
+      <c r="C846" t="n">
+        <v>1683.099975585938</v>
+      </c>
+      <c r="D846" t="n">
+        <v>1660.650024414062</v>
+      </c>
+      <c r="E846" t="n">
+        <v>1683.099975585938</v>
+      </c>
+      <c r="F846" t="n">
+        <v>29</v>
+      </c>
+      <c r="G846" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H846" t="n">
+        <v>3</v>
+      </c>
+      <c r="I846" t="n">
+        <v>7</v>
+      </c>
+      <c r="J846" t="n">
+        <v>4</v>
+      </c>
+      <c r="K846" t="n">
+        <v>45</v>
+      </c>
+      <c r="L846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M846" t="n">
+        <v>10</v>
+      </c>
+      <c r="N846" t="inlineStr"/>
+      <c r="O846" t="inlineStr"/>
+      <c r="P846" t="inlineStr"/>
+      <c r="Q846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="n">
+        <v>45723.23958333334</v>
+      </c>
+      <c r="B847" t="n">
+        <v>1682.300048828125</v>
+      </c>
+      <c r="C847" t="n">
+        <v>1682.300048828125</v>
+      </c>
+      <c r="D847" t="n">
+        <v>1670.25</v>
+      </c>
+      <c r="E847" t="n">
+        <v>1670.25</v>
+      </c>
+      <c r="F847" t="n">
+        <v>65</v>
+      </c>
+      <c r="G847" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H847" t="n">
+        <v>3</v>
+      </c>
+      <c r="I847" t="n">
+        <v>7</v>
+      </c>
+      <c r="J847" t="n">
+        <v>5</v>
+      </c>
+      <c r="K847" t="n">
+        <v>45</v>
+      </c>
+      <c r="L847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M847" t="n">
+        <v>10</v>
+      </c>
+      <c r="N847" t="inlineStr"/>
+      <c r="O847" t="inlineStr"/>
+      <c r="P847" t="inlineStr"/>
+      <c r="Q847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="2" t="n">
+        <v>45723.28125</v>
+      </c>
+      <c r="B848" t="n">
+        <v>1670</v>
+      </c>
+      <c r="C848" t="n">
+        <v>1684.949951171875</v>
+      </c>
+      <c r="D848" t="n">
+        <v>1660</v>
+      </c>
+      <c r="E848" t="n">
+        <v>1684.949951171875</v>
+      </c>
+      <c r="F848" t="n">
+        <v>68</v>
+      </c>
+      <c r="G848" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H848" t="n">
+        <v>3</v>
+      </c>
+      <c r="I848" t="n">
+        <v>7</v>
+      </c>
+      <c r="J848" t="n">
+        <v>6</v>
+      </c>
+      <c r="K848" t="n">
+        <v>45</v>
+      </c>
+      <c r="L848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M848" t="n">
+        <v>10</v>
+      </c>
+      <c r="N848" t="inlineStr"/>
+      <c r="O848" t="inlineStr"/>
+      <c r="P848" t="inlineStr"/>
+      <c r="Q848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="2" t="n">
+        <v>45723.32291666666</v>
+      </c>
+      <c r="B849" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C849" t="n">
+        <v>1660</v>
+      </c>
+      <c r="D849" t="n">
+        <v>1660</v>
+      </c>
+      <c r="E849" t="n">
+        <v>1660</v>
+      </c>
+      <c r="F849" t="n">
+        <v>1</v>
+      </c>
+      <c r="G849" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H849" t="n">
+        <v>3</v>
+      </c>
+      <c r="I849" t="n">
+        <v>7</v>
+      </c>
+      <c r="J849" t="n">
+        <v>7</v>
+      </c>
+      <c r="K849" t="n">
+        <v>45</v>
+      </c>
+      <c r="L849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M849" t="n">
+        <v>10</v>
+      </c>
+      <c r="N849" t="inlineStr"/>
+      <c r="O849" t="inlineStr"/>
+      <c r="P849" t="inlineStr"/>
+      <c r="Q849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="2" t="n">
+        <v>45723.36458333334</v>
+      </c>
+      <c r="B850" t="n">
+        <v>1653.449951171875</v>
+      </c>
+      <c r="C850" t="n">
+        <v>1671.550048828125</v>
+      </c>
+      <c r="D850" t="n">
+        <v>1646.5</v>
+      </c>
+      <c r="E850" t="n">
+        <v>1665.900024414062</v>
+      </c>
+      <c r="F850" t="n">
+        <v>295</v>
+      </c>
+      <c r="G850" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H850" t="n">
+        <v>3</v>
+      </c>
+      <c r="I850" t="n">
+        <v>7</v>
+      </c>
+      <c r="J850" t="n">
+        <v>8</v>
+      </c>
+      <c r="K850" t="n">
+        <v>45</v>
+      </c>
+      <c r="L850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M850" t="n">
+        <v>10</v>
+      </c>
+      <c r="N850" t="inlineStr"/>
+      <c r="O850" t="inlineStr"/>
+      <c r="P850" t="inlineStr"/>
+      <c r="Q850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="2" t="n">
+        <v>45723.40625</v>
+      </c>
+      <c r="B851" t="n">
+        <v>1665.349975585938</v>
+      </c>
+      <c r="C851" t="n">
+        <v>1665.349975585938</v>
+      </c>
+      <c r="D851" t="n">
+        <v>1646.900024414062</v>
+      </c>
+      <c r="E851" t="n">
+        <v>1663.449951171875</v>
+      </c>
+      <c r="F851" t="n">
+        <v>192</v>
+      </c>
+      <c r="G851" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H851" t="n">
+        <v>3</v>
+      </c>
+      <c r="I851" t="n">
+        <v>7</v>
+      </c>
+      <c r="J851" t="n">
+        <v>9</v>
+      </c>
+      <c r="K851" t="n">
+        <v>45</v>
+      </c>
+      <c r="L851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M851" t="n">
+        <v>10</v>
+      </c>
+      <c r="N851" t="inlineStr"/>
+      <c r="O851" t="inlineStr"/>
+      <c r="P851" t="inlineStr"/>
+      <c r="Q851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="2" t="n">
+        <v>45726.15625</v>
+      </c>
+      <c r="B852" t="n">
+        <v>1666.400024414062</v>
+      </c>
+      <c r="C852" t="n">
+        <v>1666.400024414062</v>
+      </c>
+      <c r="D852" t="n">
+        <v>1602.650024414062</v>
+      </c>
+      <c r="E852" t="n">
+        <v>1602.650024414062</v>
+      </c>
+      <c r="F852" t="n">
+        <v>0</v>
+      </c>
+      <c r="G852" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H852" t="n">
+        <v>3</v>
+      </c>
+      <c r="I852" t="n">
+        <v>10</v>
+      </c>
+      <c r="J852" t="n">
+        <v>3</v>
+      </c>
+      <c r="K852" t="n">
+        <v>45</v>
+      </c>
+      <c r="L852" t="n">
+        <v>0</v>
+      </c>
+      <c r="M852" t="n">
+        <v>11</v>
+      </c>
+      <c r="N852" t="inlineStr"/>
+      <c r="O852" t="inlineStr"/>
+      <c r="P852" t="inlineStr"/>
+      <c r="Q852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="2" t="n">
+        <v>45726.19791666666</v>
+      </c>
+      <c r="B853" t="n">
+        <v>1609.949951171875</v>
+      </c>
+      <c r="C853" t="n">
+        <v>1620.25</v>
+      </c>
+      <c r="D853" t="n">
+        <v>1609.949951171875</v>
+      </c>
+      <c r="E853" t="n">
+        <v>1620.25</v>
+      </c>
+      <c r="F853" t="n">
+        <v>47</v>
+      </c>
+      <c r="G853" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H853" t="n">
+        <v>3</v>
+      </c>
+      <c r="I853" t="n">
+        <v>10</v>
+      </c>
+      <c r="J853" t="n">
+        <v>4</v>
+      </c>
+      <c r="K853" t="n">
+        <v>45</v>
+      </c>
+      <c r="L853" t="n">
+        <v>0</v>
+      </c>
+      <c r="M853" t="n">
+        <v>11</v>
+      </c>
+      <c r="N853" t="inlineStr"/>
+      <c r="O853" t="inlineStr"/>
+      <c r="P853" t="inlineStr"/>
+      <c r="Q853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="2" t="n">
+        <v>45726.23958333334</v>
+      </c>
+      <c r="B854" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C854" t="n">
+        <v>1602</v>
+      </c>
+      <c r="D854" t="n">
+        <v>1602</v>
+      </c>
+      <c r="E854" t="n">
+        <v>1602</v>
+      </c>
+      <c r="F854" t="n">
+        <v>24</v>
+      </c>
+      <c r="G854" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H854" t="n">
+        <v>3</v>
+      </c>
+      <c r="I854" t="n">
+        <v>10</v>
+      </c>
+      <c r="J854" t="n">
+        <v>5</v>
+      </c>
+      <c r="K854" t="n">
+        <v>45</v>
+      </c>
+      <c r="L854" t="n">
+        <v>0</v>
+      </c>
+      <c r="M854" t="n">
+        <v>11</v>
+      </c>
+      <c r="N854" t="inlineStr"/>
+      <c r="O854" t="inlineStr"/>
+      <c r="P854" t="inlineStr"/>
+      <c r="Q854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="2" t="n">
+        <v>45726.28125</v>
+      </c>
+      <c r="B855" t="n">
+        <v>1598.099975585938</v>
+      </c>
+      <c r="C855" t="n">
+        <v>1598.099975585938</v>
+      </c>
+      <c r="D855" t="n">
+        <v>1592</v>
+      </c>
+      <c r="E855" t="n">
+        <v>1592</v>
+      </c>
+      <c r="F855" t="n">
+        <v>123</v>
+      </c>
+      <c r="G855" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H855" t="n">
+        <v>3</v>
+      </c>
+      <c r="I855" t="n">
+        <v>10</v>
+      </c>
+      <c r="J855" t="n">
+        <v>6</v>
+      </c>
+      <c r="K855" t="n">
+        <v>45</v>
+      </c>
+      <c r="L855" t="n">
+        <v>0</v>
+      </c>
+      <c r="M855" t="n">
+        <v>11</v>
+      </c>
+      <c r="N855" t="inlineStr"/>
+      <c r="O855" t="inlineStr"/>
+      <c r="P855" t="inlineStr"/>
+      <c r="Q855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="2" t="n">
+        <v>45726.32291666666</v>
+      </c>
+      <c r="B856" t="n">
+        <v>1585</v>
+      </c>
+      <c r="C856" t="n">
+        <v>1585</v>
+      </c>
+      <c r="D856" t="n">
+        <v>1568.949951171875</v>
+      </c>
+      <c r="E856" t="n">
+        <v>1578.949951171875</v>
+      </c>
+      <c r="F856" t="n">
+        <v>40</v>
+      </c>
+      <c r="G856" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H856" t="n">
+        <v>3</v>
+      </c>
+      <c r="I856" t="n">
+        <v>10</v>
+      </c>
+      <c r="J856" t="n">
+        <v>7</v>
+      </c>
+      <c r="K856" t="n">
+        <v>45</v>
+      </c>
+      <c r="L856" t="n">
+        <v>0</v>
+      </c>
+      <c r="M856" t="n">
+        <v>11</v>
+      </c>
+      <c r="N856" t="inlineStr"/>
+      <c r="O856" t="inlineStr"/>
+      <c r="P856" t="inlineStr"/>
+      <c r="Q856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
+        <v>45726.36458333334</v>
+      </c>
+      <c r="B857" t="n">
+        <v>1562</v>
+      </c>
+      <c r="C857" t="n">
+        <v>1575</v>
+      </c>
+      <c r="D857" t="n">
+        <v>1562</v>
+      </c>
+      <c r="E857" t="n">
+        <v>1575</v>
+      </c>
+      <c r="F857" t="n">
+        <v>27</v>
+      </c>
+      <c r="G857" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H857" t="n">
+        <v>3</v>
+      </c>
+      <c r="I857" t="n">
+        <v>10</v>
+      </c>
+      <c r="J857" t="n">
+        <v>8</v>
+      </c>
+      <c r="K857" t="n">
+        <v>45</v>
+      </c>
+      <c r="L857" t="n">
+        <v>0</v>
+      </c>
+      <c r="M857" t="n">
+        <v>11</v>
+      </c>
+      <c r="N857" t="inlineStr"/>
+      <c r="O857" t="inlineStr"/>
+      <c r="P857" t="inlineStr"/>
+      <c r="Q857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="n">
+        <v>45726.40625</v>
+      </c>
+      <c r="B858" t="n">
+        <v>1559</v>
+      </c>
+      <c r="C858" t="n">
+        <v>1559</v>
+      </c>
+      <c r="D858" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E858" t="n">
+        <v>1556.900024414062</v>
+      </c>
+      <c r="F858" t="n">
+        <v>88</v>
+      </c>
+      <c r="G858" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H858" t="n">
+        <v>3</v>
+      </c>
+      <c r="I858" t="n">
+        <v>10</v>
+      </c>
+      <c r="J858" t="n">
+        <v>9</v>
+      </c>
+      <c r="K858" t="n">
+        <v>45</v>
+      </c>
+      <c r="L858" t="n">
+        <v>0</v>
+      </c>
+      <c r="M858" t="n">
+        <v>11</v>
+      </c>
+      <c r="N858" t="inlineStr"/>
+      <c r="O858" t="inlineStr"/>
+      <c r="P858" t="inlineStr"/>
+      <c r="Q858" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/KMEW.BO.xlsx
+++ b/stock_historical_data/60m/KMEW.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q858"/>
+  <dimension ref="A1:Q949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42077,6 +42077,4101 @@
       <c r="P858" t="inlineStr"/>
       <c r="Q858" t="inlineStr"/>
     </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>45727.15625</v>
+      </c>
+      <c r="B859" t="n">
+        <v>1528</v>
+      </c>
+      <c r="C859" t="n">
+        <v>1590</v>
+      </c>
+      <c r="D859" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E859" t="n">
+        <v>1548.949951171875</v>
+      </c>
+      <c r="F859" t="n">
+        <v>1361</v>
+      </c>
+      <c r="G859" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H859" t="n">
+        <v>3</v>
+      </c>
+      <c r="I859" t="n">
+        <v>11</v>
+      </c>
+      <c r="J859" t="n">
+        <v>3</v>
+      </c>
+      <c r="K859" t="n">
+        <v>45</v>
+      </c>
+      <c r="L859" t="n">
+        <v>0</v>
+      </c>
+      <c r="M859" t="n">
+        <v>11</v>
+      </c>
+      <c r="N859" t="inlineStr"/>
+      <c r="O859" t="inlineStr"/>
+      <c r="P859" t="inlineStr"/>
+      <c r="Q859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>45727.19791666666</v>
+      </c>
+      <c r="B860" t="n">
+        <v>1557.349975585938</v>
+      </c>
+      <c r="C860" t="n">
+        <v>1580.75</v>
+      </c>
+      <c r="D860" t="n">
+        <v>1549.199951171875</v>
+      </c>
+      <c r="E860" t="n">
+        <v>1577.949951171875</v>
+      </c>
+      <c r="F860" t="n">
+        <v>13</v>
+      </c>
+      <c r="G860" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H860" t="n">
+        <v>3</v>
+      </c>
+      <c r="I860" t="n">
+        <v>11</v>
+      </c>
+      <c r="J860" t="n">
+        <v>4</v>
+      </c>
+      <c r="K860" t="n">
+        <v>45</v>
+      </c>
+      <c r="L860" t="n">
+        <v>0</v>
+      </c>
+      <c r="M860" t="n">
+        <v>11</v>
+      </c>
+      <c r="N860" t="inlineStr"/>
+      <c r="O860" t="inlineStr"/>
+      <c r="P860" t="inlineStr"/>
+      <c r="Q860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
+        <v>45727.23958333334</v>
+      </c>
+      <c r="B861" t="n">
+        <v>1560</v>
+      </c>
+      <c r="C861" t="n">
+        <v>1571.800048828125</v>
+      </c>
+      <c r="D861" t="n">
+        <v>1559.699951171875</v>
+      </c>
+      <c r="E861" t="n">
+        <v>1569.550048828125</v>
+      </c>
+      <c r="F861" t="n">
+        <v>56</v>
+      </c>
+      <c r="G861" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H861" t="n">
+        <v>3</v>
+      </c>
+      <c r="I861" t="n">
+        <v>11</v>
+      </c>
+      <c r="J861" t="n">
+        <v>5</v>
+      </c>
+      <c r="K861" t="n">
+        <v>45</v>
+      </c>
+      <c r="L861" t="n">
+        <v>0</v>
+      </c>
+      <c r="M861" t="n">
+        <v>11</v>
+      </c>
+      <c r="N861" t="inlineStr"/>
+      <c r="O861" t="inlineStr"/>
+      <c r="P861" t="inlineStr"/>
+      <c r="Q861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>45727.28125</v>
+      </c>
+      <c r="B862" t="n">
+        <v>1574.349975585938</v>
+      </c>
+      <c r="C862" t="n">
+        <v>1574.349975585938</v>
+      </c>
+      <c r="D862" t="n">
+        <v>1559.300048828125</v>
+      </c>
+      <c r="E862" t="n">
+        <v>1559.300048828125</v>
+      </c>
+      <c r="F862" t="n">
+        <v>13</v>
+      </c>
+      <c r="G862" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H862" t="n">
+        <v>3</v>
+      </c>
+      <c r="I862" t="n">
+        <v>11</v>
+      </c>
+      <c r="J862" t="n">
+        <v>6</v>
+      </c>
+      <c r="K862" t="n">
+        <v>45</v>
+      </c>
+      <c r="L862" t="n">
+        <v>0</v>
+      </c>
+      <c r="M862" t="n">
+        <v>11</v>
+      </c>
+      <c r="N862" t="inlineStr"/>
+      <c r="O862" t="inlineStr"/>
+      <c r="P862" t="inlineStr"/>
+      <c r="Q862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>45727.32291666666</v>
+      </c>
+      <c r="B863" t="n">
+        <v>1549.199951171875</v>
+      </c>
+      <c r="C863" t="n">
+        <v>1551.900024414062</v>
+      </c>
+      <c r="D863" t="n">
+        <v>1530.050048828125</v>
+      </c>
+      <c r="E863" t="n">
+        <v>1536.099975585938</v>
+      </c>
+      <c r="F863" t="n">
+        <v>161</v>
+      </c>
+      <c r="G863" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H863" t="n">
+        <v>3</v>
+      </c>
+      <c r="I863" t="n">
+        <v>11</v>
+      </c>
+      <c r="J863" t="n">
+        <v>7</v>
+      </c>
+      <c r="K863" t="n">
+        <v>45</v>
+      </c>
+      <c r="L863" t="n">
+        <v>0</v>
+      </c>
+      <c r="M863" t="n">
+        <v>11</v>
+      </c>
+      <c r="N863" t="inlineStr"/>
+      <c r="O863" t="inlineStr"/>
+      <c r="P863" t="inlineStr"/>
+      <c r="Q863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>45727.36458333334</v>
+      </c>
+      <c r="B864" t="n">
+        <v>1561.400024414062</v>
+      </c>
+      <c r="C864" t="n">
+        <v>1574.400024414062</v>
+      </c>
+      <c r="D864" t="n">
+        <v>1541</v>
+      </c>
+      <c r="E864" t="n">
+        <v>1566.349975585938</v>
+      </c>
+      <c r="F864" t="n">
+        <v>266</v>
+      </c>
+      <c r="G864" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H864" t="n">
+        <v>3</v>
+      </c>
+      <c r="I864" t="n">
+        <v>11</v>
+      </c>
+      <c r="J864" t="n">
+        <v>8</v>
+      </c>
+      <c r="K864" t="n">
+        <v>45</v>
+      </c>
+      <c r="L864" t="n">
+        <v>0</v>
+      </c>
+      <c r="M864" t="n">
+        <v>11</v>
+      </c>
+      <c r="N864" t="inlineStr"/>
+      <c r="O864" t="inlineStr"/>
+      <c r="P864" t="inlineStr"/>
+      <c r="Q864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>45727.40625</v>
+      </c>
+      <c r="B865" t="n">
+        <v>1542.150024414062</v>
+      </c>
+      <c r="C865" t="n">
+        <v>1584.949951171875</v>
+      </c>
+      <c r="D865" t="n">
+        <v>1542.150024414062</v>
+      </c>
+      <c r="E865" t="n">
+        <v>1558.449951171875</v>
+      </c>
+      <c r="F865" t="n">
+        <v>81</v>
+      </c>
+      <c r="G865" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H865" t="n">
+        <v>3</v>
+      </c>
+      <c r="I865" t="n">
+        <v>11</v>
+      </c>
+      <c r="J865" t="n">
+        <v>9</v>
+      </c>
+      <c r="K865" t="n">
+        <v>45</v>
+      </c>
+      <c r="L865" t="n">
+        <v>0</v>
+      </c>
+      <c r="M865" t="n">
+        <v>11</v>
+      </c>
+      <c r="N865" t="inlineStr"/>
+      <c r="O865" t="inlineStr"/>
+      <c r="P865" t="inlineStr"/>
+      <c r="Q865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>45728.15625</v>
+      </c>
+      <c r="B866" t="n">
+        <v>1558.449951171875</v>
+      </c>
+      <c r="C866" t="n">
+        <v>1558.449951171875</v>
+      </c>
+      <c r="D866" t="n">
+        <v>1519.449951171875</v>
+      </c>
+      <c r="E866" t="n">
+        <v>1519.849975585938</v>
+      </c>
+      <c r="F866" t="n">
+        <v>0</v>
+      </c>
+      <c r="G866" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H866" t="n">
+        <v>3</v>
+      </c>
+      <c r="I866" t="n">
+        <v>12</v>
+      </c>
+      <c r="J866" t="n">
+        <v>3</v>
+      </c>
+      <c r="K866" t="n">
+        <v>45</v>
+      </c>
+      <c r="L866" t="n">
+        <v>0</v>
+      </c>
+      <c r="M866" t="n">
+        <v>11</v>
+      </c>
+      <c r="N866" t="inlineStr"/>
+      <c r="O866" t="inlineStr"/>
+      <c r="P866" t="inlineStr"/>
+      <c r="Q866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="2" t="n">
+        <v>45728.19791666666</v>
+      </c>
+      <c r="B867" t="n">
+        <v>1523.449951171875</v>
+      </c>
+      <c r="C867" t="n">
+        <v>1525.400024414062</v>
+      </c>
+      <c r="D867" t="n">
+        <v>1515.099975585938</v>
+      </c>
+      <c r="E867" t="n">
+        <v>1521.900024414062</v>
+      </c>
+      <c r="F867" t="n">
+        <v>164</v>
+      </c>
+      <c r="G867" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H867" t="n">
+        <v>3</v>
+      </c>
+      <c r="I867" t="n">
+        <v>12</v>
+      </c>
+      <c r="J867" t="n">
+        <v>4</v>
+      </c>
+      <c r="K867" t="n">
+        <v>45</v>
+      </c>
+      <c r="L867" t="n">
+        <v>0</v>
+      </c>
+      <c r="M867" t="n">
+        <v>11</v>
+      </c>
+      <c r="N867" t="inlineStr"/>
+      <c r="O867" t="inlineStr"/>
+      <c r="P867" t="inlineStr"/>
+      <c r="Q867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>45728.23958333334</v>
+      </c>
+      <c r="B868" t="n">
+        <v>1510.599975585938</v>
+      </c>
+      <c r="C868" t="n">
+        <v>1510.599975585938</v>
+      </c>
+      <c r="D868" t="n">
+        <v>1505</v>
+      </c>
+      <c r="E868" t="n">
+        <v>1505</v>
+      </c>
+      <c r="F868" t="n">
+        <v>20</v>
+      </c>
+      <c r="G868" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H868" t="n">
+        <v>3</v>
+      </c>
+      <c r="I868" t="n">
+        <v>12</v>
+      </c>
+      <c r="J868" t="n">
+        <v>5</v>
+      </c>
+      <c r="K868" t="n">
+        <v>45</v>
+      </c>
+      <c r="L868" t="n">
+        <v>0</v>
+      </c>
+      <c r="M868" t="n">
+        <v>11</v>
+      </c>
+      <c r="N868" t="inlineStr"/>
+      <c r="O868" t="inlineStr"/>
+      <c r="P868" t="inlineStr"/>
+      <c r="Q868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
+        <v>45728.28125</v>
+      </c>
+      <c r="B869" t="n">
+        <v>1505</v>
+      </c>
+      <c r="C869" t="n">
+        <v>1505</v>
+      </c>
+      <c r="D869" t="n">
+        <v>1492.050048828125</v>
+      </c>
+      <c r="E869" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F869" t="n">
+        <v>86</v>
+      </c>
+      <c r="G869" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H869" t="n">
+        <v>3</v>
+      </c>
+      <c r="I869" t="n">
+        <v>12</v>
+      </c>
+      <c r="J869" t="n">
+        <v>6</v>
+      </c>
+      <c r="K869" t="n">
+        <v>45</v>
+      </c>
+      <c r="L869" t="n">
+        <v>0</v>
+      </c>
+      <c r="M869" t="n">
+        <v>11</v>
+      </c>
+      <c r="N869" t="inlineStr"/>
+      <c r="O869" t="inlineStr"/>
+      <c r="P869" t="inlineStr"/>
+      <c r="Q869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>45728.32291666666</v>
+      </c>
+      <c r="B870" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C870" t="n">
+        <v>1503.75</v>
+      </c>
+      <c r="D870" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E870" t="n">
+        <v>1500.650024414062</v>
+      </c>
+      <c r="F870" t="n">
+        <v>57</v>
+      </c>
+      <c r="G870" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H870" t="n">
+        <v>3</v>
+      </c>
+      <c r="I870" t="n">
+        <v>12</v>
+      </c>
+      <c r="J870" t="n">
+        <v>7</v>
+      </c>
+      <c r="K870" t="n">
+        <v>45</v>
+      </c>
+      <c r="L870" t="n">
+        <v>0</v>
+      </c>
+      <c r="M870" t="n">
+        <v>11</v>
+      </c>
+      <c r="N870" t="inlineStr"/>
+      <c r="O870" t="inlineStr"/>
+      <c r="P870" t="inlineStr"/>
+      <c r="Q870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>45728.36458333334</v>
+      </c>
+      <c r="B871" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C871" t="n">
+        <v>1497.199951171875</v>
+      </c>
+      <c r="D871" t="n">
+        <v>1449.949951171875</v>
+      </c>
+      <c r="E871" t="n">
+        <v>1449.949951171875</v>
+      </c>
+      <c r="F871" t="n">
+        <v>815</v>
+      </c>
+      <c r="G871" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H871" t="n">
+        <v>3</v>
+      </c>
+      <c r="I871" t="n">
+        <v>12</v>
+      </c>
+      <c r="J871" t="n">
+        <v>8</v>
+      </c>
+      <c r="K871" t="n">
+        <v>45</v>
+      </c>
+      <c r="L871" t="n">
+        <v>0</v>
+      </c>
+      <c r="M871" t="n">
+        <v>11</v>
+      </c>
+      <c r="N871" t="inlineStr"/>
+      <c r="O871" t="inlineStr"/>
+      <c r="P871" t="inlineStr"/>
+      <c r="Q871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>45728.40625</v>
+      </c>
+      <c r="B872" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C872" t="n">
+        <v>1484</v>
+      </c>
+      <c r="D872" t="n">
+        <v>1449.900024414062</v>
+      </c>
+      <c r="E872" t="n">
+        <v>1458.650024414062</v>
+      </c>
+      <c r="F872" t="n">
+        <v>137</v>
+      </c>
+      <c r="G872" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H872" t="n">
+        <v>3</v>
+      </c>
+      <c r="I872" t="n">
+        <v>12</v>
+      </c>
+      <c r="J872" t="n">
+        <v>9</v>
+      </c>
+      <c r="K872" t="n">
+        <v>45</v>
+      </c>
+      <c r="L872" t="n">
+        <v>0</v>
+      </c>
+      <c r="M872" t="n">
+        <v>11</v>
+      </c>
+      <c r="N872" t="inlineStr"/>
+      <c r="O872" t="inlineStr"/>
+      <c r="P872" t="inlineStr"/>
+      <c r="Q872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>45729.15625</v>
+      </c>
+      <c r="B873" t="n">
+        <v>1469.300048828125</v>
+      </c>
+      <c r="C873" t="n">
+        <v>1552.400024414062</v>
+      </c>
+      <c r="D873" t="n">
+        <v>1460.449951171875</v>
+      </c>
+      <c r="E873" t="n">
+        <v>1547</v>
+      </c>
+      <c r="F873" t="n">
+        <v>0</v>
+      </c>
+      <c r="G873" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H873" t="n">
+        <v>3</v>
+      </c>
+      <c r="I873" t="n">
+        <v>13</v>
+      </c>
+      <c r="J873" t="n">
+        <v>3</v>
+      </c>
+      <c r="K873" t="n">
+        <v>45</v>
+      </c>
+      <c r="L873" t="n">
+        <v>0</v>
+      </c>
+      <c r="M873" t="n">
+        <v>11</v>
+      </c>
+      <c r="N873" t="inlineStr"/>
+      <c r="O873" t="inlineStr"/>
+      <c r="P873" t="inlineStr"/>
+      <c r="Q873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>45729.19791666666</v>
+      </c>
+      <c r="B874" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C874" t="n">
+        <v>1566.949951171875</v>
+      </c>
+      <c r="D874" t="n">
+        <v>1535</v>
+      </c>
+      <c r="E874" t="n">
+        <v>1559.599975585938</v>
+      </c>
+      <c r="F874" t="n">
+        <v>126</v>
+      </c>
+      <c r="G874" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H874" t="n">
+        <v>3</v>
+      </c>
+      <c r="I874" t="n">
+        <v>13</v>
+      </c>
+      <c r="J874" t="n">
+        <v>4</v>
+      </c>
+      <c r="K874" t="n">
+        <v>45</v>
+      </c>
+      <c r="L874" t="n">
+        <v>0</v>
+      </c>
+      <c r="M874" t="n">
+        <v>11</v>
+      </c>
+      <c r="N874" t="inlineStr"/>
+      <c r="O874" t="inlineStr"/>
+      <c r="P874" t="inlineStr"/>
+      <c r="Q874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>45729.23958333334</v>
+      </c>
+      <c r="B875" t="n">
+        <v>1551.099975585938</v>
+      </c>
+      <c r="C875" t="n">
+        <v>1563.949951171875</v>
+      </c>
+      <c r="D875" t="n">
+        <v>1540</v>
+      </c>
+      <c r="E875" t="n">
+        <v>1542.900024414062</v>
+      </c>
+      <c r="F875" t="n">
+        <v>291</v>
+      </c>
+      <c r="G875" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H875" t="n">
+        <v>3</v>
+      </c>
+      <c r="I875" t="n">
+        <v>13</v>
+      </c>
+      <c r="J875" t="n">
+        <v>5</v>
+      </c>
+      <c r="K875" t="n">
+        <v>45</v>
+      </c>
+      <c r="L875" t="n">
+        <v>0</v>
+      </c>
+      <c r="M875" t="n">
+        <v>11</v>
+      </c>
+      <c r="N875" t="inlineStr"/>
+      <c r="O875" t="inlineStr"/>
+      <c r="P875" t="inlineStr"/>
+      <c r="Q875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>45729.28125</v>
+      </c>
+      <c r="B876" t="n">
+        <v>1539.099975585938</v>
+      </c>
+      <c r="C876" t="n">
+        <v>1542.900024414062</v>
+      </c>
+      <c r="D876" t="n">
+        <v>1535</v>
+      </c>
+      <c r="E876" t="n">
+        <v>1540</v>
+      </c>
+      <c r="F876" t="n">
+        <v>242</v>
+      </c>
+      <c r="G876" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H876" t="n">
+        <v>3</v>
+      </c>
+      <c r="I876" t="n">
+        <v>13</v>
+      </c>
+      <c r="J876" t="n">
+        <v>6</v>
+      </c>
+      <c r="K876" t="n">
+        <v>45</v>
+      </c>
+      <c r="L876" t="n">
+        <v>0</v>
+      </c>
+      <c r="M876" t="n">
+        <v>11</v>
+      </c>
+      <c r="N876" t="inlineStr"/>
+      <c r="O876" t="inlineStr"/>
+      <c r="P876" t="inlineStr"/>
+      <c r="Q876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>45729.32291666666</v>
+      </c>
+      <c r="B877" t="n">
+        <v>1535.349975585938</v>
+      </c>
+      <c r="C877" t="n">
+        <v>1535.349975585938</v>
+      </c>
+      <c r="D877" t="n">
+        <v>1520.099975585938</v>
+      </c>
+      <c r="E877" t="n">
+        <v>1528.449951171875</v>
+      </c>
+      <c r="F877" t="n">
+        <v>37</v>
+      </c>
+      <c r="G877" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H877" t="n">
+        <v>3</v>
+      </c>
+      <c r="I877" t="n">
+        <v>13</v>
+      </c>
+      <c r="J877" t="n">
+        <v>7</v>
+      </c>
+      <c r="K877" t="n">
+        <v>45</v>
+      </c>
+      <c r="L877" t="n">
+        <v>0</v>
+      </c>
+      <c r="M877" t="n">
+        <v>11</v>
+      </c>
+      <c r="N877" t="inlineStr"/>
+      <c r="O877" t="inlineStr"/>
+      <c r="P877" t="inlineStr"/>
+      <c r="Q877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>45729.36458333334</v>
+      </c>
+      <c r="B878" t="n">
+        <v>1516.800048828125</v>
+      </c>
+      <c r="C878" t="n">
+        <v>1537.599975585938</v>
+      </c>
+      <c r="D878" t="n">
+        <v>1505.300048828125</v>
+      </c>
+      <c r="E878" t="n">
+        <v>1523.949951171875</v>
+      </c>
+      <c r="F878" t="n">
+        <v>363</v>
+      </c>
+      <c r="G878" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H878" t="n">
+        <v>3</v>
+      </c>
+      <c r="I878" t="n">
+        <v>13</v>
+      </c>
+      <c r="J878" t="n">
+        <v>8</v>
+      </c>
+      <c r="K878" t="n">
+        <v>45</v>
+      </c>
+      <c r="L878" t="n">
+        <v>0</v>
+      </c>
+      <c r="M878" t="n">
+        <v>11</v>
+      </c>
+      <c r="N878" t="inlineStr"/>
+      <c r="O878" t="inlineStr"/>
+      <c r="P878" t="inlineStr"/>
+      <c r="Q878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>45729.40625</v>
+      </c>
+      <c r="B879" t="n">
+        <v>1517.800048828125</v>
+      </c>
+      <c r="C879" t="n">
+        <v>1556.650024414062</v>
+      </c>
+      <c r="D879" t="n">
+        <v>1499.599975585938</v>
+      </c>
+      <c r="E879" t="n">
+        <v>1518.800048828125</v>
+      </c>
+      <c r="F879" t="n">
+        <v>0</v>
+      </c>
+      <c r="G879" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H879" t="n">
+        <v>3</v>
+      </c>
+      <c r="I879" t="n">
+        <v>13</v>
+      </c>
+      <c r="J879" t="n">
+        <v>9</v>
+      </c>
+      <c r="K879" t="n">
+        <v>45</v>
+      </c>
+      <c r="L879" t="n">
+        <v>0</v>
+      </c>
+      <c r="M879" t="n">
+        <v>11</v>
+      </c>
+      <c r="N879" t="inlineStr"/>
+      <c r="O879" t="inlineStr"/>
+      <c r="P879" t="inlineStr"/>
+      <c r="Q879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>45733.15625</v>
+      </c>
+      <c r="B880" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C880" t="n">
+        <v>1552.650024414062</v>
+      </c>
+      <c r="D880" t="n">
+        <v>1518.300048828125</v>
+      </c>
+      <c r="E880" t="n">
+        <v>1532.599975585938</v>
+      </c>
+      <c r="F880" t="n">
+        <v>610</v>
+      </c>
+      <c r="G880" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H880" t="n">
+        <v>3</v>
+      </c>
+      <c r="I880" t="n">
+        <v>17</v>
+      </c>
+      <c r="J880" t="n">
+        <v>3</v>
+      </c>
+      <c r="K880" t="n">
+        <v>45</v>
+      </c>
+      <c r="L880" t="n">
+        <v>0</v>
+      </c>
+      <c r="M880" t="n">
+        <v>12</v>
+      </c>
+      <c r="N880" t="inlineStr"/>
+      <c r="O880" t="inlineStr"/>
+      <c r="P880" t="inlineStr"/>
+      <c r="Q880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>45733.19791666666</v>
+      </c>
+      <c r="B881" t="n">
+        <v>1529.199951171875</v>
+      </c>
+      <c r="C881" t="n">
+        <v>1529.849975585938</v>
+      </c>
+      <c r="D881" t="n">
+        <v>1514.5</v>
+      </c>
+      <c r="E881" t="n">
+        <v>1514.800048828125</v>
+      </c>
+      <c r="F881" t="n">
+        <v>161</v>
+      </c>
+      <c r="G881" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H881" t="n">
+        <v>3</v>
+      </c>
+      <c r="I881" t="n">
+        <v>17</v>
+      </c>
+      <c r="J881" t="n">
+        <v>4</v>
+      </c>
+      <c r="K881" t="n">
+        <v>45</v>
+      </c>
+      <c r="L881" t="n">
+        <v>0</v>
+      </c>
+      <c r="M881" t="n">
+        <v>12</v>
+      </c>
+      <c r="N881" t="inlineStr"/>
+      <c r="O881" t="inlineStr"/>
+      <c r="P881" t="inlineStr"/>
+      <c r="Q881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>45733.23958333334</v>
+      </c>
+      <c r="B882" t="n">
+        <v>1518.5</v>
+      </c>
+      <c r="C882" t="n">
+        <v>1518.5</v>
+      </c>
+      <c r="D882" t="n">
+        <v>1505.099975585938</v>
+      </c>
+      <c r="E882" t="n">
+        <v>1505.099975585938</v>
+      </c>
+      <c r="F882" t="n">
+        <v>26</v>
+      </c>
+      <c r="G882" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H882" t="n">
+        <v>3</v>
+      </c>
+      <c r="I882" t="n">
+        <v>17</v>
+      </c>
+      <c r="J882" t="n">
+        <v>5</v>
+      </c>
+      <c r="K882" t="n">
+        <v>45</v>
+      </c>
+      <c r="L882" t="n">
+        <v>0</v>
+      </c>
+      <c r="M882" t="n">
+        <v>12</v>
+      </c>
+      <c r="N882" t="inlineStr"/>
+      <c r="O882" t="inlineStr"/>
+      <c r="P882" t="inlineStr"/>
+      <c r="Q882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45733.28125</v>
+      </c>
+      <c r="B883" t="n">
+        <v>1506.050048828125</v>
+      </c>
+      <c r="C883" t="n">
+        <v>1512.25</v>
+      </c>
+      <c r="D883" t="n">
+        <v>1506.050048828125</v>
+      </c>
+      <c r="E883" t="n">
+        <v>1511.900024414062</v>
+      </c>
+      <c r="F883" t="n">
+        <v>196</v>
+      </c>
+      <c r="G883" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H883" t="n">
+        <v>3</v>
+      </c>
+      <c r="I883" t="n">
+        <v>17</v>
+      </c>
+      <c r="J883" t="n">
+        <v>6</v>
+      </c>
+      <c r="K883" t="n">
+        <v>45</v>
+      </c>
+      <c r="L883" t="n">
+        <v>0</v>
+      </c>
+      <c r="M883" t="n">
+        <v>12</v>
+      </c>
+      <c r="N883" t="inlineStr"/>
+      <c r="O883" t="inlineStr"/>
+      <c r="P883" t="inlineStr"/>
+      <c r="Q883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45733.32291666666</v>
+      </c>
+      <c r="B884" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C884" t="n">
+        <v>1500.699951171875</v>
+      </c>
+      <c r="D884" t="n">
+        <v>1490.849975585938</v>
+      </c>
+      <c r="E884" t="n">
+        <v>1496.5</v>
+      </c>
+      <c r="F884" t="n">
+        <v>61</v>
+      </c>
+      <c r="G884" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H884" t="n">
+        <v>3</v>
+      </c>
+      <c r="I884" t="n">
+        <v>17</v>
+      </c>
+      <c r="J884" t="n">
+        <v>7</v>
+      </c>
+      <c r="K884" t="n">
+        <v>45</v>
+      </c>
+      <c r="L884" t="n">
+        <v>0</v>
+      </c>
+      <c r="M884" t="n">
+        <v>12</v>
+      </c>
+      <c r="N884" t="inlineStr"/>
+      <c r="O884" t="inlineStr"/>
+      <c r="P884" t="inlineStr"/>
+      <c r="Q884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45733.36458333334</v>
+      </c>
+      <c r="B885" t="n">
+        <v>1495</v>
+      </c>
+      <c r="C885" t="n">
+        <v>1495</v>
+      </c>
+      <c r="D885" t="n">
+        <v>1471.050048828125</v>
+      </c>
+      <c r="E885" t="n">
+        <v>1479</v>
+      </c>
+      <c r="F885" t="n">
+        <v>39</v>
+      </c>
+      <c r="G885" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H885" t="n">
+        <v>3</v>
+      </c>
+      <c r="I885" t="n">
+        <v>17</v>
+      </c>
+      <c r="J885" t="n">
+        <v>8</v>
+      </c>
+      <c r="K885" t="n">
+        <v>45</v>
+      </c>
+      <c r="L885" t="n">
+        <v>0</v>
+      </c>
+      <c r="M885" t="n">
+        <v>12</v>
+      </c>
+      <c r="N885" t="inlineStr"/>
+      <c r="O885" t="inlineStr"/>
+      <c r="P885" t="inlineStr"/>
+      <c r="Q885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45733.40625</v>
+      </c>
+      <c r="B886" t="n">
+        <v>1475.349975585938</v>
+      </c>
+      <c r="C886" t="n">
+        <v>1479</v>
+      </c>
+      <c r="D886" t="n">
+        <v>1466.150024414062</v>
+      </c>
+      <c r="E886" t="n">
+        <v>1474.550048828125</v>
+      </c>
+      <c r="F886" t="n">
+        <v>33</v>
+      </c>
+      <c r="G886" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H886" t="n">
+        <v>3</v>
+      </c>
+      <c r="I886" t="n">
+        <v>17</v>
+      </c>
+      <c r="J886" t="n">
+        <v>9</v>
+      </c>
+      <c r="K886" t="n">
+        <v>45</v>
+      </c>
+      <c r="L886" t="n">
+        <v>0</v>
+      </c>
+      <c r="M886" t="n">
+        <v>12</v>
+      </c>
+      <c r="N886" t="inlineStr"/>
+      <c r="O886" t="inlineStr"/>
+      <c r="P886" t="inlineStr"/>
+      <c r="Q886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45734.15625</v>
+      </c>
+      <c r="B887" t="n">
+        <v>1476.949951171875</v>
+      </c>
+      <c r="C887" t="n">
+        <v>1511.5</v>
+      </c>
+      <c r="D887" t="n">
+        <v>1452.099975585938</v>
+      </c>
+      <c r="E887" t="n">
+        <v>1511.5</v>
+      </c>
+      <c r="F887" t="n">
+        <v>204</v>
+      </c>
+      <c r="G887" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H887" t="n">
+        <v>3</v>
+      </c>
+      <c r="I887" t="n">
+        <v>18</v>
+      </c>
+      <c r="J887" t="n">
+        <v>3</v>
+      </c>
+      <c r="K887" t="n">
+        <v>45</v>
+      </c>
+      <c r="L887" t="n">
+        <v>0</v>
+      </c>
+      <c r="M887" t="n">
+        <v>12</v>
+      </c>
+      <c r="N887" t="inlineStr"/>
+      <c r="O887" t="inlineStr"/>
+      <c r="P887" t="inlineStr"/>
+      <c r="Q887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>45734.19791666666</v>
+      </c>
+      <c r="B888" t="n">
+        <v>1509.199951171875</v>
+      </c>
+      <c r="C888" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D888" t="n">
+        <v>1506</v>
+      </c>
+      <c r="E888" t="n">
+        <v>1509.400024414062</v>
+      </c>
+      <c r="F888" t="n">
+        <v>152</v>
+      </c>
+      <c r="G888" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H888" t="n">
+        <v>3</v>
+      </c>
+      <c r="I888" t="n">
+        <v>18</v>
+      </c>
+      <c r="J888" t="n">
+        <v>4</v>
+      </c>
+      <c r="K888" t="n">
+        <v>45</v>
+      </c>
+      <c r="L888" t="n">
+        <v>0</v>
+      </c>
+      <c r="M888" t="n">
+        <v>12</v>
+      </c>
+      <c r="N888" t="inlineStr"/>
+      <c r="O888" t="inlineStr"/>
+      <c r="P888" t="inlineStr"/>
+      <c r="Q888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>45734.23958333334</v>
+      </c>
+      <c r="B889" t="n">
+        <v>1510.75</v>
+      </c>
+      <c r="C889" t="n">
+        <v>1510.75</v>
+      </c>
+      <c r="D889" t="n">
+        <v>1497.650024414062</v>
+      </c>
+      <c r="E889" t="n">
+        <v>1503</v>
+      </c>
+      <c r="F889" t="n">
+        <v>290</v>
+      </c>
+      <c r="G889" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H889" t="n">
+        <v>3</v>
+      </c>
+      <c r="I889" t="n">
+        <v>18</v>
+      </c>
+      <c r="J889" t="n">
+        <v>5</v>
+      </c>
+      <c r="K889" t="n">
+        <v>45</v>
+      </c>
+      <c r="L889" t="n">
+        <v>0</v>
+      </c>
+      <c r="M889" t="n">
+        <v>12</v>
+      </c>
+      <c r="N889" t="inlineStr"/>
+      <c r="O889" t="inlineStr"/>
+      <c r="P889" t="inlineStr"/>
+      <c r="Q889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>45734.28125</v>
+      </c>
+      <c r="B890" t="n">
+        <v>1497.800048828125</v>
+      </c>
+      <c r="C890" t="n">
+        <v>1498</v>
+      </c>
+      <c r="D890" t="n">
+        <v>1494.050048828125</v>
+      </c>
+      <c r="E890" t="n">
+        <v>1498</v>
+      </c>
+      <c r="F890" t="n">
+        <v>210</v>
+      </c>
+      <c r="G890" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H890" t="n">
+        <v>3</v>
+      </c>
+      <c r="I890" t="n">
+        <v>18</v>
+      </c>
+      <c r="J890" t="n">
+        <v>6</v>
+      </c>
+      <c r="K890" t="n">
+        <v>45</v>
+      </c>
+      <c r="L890" t="n">
+        <v>0</v>
+      </c>
+      <c r="M890" t="n">
+        <v>12</v>
+      </c>
+      <c r="N890" t="inlineStr"/>
+      <c r="O890" t="inlineStr"/>
+      <c r="P890" t="inlineStr"/>
+      <c r="Q890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>45734.32291666666</v>
+      </c>
+      <c r="B891" t="n">
+        <v>1499.949951171875</v>
+      </c>
+      <c r="C891" t="n">
+        <v>1499.949951171875</v>
+      </c>
+      <c r="D891" t="n">
+        <v>1486.449951171875</v>
+      </c>
+      <c r="E891" t="n">
+        <v>1486.449951171875</v>
+      </c>
+      <c r="F891" t="n">
+        <v>162</v>
+      </c>
+      <c r="G891" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H891" t="n">
+        <v>3</v>
+      </c>
+      <c r="I891" t="n">
+        <v>18</v>
+      </c>
+      <c r="J891" t="n">
+        <v>7</v>
+      </c>
+      <c r="K891" t="n">
+        <v>45</v>
+      </c>
+      <c r="L891" t="n">
+        <v>0</v>
+      </c>
+      <c r="M891" t="n">
+        <v>12</v>
+      </c>
+      <c r="N891" t="inlineStr"/>
+      <c r="O891" t="inlineStr"/>
+      <c r="P891" t="inlineStr"/>
+      <c r="Q891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="n">
+        <v>45734.36458333334</v>
+      </c>
+      <c r="B892" t="n">
+        <v>1491</v>
+      </c>
+      <c r="C892" t="n">
+        <v>1492.150024414062</v>
+      </c>
+      <c r="D892" t="n">
+        <v>1491</v>
+      </c>
+      <c r="E892" t="n">
+        <v>1492.150024414062</v>
+      </c>
+      <c r="F892" t="n">
+        <v>216</v>
+      </c>
+      <c r="G892" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H892" t="n">
+        <v>3</v>
+      </c>
+      <c r="I892" t="n">
+        <v>18</v>
+      </c>
+      <c r="J892" t="n">
+        <v>8</v>
+      </c>
+      <c r="K892" t="n">
+        <v>45</v>
+      </c>
+      <c r="L892" t="n">
+        <v>0</v>
+      </c>
+      <c r="M892" t="n">
+        <v>12</v>
+      </c>
+      <c r="N892" t="inlineStr"/>
+      <c r="O892" t="inlineStr"/>
+      <c r="P892" t="inlineStr"/>
+      <c r="Q892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="2" t="n">
+        <v>45734.40625</v>
+      </c>
+      <c r="B893" t="n">
+        <v>1488.650024414062</v>
+      </c>
+      <c r="C893" t="n">
+        <v>1492.5</v>
+      </c>
+      <c r="D893" t="n">
+        <v>1488</v>
+      </c>
+      <c r="E893" t="n">
+        <v>1490.949951171875</v>
+      </c>
+      <c r="F893" t="n">
+        <v>65</v>
+      </c>
+      <c r="G893" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H893" t="n">
+        <v>3</v>
+      </c>
+      <c r="I893" t="n">
+        <v>18</v>
+      </c>
+      <c r="J893" t="n">
+        <v>9</v>
+      </c>
+      <c r="K893" t="n">
+        <v>45</v>
+      </c>
+      <c r="L893" t="n">
+        <v>0</v>
+      </c>
+      <c r="M893" t="n">
+        <v>12</v>
+      </c>
+      <c r="N893" t="inlineStr"/>
+      <c r="O893" t="inlineStr"/>
+      <c r="P893" t="inlineStr"/>
+      <c r="Q893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>45735.15625</v>
+      </c>
+      <c r="B894" t="n">
+        <v>1524.449951171875</v>
+      </c>
+      <c r="C894" t="n">
+        <v>1525</v>
+      </c>
+      <c r="D894" t="n">
+        <v>1515.400024414062</v>
+      </c>
+      <c r="E894" t="n">
+        <v>1520</v>
+      </c>
+      <c r="F894" t="n">
+        <v>56</v>
+      </c>
+      <c r="G894" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H894" t="n">
+        <v>3</v>
+      </c>
+      <c r="I894" t="n">
+        <v>19</v>
+      </c>
+      <c r="J894" t="n">
+        <v>3</v>
+      </c>
+      <c r="K894" t="n">
+        <v>45</v>
+      </c>
+      <c r="L894" t="n">
+        <v>0</v>
+      </c>
+      <c r="M894" t="n">
+        <v>12</v>
+      </c>
+      <c r="N894" t="inlineStr"/>
+      <c r="O894" t="inlineStr"/>
+      <c r="P894" t="inlineStr"/>
+      <c r="Q894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
+        <v>45735.19791666666</v>
+      </c>
+      <c r="B895" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C895" t="n">
+        <v>1547.550048828125</v>
+      </c>
+      <c r="D895" t="n">
+        <v>1510</v>
+      </c>
+      <c r="E895" t="n">
+        <v>1547.550048828125</v>
+      </c>
+      <c r="F895" t="n">
+        <v>254</v>
+      </c>
+      <c r="G895" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H895" t="n">
+        <v>3</v>
+      </c>
+      <c r="I895" t="n">
+        <v>19</v>
+      </c>
+      <c r="J895" t="n">
+        <v>4</v>
+      </c>
+      <c r="K895" t="n">
+        <v>45</v>
+      </c>
+      <c r="L895" t="n">
+        <v>0</v>
+      </c>
+      <c r="M895" t="n">
+        <v>12</v>
+      </c>
+      <c r="N895" t="inlineStr"/>
+      <c r="O895" t="inlineStr"/>
+      <c r="P895" t="inlineStr"/>
+      <c r="Q895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="2" t="n">
+        <v>45735.23958333334</v>
+      </c>
+      <c r="B896" t="n">
+        <v>1547.550048828125</v>
+      </c>
+      <c r="C896" t="n">
+        <v>1547.599975585938</v>
+      </c>
+      <c r="D896" t="n">
+        <v>1538</v>
+      </c>
+      <c r="E896" t="n">
+        <v>1542</v>
+      </c>
+      <c r="F896" t="n">
+        <v>186</v>
+      </c>
+      <c r="G896" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H896" t="n">
+        <v>3</v>
+      </c>
+      <c r="I896" t="n">
+        <v>19</v>
+      </c>
+      <c r="J896" t="n">
+        <v>5</v>
+      </c>
+      <c r="K896" t="n">
+        <v>45</v>
+      </c>
+      <c r="L896" t="n">
+        <v>0</v>
+      </c>
+      <c r="M896" t="n">
+        <v>12</v>
+      </c>
+      <c r="N896" t="inlineStr"/>
+      <c r="O896" t="inlineStr"/>
+      <c r="P896" t="inlineStr"/>
+      <c r="Q896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>45735.28125</v>
+      </c>
+      <c r="B897" t="n">
+        <v>1539.099975585938</v>
+      </c>
+      <c r="C897" t="n">
+        <v>1539.099975585938</v>
+      </c>
+      <c r="D897" t="n">
+        <v>1527.900024414062</v>
+      </c>
+      <c r="E897" t="n">
+        <v>1531.599975585938</v>
+      </c>
+      <c r="F897" t="n">
+        <v>8</v>
+      </c>
+      <c r="G897" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H897" t="n">
+        <v>3</v>
+      </c>
+      <c r="I897" t="n">
+        <v>19</v>
+      </c>
+      <c r="J897" t="n">
+        <v>6</v>
+      </c>
+      <c r="K897" t="n">
+        <v>45</v>
+      </c>
+      <c r="L897" t="n">
+        <v>0</v>
+      </c>
+      <c r="M897" t="n">
+        <v>12</v>
+      </c>
+      <c r="N897" t="inlineStr"/>
+      <c r="O897" t="inlineStr"/>
+      <c r="P897" t="inlineStr"/>
+      <c r="Q897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>45735.32291666666</v>
+      </c>
+      <c r="B898" t="n">
+        <v>1526</v>
+      </c>
+      <c r="C898" t="n">
+        <v>1534.75</v>
+      </c>
+      <c r="D898" t="n">
+        <v>1526</v>
+      </c>
+      <c r="E898" t="n">
+        <v>1531</v>
+      </c>
+      <c r="F898" t="n">
+        <v>74</v>
+      </c>
+      <c r="G898" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H898" t="n">
+        <v>3</v>
+      </c>
+      <c r="I898" t="n">
+        <v>19</v>
+      </c>
+      <c r="J898" t="n">
+        <v>7</v>
+      </c>
+      <c r="K898" t="n">
+        <v>45</v>
+      </c>
+      <c r="L898" t="n">
+        <v>0</v>
+      </c>
+      <c r="M898" t="n">
+        <v>12</v>
+      </c>
+      <c r="N898" t="inlineStr"/>
+      <c r="O898" t="inlineStr"/>
+      <c r="P898" t="inlineStr"/>
+      <c r="Q898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>45735.36458333334</v>
+      </c>
+      <c r="B899" t="n">
+        <v>1531</v>
+      </c>
+      <c r="C899" t="n">
+        <v>1531</v>
+      </c>
+      <c r="D899" t="n">
+        <v>1523.75</v>
+      </c>
+      <c r="E899" t="n">
+        <v>1523.75</v>
+      </c>
+      <c r="F899" t="n">
+        <v>69</v>
+      </c>
+      <c r="G899" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H899" t="n">
+        <v>3</v>
+      </c>
+      <c r="I899" t="n">
+        <v>19</v>
+      </c>
+      <c r="J899" t="n">
+        <v>8</v>
+      </c>
+      <c r="K899" t="n">
+        <v>45</v>
+      </c>
+      <c r="L899" t="n">
+        <v>0</v>
+      </c>
+      <c r="M899" t="n">
+        <v>12</v>
+      </c>
+      <c r="N899" t="inlineStr"/>
+      <c r="O899" t="inlineStr"/>
+      <c r="P899" t="inlineStr"/>
+      <c r="Q899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>45735.40625</v>
+      </c>
+      <c r="B900" t="n">
+        <v>1531.25</v>
+      </c>
+      <c r="C900" t="n">
+        <v>1535</v>
+      </c>
+      <c r="D900" t="n">
+        <v>1515</v>
+      </c>
+      <c r="E900" t="n">
+        <v>1524.550048828125</v>
+      </c>
+      <c r="F900" t="n">
+        <v>162</v>
+      </c>
+      <c r="G900" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H900" t="n">
+        <v>3</v>
+      </c>
+      <c r="I900" t="n">
+        <v>19</v>
+      </c>
+      <c r="J900" t="n">
+        <v>9</v>
+      </c>
+      <c r="K900" t="n">
+        <v>45</v>
+      </c>
+      <c r="L900" t="n">
+        <v>0</v>
+      </c>
+      <c r="M900" t="n">
+        <v>12</v>
+      </c>
+      <c r="N900" t="inlineStr"/>
+      <c r="O900" t="inlineStr"/>
+      <c r="P900" t="inlineStr"/>
+      <c r="Q900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>45736.15625</v>
+      </c>
+      <c r="B901" t="n">
+        <v>1555.050048828125</v>
+      </c>
+      <c r="C901" t="n">
+        <v>1587.5</v>
+      </c>
+      <c r="D901" t="n">
+        <v>1545.949951171875</v>
+      </c>
+      <c r="E901" t="n">
+        <v>1554.5</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0</v>
+      </c>
+      <c r="G901" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H901" t="n">
+        <v>3</v>
+      </c>
+      <c r="I901" t="n">
+        <v>20</v>
+      </c>
+      <c r="J901" t="n">
+        <v>3</v>
+      </c>
+      <c r="K901" t="n">
+        <v>45</v>
+      </c>
+      <c r="L901" t="n">
+        <v>0</v>
+      </c>
+      <c r="M901" t="n">
+        <v>12</v>
+      </c>
+      <c r="N901" t="inlineStr"/>
+      <c r="O901" t="inlineStr"/>
+      <c r="P901" t="inlineStr"/>
+      <c r="Q901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>45736.19791666666</v>
+      </c>
+      <c r="B902" t="n">
+        <v>1544.050048828125</v>
+      </c>
+      <c r="C902" t="n">
+        <v>1551.5</v>
+      </c>
+      <c r="D902" t="n">
+        <v>1544.050048828125</v>
+      </c>
+      <c r="E902" t="n">
+        <v>1551.5</v>
+      </c>
+      <c r="F902" t="n">
+        <v>8</v>
+      </c>
+      <c r="G902" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H902" t="n">
+        <v>3</v>
+      </c>
+      <c r="I902" t="n">
+        <v>20</v>
+      </c>
+      <c r="J902" t="n">
+        <v>4</v>
+      </c>
+      <c r="K902" t="n">
+        <v>45</v>
+      </c>
+      <c r="L902" t="n">
+        <v>0</v>
+      </c>
+      <c r="M902" t="n">
+        <v>12</v>
+      </c>
+      <c r="N902" t="inlineStr"/>
+      <c r="O902" t="inlineStr"/>
+      <c r="P902" t="inlineStr"/>
+      <c r="Q902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
+        <v>45736.23958333334</v>
+      </c>
+      <c r="B903" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C903" t="n">
+        <v>1590</v>
+      </c>
+      <c r="D903" t="n">
+        <v>1540</v>
+      </c>
+      <c r="E903" t="n">
+        <v>1590</v>
+      </c>
+      <c r="F903" t="n">
+        <v>229</v>
+      </c>
+      <c r="G903" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H903" t="n">
+        <v>3</v>
+      </c>
+      <c r="I903" t="n">
+        <v>20</v>
+      </c>
+      <c r="J903" t="n">
+        <v>5</v>
+      </c>
+      <c r="K903" t="n">
+        <v>45</v>
+      </c>
+      <c r="L903" t="n">
+        <v>0</v>
+      </c>
+      <c r="M903" t="n">
+        <v>12</v>
+      </c>
+      <c r="N903" t="inlineStr"/>
+      <c r="O903" t="inlineStr"/>
+      <c r="P903" t="inlineStr"/>
+      <c r="Q903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>45736.28125</v>
+      </c>
+      <c r="B904" t="n">
+        <v>1593</v>
+      </c>
+      <c r="C904" t="n">
+        <v>1614.650024414062</v>
+      </c>
+      <c r="D904" t="n">
+        <v>1585.800048828125</v>
+      </c>
+      <c r="E904" t="n">
+        <v>1585.800048828125</v>
+      </c>
+      <c r="F904" t="n">
+        <v>714</v>
+      </c>
+      <c r="G904" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H904" t="n">
+        <v>3</v>
+      </c>
+      <c r="I904" t="n">
+        <v>20</v>
+      </c>
+      <c r="J904" t="n">
+        <v>6</v>
+      </c>
+      <c r="K904" t="n">
+        <v>45</v>
+      </c>
+      <c r="L904" t="n">
+        <v>0</v>
+      </c>
+      <c r="M904" t="n">
+        <v>12</v>
+      </c>
+      <c r="N904" t="inlineStr"/>
+      <c r="O904" t="inlineStr"/>
+      <c r="P904" t="inlineStr"/>
+      <c r="Q904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>45736.32291666666</v>
+      </c>
+      <c r="B905" t="n">
+        <v>1587.550048828125</v>
+      </c>
+      <c r="C905" t="n">
+        <v>1607.849975585938</v>
+      </c>
+      <c r="D905" t="n">
+        <v>1580.050048828125</v>
+      </c>
+      <c r="E905" t="n">
+        <v>1580.050048828125</v>
+      </c>
+      <c r="F905" t="n">
+        <v>1436</v>
+      </c>
+      <c r="G905" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H905" t="n">
+        <v>3</v>
+      </c>
+      <c r="I905" t="n">
+        <v>20</v>
+      </c>
+      <c r="J905" t="n">
+        <v>7</v>
+      </c>
+      <c r="K905" t="n">
+        <v>45</v>
+      </c>
+      <c r="L905" t="n">
+        <v>0</v>
+      </c>
+      <c r="M905" t="n">
+        <v>12</v>
+      </c>
+      <c r="N905" t="inlineStr"/>
+      <c r="O905" t="inlineStr"/>
+      <c r="P905" t="inlineStr"/>
+      <c r="Q905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>45736.36458333334</v>
+      </c>
+      <c r="B906" t="n">
+        <v>1580.400024414062</v>
+      </c>
+      <c r="C906" t="n">
+        <v>1597.300048828125</v>
+      </c>
+      <c r="D906" t="n">
+        <v>1578.400024414062</v>
+      </c>
+      <c r="E906" t="n">
+        <v>1597.300048828125</v>
+      </c>
+      <c r="F906" t="n">
+        <v>57</v>
+      </c>
+      <c r="G906" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H906" t="n">
+        <v>3</v>
+      </c>
+      <c r="I906" t="n">
+        <v>20</v>
+      </c>
+      <c r="J906" t="n">
+        <v>8</v>
+      </c>
+      <c r="K906" t="n">
+        <v>45</v>
+      </c>
+      <c r="L906" t="n">
+        <v>0</v>
+      </c>
+      <c r="M906" t="n">
+        <v>12</v>
+      </c>
+      <c r="N906" t="inlineStr"/>
+      <c r="O906" t="inlineStr"/>
+      <c r="P906" t="inlineStr"/>
+      <c r="Q906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>45736.40625</v>
+      </c>
+      <c r="B907" t="n">
+        <v>1581.650024414062</v>
+      </c>
+      <c r="C907" t="n">
+        <v>1581.650024414062</v>
+      </c>
+      <c r="D907" t="n">
+        <v>1551.099975585938</v>
+      </c>
+      <c r="E907" t="n">
+        <v>1574.400024414062</v>
+      </c>
+      <c r="F907" t="n">
+        <v>315</v>
+      </c>
+      <c r="G907" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H907" t="n">
+        <v>3</v>
+      </c>
+      <c r="I907" t="n">
+        <v>20</v>
+      </c>
+      <c r="J907" t="n">
+        <v>9</v>
+      </c>
+      <c r="K907" t="n">
+        <v>45</v>
+      </c>
+      <c r="L907" t="n">
+        <v>0</v>
+      </c>
+      <c r="M907" t="n">
+        <v>12</v>
+      </c>
+      <c r="N907" t="inlineStr"/>
+      <c r="O907" t="inlineStr"/>
+      <c r="P907" t="inlineStr"/>
+      <c r="Q907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>45737.15625</v>
+      </c>
+      <c r="B908" t="n">
+        <v>1580.75</v>
+      </c>
+      <c r="C908" t="n">
+        <v>1598.650024414062</v>
+      </c>
+      <c r="D908" t="n">
+        <v>1576.099975585938</v>
+      </c>
+      <c r="E908" t="n">
+        <v>1593.150024414062</v>
+      </c>
+      <c r="F908" t="n">
+        <v>63</v>
+      </c>
+      <c r="G908" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H908" t="n">
+        <v>3</v>
+      </c>
+      <c r="I908" t="n">
+        <v>21</v>
+      </c>
+      <c r="J908" t="n">
+        <v>3</v>
+      </c>
+      <c r="K908" t="n">
+        <v>45</v>
+      </c>
+      <c r="L908" t="n">
+        <v>0</v>
+      </c>
+      <c r="M908" t="n">
+        <v>12</v>
+      </c>
+      <c r="N908" t="inlineStr"/>
+      <c r="O908" t="inlineStr"/>
+      <c r="P908" t="inlineStr"/>
+      <c r="Q908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>45737.19791666666</v>
+      </c>
+      <c r="B909" t="n">
+        <v>1592.5</v>
+      </c>
+      <c r="C909" t="n">
+        <v>1593.050048828125</v>
+      </c>
+      <c r="D909" t="n">
+        <v>1575</v>
+      </c>
+      <c r="E909" t="n">
+        <v>1575</v>
+      </c>
+      <c r="F909" t="n">
+        <v>147</v>
+      </c>
+      <c r="G909" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H909" t="n">
+        <v>3</v>
+      </c>
+      <c r="I909" t="n">
+        <v>21</v>
+      </c>
+      <c r="J909" t="n">
+        <v>4</v>
+      </c>
+      <c r="K909" t="n">
+        <v>45</v>
+      </c>
+      <c r="L909" t="n">
+        <v>0</v>
+      </c>
+      <c r="M909" t="n">
+        <v>12</v>
+      </c>
+      <c r="N909" t="inlineStr"/>
+      <c r="O909" t="inlineStr"/>
+      <c r="P909" t="inlineStr"/>
+      <c r="Q909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>45737.23958333334</v>
+      </c>
+      <c r="B910" t="n">
+        <v>1575</v>
+      </c>
+      <c r="C910" t="n">
+        <v>1575</v>
+      </c>
+      <c r="D910" t="n">
+        <v>1567.099975585938</v>
+      </c>
+      <c r="E910" t="n">
+        <v>1567.099975585938</v>
+      </c>
+      <c r="F910" t="n">
+        <v>6</v>
+      </c>
+      <c r="G910" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H910" t="n">
+        <v>3</v>
+      </c>
+      <c r="I910" t="n">
+        <v>21</v>
+      </c>
+      <c r="J910" t="n">
+        <v>5</v>
+      </c>
+      <c r="K910" t="n">
+        <v>45</v>
+      </c>
+      <c r="L910" t="n">
+        <v>0</v>
+      </c>
+      <c r="M910" t="n">
+        <v>12</v>
+      </c>
+      <c r="N910" t="inlineStr"/>
+      <c r="O910" t="inlineStr"/>
+      <c r="P910" t="inlineStr"/>
+      <c r="Q910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>45737.28125</v>
+      </c>
+      <c r="B911" t="n">
+        <v>1570.599975585938</v>
+      </c>
+      <c r="C911" t="n">
+        <v>1571.849975585938</v>
+      </c>
+      <c r="D911" t="n">
+        <v>1563.800048828125</v>
+      </c>
+      <c r="E911" t="n">
+        <v>1571.849975585938</v>
+      </c>
+      <c r="F911" t="n">
+        <v>35</v>
+      </c>
+      <c r="G911" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H911" t="n">
+        <v>3</v>
+      </c>
+      <c r="I911" t="n">
+        <v>21</v>
+      </c>
+      <c r="J911" t="n">
+        <v>6</v>
+      </c>
+      <c r="K911" t="n">
+        <v>45</v>
+      </c>
+      <c r="L911" t="n">
+        <v>0</v>
+      </c>
+      <c r="M911" t="n">
+        <v>12</v>
+      </c>
+      <c r="N911" t="inlineStr"/>
+      <c r="O911" t="inlineStr"/>
+      <c r="P911" t="inlineStr"/>
+      <c r="Q911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45737.32291666666</v>
+      </c>
+      <c r="B912" t="n">
+        <v>1553.949951171875</v>
+      </c>
+      <c r="C912" t="n">
+        <v>1557.599975585938</v>
+      </c>
+      <c r="D912" t="n">
+        <v>1551</v>
+      </c>
+      <c r="E912" t="n">
+        <v>1551</v>
+      </c>
+      <c r="F912" t="n">
+        <v>26</v>
+      </c>
+      <c r="G912" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H912" t="n">
+        <v>3</v>
+      </c>
+      <c r="I912" t="n">
+        <v>21</v>
+      </c>
+      <c r="J912" t="n">
+        <v>7</v>
+      </c>
+      <c r="K912" t="n">
+        <v>45</v>
+      </c>
+      <c r="L912" t="n">
+        <v>0</v>
+      </c>
+      <c r="M912" t="n">
+        <v>12</v>
+      </c>
+      <c r="N912" t="inlineStr"/>
+      <c r="O912" t="inlineStr"/>
+      <c r="P912" t="inlineStr"/>
+      <c r="Q912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45737.36458333334</v>
+      </c>
+      <c r="B913" t="n">
+        <v>1551.949951171875</v>
+      </c>
+      <c r="C913" t="n">
+        <v>1569.949951171875</v>
+      </c>
+      <c r="D913" t="n">
+        <v>1551.599975585938</v>
+      </c>
+      <c r="E913" t="n">
+        <v>1561</v>
+      </c>
+      <c r="F913" t="n">
+        <v>79</v>
+      </c>
+      <c r="G913" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H913" t="n">
+        <v>3</v>
+      </c>
+      <c r="I913" t="n">
+        <v>21</v>
+      </c>
+      <c r="J913" t="n">
+        <v>8</v>
+      </c>
+      <c r="K913" t="n">
+        <v>45</v>
+      </c>
+      <c r="L913" t="n">
+        <v>0</v>
+      </c>
+      <c r="M913" t="n">
+        <v>12</v>
+      </c>
+      <c r="N913" t="inlineStr"/>
+      <c r="O913" t="inlineStr"/>
+      <c r="P913" t="inlineStr"/>
+      <c r="Q913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45737.40625</v>
+      </c>
+      <c r="B914" t="n">
+        <v>1565.550048828125</v>
+      </c>
+      <c r="C914" t="n">
+        <v>1566.099975585938</v>
+      </c>
+      <c r="D914" t="n">
+        <v>1553.300048828125</v>
+      </c>
+      <c r="E914" t="n">
+        <v>1556.5</v>
+      </c>
+      <c r="F914" t="n">
+        <v>685</v>
+      </c>
+      <c r="G914" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H914" t="n">
+        <v>3</v>
+      </c>
+      <c r="I914" t="n">
+        <v>21</v>
+      </c>
+      <c r="J914" t="n">
+        <v>9</v>
+      </c>
+      <c r="K914" t="n">
+        <v>45</v>
+      </c>
+      <c r="L914" t="n">
+        <v>0</v>
+      </c>
+      <c r="M914" t="n">
+        <v>12</v>
+      </c>
+      <c r="N914" t="inlineStr"/>
+      <c r="O914" t="inlineStr"/>
+      <c r="P914" t="inlineStr"/>
+      <c r="Q914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45740.15625</v>
+      </c>
+      <c r="B915" t="n">
+        <v>1592.650024414062</v>
+      </c>
+      <c r="C915" t="n">
+        <v>1603.949951171875</v>
+      </c>
+      <c r="D915" t="n">
+        <v>1588.650024414062</v>
+      </c>
+      <c r="E915" t="n">
+        <v>1588.650024414062</v>
+      </c>
+      <c r="F915" t="n">
+        <v>62</v>
+      </c>
+      <c r="G915" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H915" t="n">
+        <v>3</v>
+      </c>
+      <c r="I915" t="n">
+        <v>24</v>
+      </c>
+      <c r="J915" t="n">
+        <v>3</v>
+      </c>
+      <c r="K915" t="n">
+        <v>45</v>
+      </c>
+      <c r="L915" t="n">
+        <v>0</v>
+      </c>
+      <c r="M915" t="n">
+        <v>13</v>
+      </c>
+      <c r="N915" t="inlineStr"/>
+      <c r="O915" t="inlineStr"/>
+      <c r="P915" t="inlineStr"/>
+      <c r="Q915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45740.19791666666</v>
+      </c>
+      <c r="B916" t="n">
+        <v>1580.199951171875</v>
+      </c>
+      <c r="C916" t="n">
+        <v>1580.199951171875</v>
+      </c>
+      <c r="D916" t="n">
+        <v>1580.199951171875</v>
+      </c>
+      <c r="E916" t="n">
+        <v>1580.199951171875</v>
+      </c>
+      <c r="F916" t="n">
+        <v>12</v>
+      </c>
+      <c r="G916" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H916" t="n">
+        <v>3</v>
+      </c>
+      <c r="I916" t="n">
+        <v>24</v>
+      </c>
+      <c r="J916" t="n">
+        <v>4</v>
+      </c>
+      <c r="K916" t="n">
+        <v>45</v>
+      </c>
+      <c r="L916" t="n">
+        <v>0</v>
+      </c>
+      <c r="M916" t="n">
+        <v>13</v>
+      </c>
+      <c r="N916" t="inlineStr"/>
+      <c r="O916" t="inlineStr"/>
+      <c r="P916" t="inlineStr"/>
+      <c r="Q916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45740.23958333334</v>
+      </c>
+      <c r="B917" t="n">
+        <v>1589.25</v>
+      </c>
+      <c r="C917" t="n">
+        <v>1663.849975585938</v>
+      </c>
+      <c r="D917" t="n">
+        <v>1589.25</v>
+      </c>
+      <c r="E917" t="n">
+        <v>1663.849975585938</v>
+      </c>
+      <c r="F917" t="n">
+        <v>99</v>
+      </c>
+      <c r="G917" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H917" t="n">
+        <v>3</v>
+      </c>
+      <c r="I917" t="n">
+        <v>24</v>
+      </c>
+      <c r="J917" t="n">
+        <v>5</v>
+      </c>
+      <c r="K917" t="n">
+        <v>45</v>
+      </c>
+      <c r="L917" t="n">
+        <v>0</v>
+      </c>
+      <c r="M917" t="n">
+        <v>13</v>
+      </c>
+      <c r="N917" t="inlineStr"/>
+      <c r="O917" t="inlineStr"/>
+      <c r="P917" t="inlineStr"/>
+      <c r="Q917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>45740.28125</v>
+      </c>
+      <c r="B918" t="n">
+        <v>1646.900024414062</v>
+      </c>
+      <c r="C918" t="n">
+        <v>1719.699951171875</v>
+      </c>
+      <c r="D918" t="n">
+        <v>1646.900024414062</v>
+      </c>
+      <c r="E918" t="n">
+        <v>1659.5</v>
+      </c>
+      <c r="F918" t="n">
+        <v>251</v>
+      </c>
+      <c r="G918" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H918" t="n">
+        <v>3</v>
+      </c>
+      <c r="I918" t="n">
+        <v>24</v>
+      </c>
+      <c r="J918" t="n">
+        <v>6</v>
+      </c>
+      <c r="K918" t="n">
+        <v>45</v>
+      </c>
+      <c r="L918" t="n">
+        <v>0</v>
+      </c>
+      <c r="M918" t="n">
+        <v>13</v>
+      </c>
+      <c r="N918" t="inlineStr"/>
+      <c r="O918" t="inlineStr"/>
+      <c r="P918" t="inlineStr"/>
+      <c r="Q918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>45740.32291666666</v>
+      </c>
+      <c r="B919" t="n">
+        <v>1658.800048828125</v>
+      </c>
+      <c r="C919" t="n">
+        <v>1658.800048828125</v>
+      </c>
+      <c r="D919" t="n">
+        <v>1614.599975585938</v>
+      </c>
+      <c r="E919" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F919" t="n">
+        <v>523</v>
+      </c>
+      <c r="G919" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H919" t="n">
+        <v>3</v>
+      </c>
+      <c r="I919" t="n">
+        <v>24</v>
+      </c>
+      <c r="J919" t="n">
+        <v>7</v>
+      </c>
+      <c r="K919" t="n">
+        <v>45</v>
+      </c>
+      <c r="L919" t="n">
+        <v>0</v>
+      </c>
+      <c r="M919" t="n">
+        <v>13</v>
+      </c>
+      <c r="N919" t="inlineStr"/>
+      <c r="O919" t="inlineStr"/>
+      <c r="P919" t="inlineStr"/>
+      <c r="Q919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>45740.36458333334</v>
+      </c>
+      <c r="B920" t="n">
+        <v>1616.199951171875</v>
+      </c>
+      <c r="C920" t="n">
+        <v>1625</v>
+      </c>
+      <c r="D920" t="n">
+        <v>1610</v>
+      </c>
+      <c r="E920" t="n">
+        <v>1623.099975585938</v>
+      </c>
+      <c r="F920" t="n">
+        <v>504</v>
+      </c>
+      <c r="G920" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H920" t="n">
+        <v>3</v>
+      </c>
+      <c r="I920" t="n">
+        <v>24</v>
+      </c>
+      <c r="J920" t="n">
+        <v>8</v>
+      </c>
+      <c r="K920" t="n">
+        <v>45</v>
+      </c>
+      <c r="L920" t="n">
+        <v>0</v>
+      </c>
+      <c r="M920" t="n">
+        <v>13</v>
+      </c>
+      <c r="N920" t="inlineStr"/>
+      <c r="O920" t="inlineStr"/>
+      <c r="P920" t="inlineStr"/>
+      <c r="Q920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>45740.40625</v>
+      </c>
+      <c r="B921" t="n">
+        <v>1618.550048828125</v>
+      </c>
+      <c r="C921" t="n">
+        <v>1635</v>
+      </c>
+      <c r="D921" t="n">
+        <v>1611.199951171875</v>
+      </c>
+      <c r="E921" t="n">
+        <v>1618.449951171875</v>
+      </c>
+      <c r="F921" t="n">
+        <v>66</v>
+      </c>
+      <c r="G921" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H921" t="n">
+        <v>3</v>
+      </c>
+      <c r="I921" t="n">
+        <v>24</v>
+      </c>
+      <c r="J921" t="n">
+        <v>9</v>
+      </c>
+      <c r="K921" t="n">
+        <v>45</v>
+      </c>
+      <c r="L921" t="n">
+        <v>0</v>
+      </c>
+      <c r="M921" t="n">
+        <v>13</v>
+      </c>
+      <c r="N921" t="inlineStr"/>
+      <c r="O921" t="inlineStr"/>
+      <c r="P921" t="inlineStr"/>
+      <c r="Q921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>45741.15625</v>
+      </c>
+      <c r="B922" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C922" t="n">
+        <v>1637.75</v>
+      </c>
+      <c r="D922" t="n">
+        <v>1564</v>
+      </c>
+      <c r="E922" t="n">
+        <v>1588.900024414062</v>
+      </c>
+      <c r="F922" t="n">
+        <v>290</v>
+      </c>
+      <c r="G922" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H922" t="n">
+        <v>3</v>
+      </c>
+      <c r="I922" t="n">
+        <v>25</v>
+      </c>
+      <c r="J922" t="n">
+        <v>3</v>
+      </c>
+      <c r="K922" t="n">
+        <v>45</v>
+      </c>
+      <c r="L922" t="n">
+        <v>0</v>
+      </c>
+      <c r="M922" t="n">
+        <v>13</v>
+      </c>
+      <c r="N922" t="inlineStr"/>
+      <c r="O922" t="inlineStr"/>
+      <c r="P922" t="inlineStr"/>
+      <c r="Q922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="2" t="n">
+        <v>45741.19791666666</v>
+      </c>
+      <c r="B923" t="n">
+        <v>1588.900024414062</v>
+      </c>
+      <c r="C923" t="n">
+        <v>1588.900024414062</v>
+      </c>
+      <c r="D923" t="n">
+        <v>1568</v>
+      </c>
+      <c r="E923" t="n">
+        <v>1579.150024414062</v>
+      </c>
+      <c r="F923" t="n">
+        <v>119</v>
+      </c>
+      <c r="G923" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H923" t="n">
+        <v>3</v>
+      </c>
+      <c r="I923" t="n">
+        <v>25</v>
+      </c>
+      <c r="J923" t="n">
+        <v>4</v>
+      </c>
+      <c r="K923" t="n">
+        <v>45</v>
+      </c>
+      <c r="L923" t="n">
+        <v>0</v>
+      </c>
+      <c r="M923" t="n">
+        <v>13</v>
+      </c>
+      <c r="N923" t="inlineStr"/>
+      <c r="O923" t="inlineStr"/>
+      <c r="P923" t="inlineStr"/>
+      <c r="Q923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="2" t="n">
+        <v>45741.23958333334</v>
+      </c>
+      <c r="B924" t="n">
+        <v>1570.25</v>
+      </c>
+      <c r="C924" t="n">
+        <v>1570.25</v>
+      </c>
+      <c r="D924" t="n">
+        <v>1560.099975585938</v>
+      </c>
+      <c r="E924" t="n">
+        <v>1568.849975585938</v>
+      </c>
+      <c r="F924" t="n">
+        <v>575</v>
+      </c>
+      <c r="G924" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H924" t="n">
+        <v>3</v>
+      </c>
+      <c r="I924" t="n">
+        <v>25</v>
+      </c>
+      <c r="J924" t="n">
+        <v>5</v>
+      </c>
+      <c r="K924" t="n">
+        <v>45</v>
+      </c>
+      <c r="L924" t="n">
+        <v>0</v>
+      </c>
+      <c r="M924" t="n">
+        <v>13</v>
+      </c>
+      <c r="N924" t="inlineStr"/>
+      <c r="O924" t="inlineStr"/>
+      <c r="P924" t="inlineStr"/>
+      <c r="Q924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>45741.28125</v>
+      </c>
+      <c r="B925" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="C925" t="n">
+        <v>1574.949951171875</v>
+      </c>
+      <c r="D925" t="n">
+        <v>1558</v>
+      </c>
+      <c r="E925" t="n">
+        <v>1558</v>
+      </c>
+      <c r="F925" t="n">
+        <v>220</v>
+      </c>
+      <c r="G925" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H925" t="n">
+        <v>3</v>
+      </c>
+      <c r="I925" t="n">
+        <v>25</v>
+      </c>
+      <c r="J925" t="n">
+        <v>6</v>
+      </c>
+      <c r="K925" t="n">
+        <v>45</v>
+      </c>
+      <c r="L925" t="n">
+        <v>0</v>
+      </c>
+      <c r="M925" t="n">
+        <v>13</v>
+      </c>
+      <c r="N925" t="inlineStr"/>
+      <c r="O925" t="inlineStr"/>
+      <c r="P925" t="inlineStr"/>
+      <c r="Q925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>45741.32291666666</v>
+      </c>
+      <c r="B926" t="n">
+        <v>1562.550048828125</v>
+      </c>
+      <c r="C926" t="n">
+        <v>1562.550048828125</v>
+      </c>
+      <c r="D926" t="n">
+        <v>1557.099975585938</v>
+      </c>
+      <c r="E926" t="n">
+        <v>1557.099975585938</v>
+      </c>
+      <c r="F926" t="n">
+        <v>21</v>
+      </c>
+      <c r="G926" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H926" t="n">
+        <v>3</v>
+      </c>
+      <c r="I926" t="n">
+        <v>25</v>
+      </c>
+      <c r="J926" t="n">
+        <v>7</v>
+      </c>
+      <c r="K926" t="n">
+        <v>45</v>
+      </c>
+      <c r="L926" t="n">
+        <v>0</v>
+      </c>
+      <c r="M926" t="n">
+        <v>13</v>
+      </c>
+      <c r="N926" t="inlineStr"/>
+      <c r="O926" t="inlineStr"/>
+      <c r="P926" t="inlineStr"/>
+      <c r="Q926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>45741.36458333334</v>
+      </c>
+      <c r="B927" t="n">
+        <v>1566.849975585938</v>
+      </c>
+      <c r="C927" t="n">
+        <v>1571.25</v>
+      </c>
+      <c r="D927" t="n">
+        <v>1558</v>
+      </c>
+      <c r="E927" t="n">
+        <v>1571.25</v>
+      </c>
+      <c r="F927" t="n">
+        <v>47</v>
+      </c>
+      <c r="G927" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H927" t="n">
+        <v>3</v>
+      </c>
+      <c r="I927" t="n">
+        <v>25</v>
+      </c>
+      <c r="J927" t="n">
+        <v>8</v>
+      </c>
+      <c r="K927" t="n">
+        <v>45</v>
+      </c>
+      <c r="L927" t="n">
+        <v>0</v>
+      </c>
+      <c r="M927" t="n">
+        <v>13</v>
+      </c>
+      <c r="N927" t="inlineStr"/>
+      <c r="O927" t="inlineStr"/>
+      <c r="P927" t="inlineStr"/>
+      <c r="Q927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>45741.40625</v>
+      </c>
+      <c r="B928" t="n">
+        <v>1564.849975585938</v>
+      </c>
+      <c r="C928" t="n">
+        <v>1571.699951171875</v>
+      </c>
+      <c r="D928" t="n">
+        <v>1551</v>
+      </c>
+      <c r="E928" t="n">
+        <v>1564.25</v>
+      </c>
+      <c r="F928" t="n">
+        <v>130</v>
+      </c>
+      <c r="G928" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H928" t="n">
+        <v>3</v>
+      </c>
+      <c r="I928" t="n">
+        <v>25</v>
+      </c>
+      <c r="J928" t="n">
+        <v>9</v>
+      </c>
+      <c r="K928" t="n">
+        <v>45</v>
+      </c>
+      <c r="L928" t="n">
+        <v>0</v>
+      </c>
+      <c r="M928" t="n">
+        <v>13</v>
+      </c>
+      <c r="N928" t="inlineStr"/>
+      <c r="O928" t="inlineStr"/>
+      <c r="P928" t="inlineStr"/>
+      <c r="Q928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>45742.15625</v>
+      </c>
+      <c r="B929" t="n">
+        <v>1549.349975585938</v>
+      </c>
+      <c r="C929" t="n">
+        <v>1570</v>
+      </c>
+      <c r="D929" t="n">
+        <v>1544.050048828125</v>
+      </c>
+      <c r="E929" t="n">
+        <v>1563.349975585938</v>
+      </c>
+      <c r="F929" t="n">
+        <v>981</v>
+      </c>
+      <c r="G929" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H929" t="n">
+        <v>3</v>
+      </c>
+      <c r="I929" t="n">
+        <v>26</v>
+      </c>
+      <c r="J929" t="n">
+        <v>3</v>
+      </c>
+      <c r="K929" t="n">
+        <v>45</v>
+      </c>
+      <c r="L929" t="n">
+        <v>0</v>
+      </c>
+      <c r="M929" t="n">
+        <v>13</v>
+      </c>
+      <c r="N929" t="inlineStr"/>
+      <c r="O929" t="inlineStr"/>
+      <c r="P929" t="inlineStr"/>
+      <c r="Q929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>45742.19791666666</v>
+      </c>
+      <c r="B930" t="n">
+        <v>1551.050048828125</v>
+      </c>
+      <c r="C930" t="n">
+        <v>1565.25</v>
+      </c>
+      <c r="D930" t="n">
+        <v>1536.050048828125</v>
+      </c>
+      <c r="E930" t="n">
+        <v>1559.849975585938</v>
+      </c>
+      <c r="F930" t="n">
+        <v>365</v>
+      </c>
+      <c r="G930" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H930" t="n">
+        <v>3</v>
+      </c>
+      <c r="I930" t="n">
+        <v>26</v>
+      </c>
+      <c r="J930" t="n">
+        <v>4</v>
+      </c>
+      <c r="K930" t="n">
+        <v>45</v>
+      </c>
+      <c r="L930" t="n">
+        <v>0</v>
+      </c>
+      <c r="M930" t="n">
+        <v>13</v>
+      </c>
+      <c r="N930" t="inlineStr"/>
+      <c r="O930" t="inlineStr"/>
+      <c r="P930" t="inlineStr"/>
+      <c r="Q930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>45742.23958333334</v>
+      </c>
+      <c r="B931" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C931" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D931" t="n">
+        <v>1540</v>
+      </c>
+      <c r="E931" t="n">
+        <v>1550</v>
+      </c>
+      <c r="F931" t="n">
+        <v>203</v>
+      </c>
+      <c r="G931" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H931" t="n">
+        <v>3</v>
+      </c>
+      <c r="I931" t="n">
+        <v>26</v>
+      </c>
+      <c r="J931" t="n">
+        <v>5</v>
+      </c>
+      <c r="K931" t="n">
+        <v>45</v>
+      </c>
+      <c r="L931" t="n">
+        <v>0</v>
+      </c>
+      <c r="M931" t="n">
+        <v>13</v>
+      </c>
+      <c r="N931" t="inlineStr"/>
+      <c r="O931" t="inlineStr"/>
+      <c r="P931" t="inlineStr"/>
+      <c r="Q931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>45742.28125</v>
+      </c>
+      <c r="B932" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C932" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D932" t="n">
+        <v>1532.900024414062</v>
+      </c>
+      <c r="E932" t="n">
+        <v>1532.900024414062</v>
+      </c>
+      <c r="F932" t="n">
+        <v>206</v>
+      </c>
+      <c r="G932" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H932" t="n">
+        <v>3</v>
+      </c>
+      <c r="I932" t="n">
+        <v>26</v>
+      </c>
+      <c r="J932" t="n">
+        <v>6</v>
+      </c>
+      <c r="K932" t="n">
+        <v>45</v>
+      </c>
+      <c r="L932" t="n">
+        <v>0</v>
+      </c>
+      <c r="M932" t="n">
+        <v>13</v>
+      </c>
+      <c r="N932" t="inlineStr"/>
+      <c r="O932" t="inlineStr"/>
+      <c r="P932" t="inlineStr"/>
+      <c r="Q932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>45742.32291666666</v>
+      </c>
+      <c r="B933" t="n">
+        <v>1532.900024414062</v>
+      </c>
+      <c r="C933" t="n">
+        <v>1532.900024414062</v>
+      </c>
+      <c r="D933" t="n">
+        <v>1490.300048828125</v>
+      </c>
+      <c r="E933" t="n">
+        <v>1504</v>
+      </c>
+      <c r="F933" t="n">
+        <v>589</v>
+      </c>
+      <c r="G933" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H933" t="n">
+        <v>3</v>
+      </c>
+      <c r="I933" t="n">
+        <v>26</v>
+      </c>
+      <c r="J933" t="n">
+        <v>7</v>
+      </c>
+      <c r="K933" t="n">
+        <v>45</v>
+      </c>
+      <c r="L933" t="n">
+        <v>0</v>
+      </c>
+      <c r="M933" t="n">
+        <v>13</v>
+      </c>
+      <c r="N933" t="inlineStr"/>
+      <c r="O933" t="inlineStr"/>
+      <c r="P933" t="inlineStr"/>
+      <c r="Q933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>45742.36458333334</v>
+      </c>
+      <c r="B934" t="n">
+        <v>1508.900024414062</v>
+      </c>
+      <c r="C934" t="n">
+        <v>1523.199951171875</v>
+      </c>
+      <c r="D934" t="n">
+        <v>1481.099975585938</v>
+      </c>
+      <c r="E934" t="n">
+        <v>1482</v>
+      </c>
+      <c r="F934" t="n">
+        <v>244</v>
+      </c>
+      <c r="G934" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H934" t="n">
+        <v>3</v>
+      </c>
+      <c r="I934" t="n">
+        <v>26</v>
+      </c>
+      <c r="J934" t="n">
+        <v>8</v>
+      </c>
+      <c r="K934" t="n">
+        <v>45</v>
+      </c>
+      <c r="L934" t="n">
+        <v>0</v>
+      </c>
+      <c r="M934" t="n">
+        <v>13</v>
+      </c>
+      <c r="N934" t="inlineStr"/>
+      <c r="O934" t="inlineStr"/>
+      <c r="P934" t="inlineStr"/>
+      <c r="Q934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>45742.40625</v>
+      </c>
+      <c r="B935" t="n">
+        <v>1475.449951171875</v>
+      </c>
+      <c r="C935" t="n">
+        <v>1498.349975585938</v>
+      </c>
+      <c r="D935" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E935" t="n">
+        <v>1472.800048828125</v>
+      </c>
+      <c r="F935" t="n">
+        <v>776</v>
+      </c>
+      <c r="G935" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H935" t="n">
+        <v>3</v>
+      </c>
+      <c r="I935" t="n">
+        <v>26</v>
+      </c>
+      <c r="J935" t="n">
+        <v>9</v>
+      </c>
+      <c r="K935" t="n">
+        <v>45</v>
+      </c>
+      <c r="L935" t="n">
+        <v>0</v>
+      </c>
+      <c r="M935" t="n">
+        <v>13</v>
+      </c>
+      <c r="N935" t="inlineStr"/>
+      <c r="O935" t="inlineStr"/>
+      <c r="P935" t="inlineStr"/>
+      <c r="Q935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>45743.15625</v>
+      </c>
+      <c r="B936" t="n">
+        <v>1480</v>
+      </c>
+      <c r="C936" t="n">
+        <v>1504.849975585938</v>
+      </c>
+      <c r="D936" t="n">
+        <v>1446</v>
+      </c>
+      <c r="E936" t="n">
+        <v>1450</v>
+      </c>
+      <c r="F936" t="n">
+        <v>884</v>
+      </c>
+      <c r="G936" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H936" t="n">
+        <v>3</v>
+      </c>
+      <c r="I936" t="n">
+        <v>27</v>
+      </c>
+      <c r="J936" t="n">
+        <v>3</v>
+      </c>
+      <c r="K936" t="n">
+        <v>45</v>
+      </c>
+      <c r="L936" t="n">
+        <v>0</v>
+      </c>
+      <c r="M936" t="n">
+        <v>13</v>
+      </c>
+      <c r="N936" t="inlineStr"/>
+      <c r="O936" t="inlineStr"/>
+      <c r="P936" t="inlineStr"/>
+      <c r="Q936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>45743.19791666666</v>
+      </c>
+      <c r="B937" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C937" t="n">
+        <v>1455.050048828125</v>
+      </c>
+      <c r="D937" t="n">
+        <v>1446</v>
+      </c>
+      <c r="E937" t="n">
+        <v>1446</v>
+      </c>
+      <c r="F937" t="n">
+        <v>1779</v>
+      </c>
+      <c r="G937" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H937" t="n">
+        <v>3</v>
+      </c>
+      <c r="I937" t="n">
+        <v>27</v>
+      </c>
+      <c r="J937" t="n">
+        <v>4</v>
+      </c>
+      <c r="K937" t="n">
+        <v>45</v>
+      </c>
+      <c r="L937" t="n">
+        <v>0</v>
+      </c>
+      <c r="M937" t="n">
+        <v>13</v>
+      </c>
+      <c r="N937" t="inlineStr"/>
+      <c r="O937" t="inlineStr"/>
+      <c r="P937" t="inlineStr"/>
+      <c r="Q937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>45743.23958333334</v>
+      </c>
+      <c r="B938" t="n">
+        <v>1446</v>
+      </c>
+      <c r="C938" t="n">
+        <v>1465.5</v>
+      </c>
+      <c r="D938" t="n">
+        <v>1446</v>
+      </c>
+      <c r="E938" t="n">
+        <v>1465.5</v>
+      </c>
+      <c r="F938" t="n">
+        <v>170</v>
+      </c>
+      <c r="G938" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H938" t="n">
+        <v>3</v>
+      </c>
+      <c r="I938" t="n">
+        <v>27</v>
+      </c>
+      <c r="J938" t="n">
+        <v>5</v>
+      </c>
+      <c r="K938" t="n">
+        <v>45</v>
+      </c>
+      <c r="L938" t="n">
+        <v>0</v>
+      </c>
+      <c r="M938" t="n">
+        <v>13</v>
+      </c>
+      <c r="N938" t="inlineStr"/>
+      <c r="O938" t="inlineStr"/>
+      <c r="P938" t="inlineStr"/>
+      <c r="Q938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>45743.28125</v>
+      </c>
+      <c r="B939" t="n">
+        <v>1467.150024414062</v>
+      </c>
+      <c r="C939" t="n">
+        <v>1467.150024414062</v>
+      </c>
+      <c r="D939" t="n">
+        <v>1461</v>
+      </c>
+      <c r="E939" t="n">
+        <v>1465.75</v>
+      </c>
+      <c r="F939" t="n">
+        <v>266</v>
+      </c>
+      <c r="G939" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H939" t="n">
+        <v>3</v>
+      </c>
+      <c r="I939" t="n">
+        <v>27</v>
+      </c>
+      <c r="J939" t="n">
+        <v>6</v>
+      </c>
+      <c r="K939" t="n">
+        <v>45</v>
+      </c>
+      <c r="L939" t="n">
+        <v>0</v>
+      </c>
+      <c r="M939" t="n">
+        <v>13</v>
+      </c>
+      <c r="N939" t="inlineStr"/>
+      <c r="O939" t="inlineStr"/>
+      <c r="P939" t="inlineStr"/>
+      <c r="Q939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>45743.32291666666</v>
+      </c>
+      <c r="B940" t="n">
+        <v>1465.349975585938</v>
+      </c>
+      <c r="C940" t="n">
+        <v>1468.650024414062</v>
+      </c>
+      <c r="D940" t="n">
+        <v>1460.800048828125</v>
+      </c>
+      <c r="E940" t="n">
+        <v>1468.650024414062</v>
+      </c>
+      <c r="F940" t="n">
+        <v>116</v>
+      </c>
+      <c r="G940" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H940" t="n">
+        <v>3</v>
+      </c>
+      <c r="I940" t="n">
+        <v>27</v>
+      </c>
+      <c r="J940" t="n">
+        <v>7</v>
+      </c>
+      <c r="K940" t="n">
+        <v>45</v>
+      </c>
+      <c r="L940" t="n">
+        <v>0</v>
+      </c>
+      <c r="M940" t="n">
+        <v>13</v>
+      </c>
+      <c r="N940" t="inlineStr"/>
+      <c r="O940" t="inlineStr"/>
+      <c r="P940" t="inlineStr"/>
+      <c r="Q940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>45743.36458333334</v>
+      </c>
+      <c r="B941" t="n">
+        <v>1460</v>
+      </c>
+      <c r="C941" t="n">
+        <v>1466.650024414062</v>
+      </c>
+      <c r="D941" t="n">
+        <v>1458</v>
+      </c>
+      <c r="E941" t="n">
+        <v>1458</v>
+      </c>
+      <c r="F941" t="n">
+        <v>256</v>
+      </c>
+      <c r="G941" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H941" t="n">
+        <v>3</v>
+      </c>
+      <c r="I941" t="n">
+        <v>27</v>
+      </c>
+      <c r="J941" t="n">
+        <v>8</v>
+      </c>
+      <c r="K941" t="n">
+        <v>45</v>
+      </c>
+      <c r="L941" t="n">
+        <v>0</v>
+      </c>
+      <c r="M941" t="n">
+        <v>13</v>
+      </c>
+      <c r="N941" t="inlineStr"/>
+      <c r="O941" t="inlineStr"/>
+      <c r="P941" t="inlineStr"/>
+      <c r="Q941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>45743.40625</v>
+      </c>
+      <c r="B942" t="n">
+        <v>1453.349975585938</v>
+      </c>
+      <c r="C942" t="n">
+        <v>1456.5</v>
+      </c>
+      <c r="D942" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E942" t="n">
+        <v>1456.400024414062</v>
+      </c>
+      <c r="F942" t="n">
+        <v>239</v>
+      </c>
+      <c r="G942" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H942" t="n">
+        <v>3</v>
+      </c>
+      <c r="I942" t="n">
+        <v>27</v>
+      </c>
+      <c r="J942" t="n">
+        <v>9</v>
+      </c>
+      <c r="K942" t="n">
+        <v>45</v>
+      </c>
+      <c r="L942" t="n">
+        <v>0</v>
+      </c>
+      <c r="M942" t="n">
+        <v>13</v>
+      </c>
+      <c r="N942" t="inlineStr"/>
+      <c r="O942" t="inlineStr"/>
+      <c r="P942" t="inlineStr"/>
+      <c r="Q942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
+        <v>45744.15625</v>
+      </c>
+      <c r="B943" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C943" t="n">
+        <v>1490</v>
+      </c>
+      <c r="D943" t="n">
+        <v>1458.050048828125</v>
+      </c>
+      <c r="E943" t="n">
+        <v>1459.300048828125</v>
+      </c>
+      <c r="F943" t="n">
+        <v>0</v>
+      </c>
+      <c r="G943" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H943" t="n">
+        <v>3</v>
+      </c>
+      <c r="I943" t="n">
+        <v>28</v>
+      </c>
+      <c r="J943" t="n">
+        <v>3</v>
+      </c>
+      <c r="K943" t="n">
+        <v>45</v>
+      </c>
+      <c r="L943" t="n">
+        <v>0</v>
+      </c>
+      <c r="M943" t="n">
+        <v>13</v>
+      </c>
+      <c r="N943" t="inlineStr"/>
+      <c r="O943" t="inlineStr"/>
+      <c r="P943" t="inlineStr"/>
+      <c r="Q943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="2" t="n">
+        <v>45744.19791666666</v>
+      </c>
+      <c r="B944" t="n">
+        <v>1464.650024414062</v>
+      </c>
+      <c r="C944" t="n">
+        <v>1464.650024414062</v>
+      </c>
+      <c r="D944" t="n">
+        <v>1446.349975585938</v>
+      </c>
+      <c r="E944" t="n">
+        <v>1448</v>
+      </c>
+      <c r="F944" t="n">
+        <v>739</v>
+      </c>
+      <c r="G944" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H944" t="n">
+        <v>3</v>
+      </c>
+      <c r="I944" t="n">
+        <v>28</v>
+      </c>
+      <c r="J944" t="n">
+        <v>4</v>
+      </c>
+      <c r="K944" t="n">
+        <v>45</v>
+      </c>
+      <c r="L944" t="n">
+        <v>0</v>
+      </c>
+      <c r="M944" t="n">
+        <v>13</v>
+      </c>
+      <c r="N944" t="inlineStr"/>
+      <c r="O944" t="inlineStr"/>
+      <c r="P944" t="inlineStr"/>
+      <c r="Q944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="2" t="n">
+        <v>45744.23958333334</v>
+      </c>
+      <c r="B945" t="n">
+        <v>1452.599975585938</v>
+      </c>
+      <c r="C945" t="n">
+        <v>1452.599975585938</v>
+      </c>
+      <c r="D945" t="n">
+        <v>1447</v>
+      </c>
+      <c r="E945" t="n">
+        <v>1447</v>
+      </c>
+      <c r="F945" t="n">
+        <v>7</v>
+      </c>
+      <c r="G945" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H945" t="n">
+        <v>3</v>
+      </c>
+      <c r="I945" t="n">
+        <v>28</v>
+      </c>
+      <c r="J945" t="n">
+        <v>5</v>
+      </c>
+      <c r="K945" t="n">
+        <v>45</v>
+      </c>
+      <c r="L945" t="n">
+        <v>0</v>
+      </c>
+      <c r="M945" t="n">
+        <v>13</v>
+      </c>
+      <c r="N945" t="inlineStr"/>
+      <c r="O945" t="inlineStr"/>
+      <c r="P945" t="inlineStr"/>
+      <c r="Q945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="2" t="n">
+        <v>45744.28125</v>
+      </c>
+      <c r="B946" t="n">
+        <v>1439.800048828125</v>
+      </c>
+      <c r="C946" t="n">
+        <v>1440</v>
+      </c>
+      <c r="D946" t="n">
+        <v>1412.25</v>
+      </c>
+      <c r="E946" t="n">
+        <v>1412.25</v>
+      </c>
+      <c r="F946" t="n">
+        <v>245</v>
+      </c>
+      <c r="G946" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H946" t="n">
+        <v>3</v>
+      </c>
+      <c r="I946" t="n">
+        <v>28</v>
+      </c>
+      <c r="J946" t="n">
+        <v>6</v>
+      </c>
+      <c r="K946" t="n">
+        <v>45</v>
+      </c>
+      <c r="L946" t="n">
+        <v>0</v>
+      </c>
+      <c r="M946" t="n">
+        <v>13</v>
+      </c>
+      <c r="N946" t="inlineStr"/>
+      <c r="O946" t="inlineStr"/>
+      <c r="P946" t="inlineStr"/>
+      <c r="Q946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="2" t="n">
+        <v>45744.32291666666</v>
+      </c>
+      <c r="B947" t="n">
+        <v>1420.699951171875</v>
+      </c>
+      <c r="C947" t="n">
+        <v>1421.800048828125</v>
+      </c>
+      <c r="D947" t="n">
+        <v>1408.75</v>
+      </c>
+      <c r="E947" t="n">
+        <v>1410.849975585938</v>
+      </c>
+      <c r="F947" t="n">
+        <v>80</v>
+      </c>
+      <c r="G947" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H947" t="n">
+        <v>3</v>
+      </c>
+      <c r="I947" t="n">
+        <v>28</v>
+      </c>
+      <c r="J947" t="n">
+        <v>7</v>
+      </c>
+      <c r="K947" t="n">
+        <v>45</v>
+      </c>
+      <c r="L947" t="n">
+        <v>0</v>
+      </c>
+      <c r="M947" t="n">
+        <v>13</v>
+      </c>
+      <c r="N947" t="inlineStr"/>
+      <c r="O947" t="inlineStr"/>
+      <c r="P947" t="inlineStr"/>
+      <c r="Q947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="2" t="n">
+        <v>45744.36458333334</v>
+      </c>
+      <c r="B948" t="n">
+        <v>1411</v>
+      </c>
+      <c r="C948" t="n">
+        <v>1417.050048828125</v>
+      </c>
+      <c r="D948" t="n">
+        <v>1404.900024414062</v>
+      </c>
+      <c r="E948" t="n">
+        <v>1411.150024414062</v>
+      </c>
+      <c r="F948" t="n">
+        <v>170</v>
+      </c>
+      <c r="G948" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H948" t="n">
+        <v>3</v>
+      </c>
+      <c r="I948" t="n">
+        <v>28</v>
+      </c>
+      <c r="J948" t="n">
+        <v>8</v>
+      </c>
+      <c r="K948" t="n">
+        <v>45</v>
+      </c>
+      <c r="L948" t="n">
+        <v>0</v>
+      </c>
+      <c r="M948" t="n">
+        <v>13</v>
+      </c>
+      <c r="N948" t="inlineStr"/>
+      <c r="O948" t="inlineStr"/>
+      <c r="P948" t="inlineStr"/>
+      <c r="Q948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="2" t="n">
+        <v>45744.40625</v>
+      </c>
+      <c r="B949" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C949" t="n">
+        <v>1410</v>
+      </c>
+      <c r="D949" t="n">
+        <v>1382.099975585938</v>
+      </c>
+      <c r="E949" t="n">
+        <v>1396.400024414062</v>
+      </c>
+      <c r="F949" t="n">
+        <v>247</v>
+      </c>
+      <c r="G949" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H949" t="n">
+        <v>3</v>
+      </c>
+      <c r="I949" t="n">
+        <v>28</v>
+      </c>
+      <c r="J949" t="n">
+        <v>9</v>
+      </c>
+      <c r="K949" t="n">
+        <v>45</v>
+      </c>
+      <c r="L949" t="n">
+        <v>0</v>
+      </c>
+      <c r="M949" t="n">
+        <v>13</v>
+      </c>
+      <c r="N949" t="inlineStr"/>
+      <c r="O949" t="inlineStr"/>
+      <c r="P949" t="inlineStr"/>
+      <c r="Q949" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/KMEW.BO.xlsx
+++ b/stock_historical_data/60m/KMEW.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q949"/>
+  <dimension ref="A1:Q1058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46172,6 +46172,4911 @@
       <c r="P949" t="inlineStr"/>
       <c r="Q949" t="inlineStr"/>
     </row>
+    <row r="950">
+      <c r="A950" s="2" t="n">
+        <v>45748.15625</v>
+      </c>
+      <c r="B950" t="n">
+        <v>1410.25</v>
+      </c>
+      <c r="C950" t="n">
+        <v>1459.150024414062</v>
+      </c>
+      <c r="D950" t="n">
+        <v>1400.650024414062</v>
+      </c>
+      <c r="E950" t="n">
+        <v>1456.550048828125</v>
+      </c>
+      <c r="F950" t="n">
+        <v>250</v>
+      </c>
+      <c r="G950" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H950" t="n">
+        <v>4</v>
+      </c>
+      <c r="I950" t="n">
+        <v>1</v>
+      </c>
+      <c r="J950" t="n">
+        <v>3</v>
+      </c>
+      <c r="K950" t="n">
+        <v>45</v>
+      </c>
+      <c r="L950" t="n">
+        <v>0</v>
+      </c>
+      <c r="M950" t="n">
+        <v>14</v>
+      </c>
+      <c r="N950" t="inlineStr"/>
+      <c r="O950" t="inlineStr"/>
+      <c r="P950" t="inlineStr"/>
+      <c r="Q950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="2" t="n">
+        <v>45748.19791666666</v>
+      </c>
+      <c r="B951" t="n">
+        <v>1457.050048828125</v>
+      </c>
+      <c r="C951" t="n">
+        <v>1457.050048828125</v>
+      </c>
+      <c r="D951" t="n">
+        <v>1410</v>
+      </c>
+      <c r="E951" t="n">
+        <v>1422</v>
+      </c>
+      <c r="F951" t="n">
+        <v>147</v>
+      </c>
+      <c r="G951" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H951" t="n">
+        <v>4</v>
+      </c>
+      <c r="I951" t="n">
+        <v>1</v>
+      </c>
+      <c r="J951" t="n">
+        <v>4</v>
+      </c>
+      <c r="K951" t="n">
+        <v>45</v>
+      </c>
+      <c r="L951" t="n">
+        <v>0</v>
+      </c>
+      <c r="M951" t="n">
+        <v>14</v>
+      </c>
+      <c r="N951" t="inlineStr"/>
+      <c r="O951" t="inlineStr"/>
+      <c r="P951" t="inlineStr"/>
+      <c r="Q951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="2" t="n">
+        <v>45748.23958333334</v>
+      </c>
+      <c r="B952" t="n">
+        <v>1425.199951171875</v>
+      </c>
+      <c r="C952" t="n">
+        <v>1425.199951171875</v>
+      </c>
+      <c r="D952" t="n">
+        <v>1416.199951171875</v>
+      </c>
+      <c r="E952" t="n">
+        <v>1420</v>
+      </c>
+      <c r="F952" t="n">
+        <v>7054</v>
+      </c>
+      <c r="G952" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H952" t="n">
+        <v>4</v>
+      </c>
+      <c r="I952" t="n">
+        <v>1</v>
+      </c>
+      <c r="J952" t="n">
+        <v>5</v>
+      </c>
+      <c r="K952" t="n">
+        <v>45</v>
+      </c>
+      <c r="L952" t="n">
+        <v>0</v>
+      </c>
+      <c r="M952" t="n">
+        <v>14</v>
+      </c>
+      <c r="N952" t="inlineStr"/>
+      <c r="O952" t="inlineStr"/>
+      <c r="P952" t="inlineStr"/>
+      <c r="Q952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="2" t="n">
+        <v>45748.28125</v>
+      </c>
+      <c r="B953" t="n">
+        <v>1424.650024414062</v>
+      </c>
+      <c r="C953" t="n">
+        <v>1455</v>
+      </c>
+      <c r="D953" t="n">
+        <v>1424.650024414062</v>
+      </c>
+      <c r="E953" t="n">
+        <v>1447.449951171875</v>
+      </c>
+      <c r="F953" t="n">
+        <v>60</v>
+      </c>
+      <c r="G953" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H953" t="n">
+        <v>4</v>
+      </c>
+      <c r="I953" t="n">
+        <v>1</v>
+      </c>
+      <c r="J953" t="n">
+        <v>6</v>
+      </c>
+      <c r="K953" t="n">
+        <v>45</v>
+      </c>
+      <c r="L953" t="n">
+        <v>0</v>
+      </c>
+      <c r="M953" t="n">
+        <v>14</v>
+      </c>
+      <c r="N953" t="inlineStr"/>
+      <c r="O953" t="inlineStr"/>
+      <c r="P953" t="inlineStr"/>
+      <c r="Q953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="2" t="n">
+        <v>45748.32291666666</v>
+      </c>
+      <c r="B954" t="n">
+        <v>1445.25</v>
+      </c>
+      <c r="C954" t="n">
+        <v>1465.050048828125</v>
+      </c>
+      <c r="D954" t="n">
+        <v>1444.050048828125</v>
+      </c>
+      <c r="E954" t="n">
+        <v>1465.050048828125</v>
+      </c>
+      <c r="F954" t="n">
+        <v>71</v>
+      </c>
+      <c r="G954" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H954" t="n">
+        <v>4</v>
+      </c>
+      <c r="I954" t="n">
+        <v>1</v>
+      </c>
+      <c r="J954" t="n">
+        <v>7</v>
+      </c>
+      <c r="K954" t="n">
+        <v>45</v>
+      </c>
+      <c r="L954" t="n">
+        <v>0</v>
+      </c>
+      <c r="M954" t="n">
+        <v>14</v>
+      </c>
+      <c r="N954" t="inlineStr"/>
+      <c r="O954" t="inlineStr"/>
+      <c r="P954" t="inlineStr"/>
+      <c r="Q954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="2" t="n">
+        <v>45748.36458333334</v>
+      </c>
+      <c r="B955" t="n">
+        <v>1457.25</v>
+      </c>
+      <c r="C955" t="n">
+        <v>1470.099975585938</v>
+      </c>
+      <c r="D955" t="n">
+        <v>1447.050048828125</v>
+      </c>
+      <c r="E955" t="n">
+        <v>1447.050048828125</v>
+      </c>
+      <c r="F955" t="n">
+        <v>87</v>
+      </c>
+      <c r="G955" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H955" t="n">
+        <v>4</v>
+      </c>
+      <c r="I955" t="n">
+        <v>1</v>
+      </c>
+      <c r="J955" t="n">
+        <v>8</v>
+      </c>
+      <c r="K955" t="n">
+        <v>45</v>
+      </c>
+      <c r="L955" t="n">
+        <v>0</v>
+      </c>
+      <c r="M955" t="n">
+        <v>14</v>
+      </c>
+      <c r="N955" t="inlineStr"/>
+      <c r="O955" t="inlineStr"/>
+      <c r="P955" t="inlineStr"/>
+      <c r="Q955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="2" t="n">
+        <v>45748.40625</v>
+      </c>
+      <c r="B956" t="n">
+        <v>1453.400024414062</v>
+      </c>
+      <c r="C956" t="n">
+        <v>1463.849975585938</v>
+      </c>
+      <c r="D956" t="n">
+        <v>1441.099975585938</v>
+      </c>
+      <c r="E956" t="n">
+        <v>1459.650024414062</v>
+      </c>
+      <c r="F956" t="n">
+        <v>80</v>
+      </c>
+      <c r="G956" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H956" t="n">
+        <v>4</v>
+      </c>
+      <c r="I956" t="n">
+        <v>1</v>
+      </c>
+      <c r="J956" t="n">
+        <v>9</v>
+      </c>
+      <c r="K956" t="n">
+        <v>45</v>
+      </c>
+      <c r="L956" t="n">
+        <v>0</v>
+      </c>
+      <c r="M956" t="n">
+        <v>14</v>
+      </c>
+      <c r="N956" t="inlineStr"/>
+      <c r="O956" t="inlineStr"/>
+      <c r="P956" t="inlineStr"/>
+      <c r="Q956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="2" t="n">
+        <v>45749.15625</v>
+      </c>
+      <c r="B957" t="n">
+        <v>1480.849975585938</v>
+      </c>
+      <c r="C957" t="n">
+        <v>1488.199951171875</v>
+      </c>
+      <c r="D957" t="n">
+        <v>1410.400024414062</v>
+      </c>
+      <c r="E957" t="n">
+        <v>1435.900024414062</v>
+      </c>
+      <c r="F957" t="n">
+        <v>0</v>
+      </c>
+      <c r="G957" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H957" t="n">
+        <v>4</v>
+      </c>
+      <c r="I957" t="n">
+        <v>2</v>
+      </c>
+      <c r="J957" t="n">
+        <v>3</v>
+      </c>
+      <c r="K957" t="n">
+        <v>45</v>
+      </c>
+      <c r="L957" t="n">
+        <v>0</v>
+      </c>
+      <c r="M957" t="n">
+        <v>14</v>
+      </c>
+      <c r="N957" t="inlineStr"/>
+      <c r="O957" t="inlineStr"/>
+      <c r="P957" t="inlineStr"/>
+      <c r="Q957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="2" t="n">
+        <v>45749.19791666666</v>
+      </c>
+      <c r="B958" t="n">
+        <v>1447.599975585938</v>
+      </c>
+      <c r="C958" t="n">
+        <v>1455.199951171875</v>
+      </c>
+      <c r="D958" t="n">
+        <v>1447.599975585938</v>
+      </c>
+      <c r="E958" t="n">
+        <v>1455.199951171875</v>
+      </c>
+      <c r="F958" t="n">
+        <v>27</v>
+      </c>
+      <c r="G958" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H958" t="n">
+        <v>4</v>
+      </c>
+      <c r="I958" t="n">
+        <v>2</v>
+      </c>
+      <c r="J958" t="n">
+        <v>4</v>
+      </c>
+      <c r="K958" t="n">
+        <v>45</v>
+      </c>
+      <c r="L958" t="n">
+        <v>0</v>
+      </c>
+      <c r="M958" t="n">
+        <v>14</v>
+      </c>
+      <c r="N958" t="inlineStr"/>
+      <c r="O958" t="inlineStr"/>
+      <c r="P958" t="inlineStr"/>
+      <c r="Q958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="2" t="n">
+        <v>45749.23958333334</v>
+      </c>
+      <c r="B959" t="n">
+        <v>1456.400024414062</v>
+      </c>
+      <c r="C959" t="n">
+        <v>1456.400024414062</v>
+      </c>
+      <c r="D959" t="n">
+        <v>1456.400024414062</v>
+      </c>
+      <c r="E959" t="n">
+        <v>1456.400024414062</v>
+      </c>
+      <c r="F959" t="n">
+        <v>8</v>
+      </c>
+      <c r="G959" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H959" t="n">
+        <v>4</v>
+      </c>
+      <c r="I959" t="n">
+        <v>2</v>
+      </c>
+      <c r="J959" t="n">
+        <v>5</v>
+      </c>
+      <c r="K959" t="n">
+        <v>45</v>
+      </c>
+      <c r="L959" t="n">
+        <v>0</v>
+      </c>
+      <c r="M959" t="n">
+        <v>14</v>
+      </c>
+      <c r="N959" t="inlineStr"/>
+      <c r="O959" t="inlineStr"/>
+      <c r="P959" t="inlineStr"/>
+      <c r="Q959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="2" t="n">
+        <v>45749.28125</v>
+      </c>
+      <c r="B960" t="n">
+        <v>1459.449951171875</v>
+      </c>
+      <c r="C960" t="n">
+        <v>1459.449951171875</v>
+      </c>
+      <c r="D960" t="n">
+        <v>1459.449951171875</v>
+      </c>
+      <c r="E960" t="n">
+        <v>1459.449951171875</v>
+      </c>
+      <c r="F960" t="n">
+        <v>36</v>
+      </c>
+      <c r="G960" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H960" t="n">
+        <v>4</v>
+      </c>
+      <c r="I960" t="n">
+        <v>2</v>
+      </c>
+      <c r="J960" t="n">
+        <v>6</v>
+      </c>
+      <c r="K960" t="n">
+        <v>45</v>
+      </c>
+      <c r="L960" t="n">
+        <v>0</v>
+      </c>
+      <c r="M960" t="n">
+        <v>14</v>
+      </c>
+      <c r="N960" t="inlineStr"/>
+      <c r="O960" t="inlineStr"/>
+      <c r="P960" t="inlineStr"/>
+      <c r="Q960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="2" t="n">
+        <v>45749.32291666666</v>
+      </c>
+      <c r="B961" t="n">
+        <v>1475.900024414062</v>
+      </c>
+      <c r="C961" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D961" t="n">
+        <v>1470.599975585938</v>
+      </c>
+      <c r="E961" t="n">
+        <v>1470.599975585938</v>
+      </c>
+      <c r="F961" t="n">
+        <v>174</v>
+      </c>
+      <c r="G961" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H961" t="n">
+        <v>4</v>
+      </c>
+      <c r="I961" t="n">
+        <v>2</v>
+      </c>
+      <c r="J961" t="n">
+        <v>7</v>
+      </c>
+      <c r="K961" t="n">
+        <v>45</v>
+      </c>
+      <c r="L961" t="n">
+        <v>0</v>
+      </c>
+      <c r="M961" t="n">
+        <v>14</v>
+      </c>
+      <c r="N961" t="inlineStr"/>
+      <c r="O961" t="inlineStr"/>
+      <c r="P961" t="inlineStr"/>
+      <c r="Q961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="2" t="n">
+        <v>45749.36458333334</v>
+      </c>
+      <c r="B962" t="n">
+        <v>1478.25</v>
+      </c>
+      <c r="C962" t="n">
+        <v>1481.849975585938</v>
+      </c>
+      <c r="D962" t="n">
+        <v>1467.550048828125</v>
+      </c>
+      <c r="E962" t="n">
+        <v>1467.550048828125</v>
+      </c>
+      <c r="F962" t="n">
+        <v>105</v>
+      </c>
+      <c r="G962" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H962" t="n">
+        <v>4</v>
+      </c>
+      <c r="I962" t="n">
+        <v>2</v>
+      </c>
+      <c r="J962" t="n">
+        <v>8</v>
+      </c>
+      <c r="K962" t="n">
+        <v>45</v>
+      </c>
+      <c r="L962" t="n">
+        <v>0</v>
+      </c>
+      <c r="M962" t="n">
+        <v>14</v>
+      </c>
+      <c r="N962" t="inlineStr"/>
+      <c r="O962" t="inlineStr"/>
+      <c r="P962" t="inlineStr"/>
+      <c r="Q962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="2" t="n">
+        <v>45749.40625</v>
+      </c>
+      <c r="B963" t="n">
+        <v>1469.900024414062</v>
+      </c>
+      <c r="C963" t="n">
+        <v>1487</v>
+      </c>
+      <c r="D963" t="n">
+        <v>1460.900024414062</v>
+      </c>
+      <c r="E963" t="n">
+        <v>1464.650024414062</v>
+      </c>
+      <c r="F963" t="n">
+        <v>260</v>
+      </c>
+      <c r="G963" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H963" t="n">
+        <v>4</v>
+      </c>
+      <c r="I963" t="n">
+        <v>2</v>
+      </c>
+      <c r="J963" t="n">
+        <v>9</v>
+      </c>
+      <c r="K963" t="n">
+        <v>45</v>
+      </c>
+      <c r="L963" t="n">
+        <v>0</v>
+      </c>
+      <c r="M963" t="n">
+        <v>14</v>
+      </c>
+      <c r="N963" t="inlineStr"/>
+      <c r="O963" t="inlineStr"/>
+      <c r="P963" t="inlineStr"/>
+      <c r="Q963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="2" t="n">
+        <v>45750.15625</v>
+      </c>
+      <c r="B964" t="n">
+        <v>1481</v>
+      </c>
+      <c r="C964" t="n">
+        <v>1487.900024414062</v>
+      </c>
+      <c r="D964" t="n">
+        <v>1471.900024414062</v>
+      </c>
+      <c r="E964" t="n">
+        <v>1480.099975585938</v>
+      </c>
+      <c r="F964" t="n">
+        <v>0</v>
+      </c>
+      <c r="G964" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H964" t="n">
+        <v>4</v>
+      </c>
+      <c r="I964" t="n">
+        <v>3</v>
+      </c>
+      <c r="J964" t="n">
+        <v>3</v>
+      </c>
+      <c r="K964" t="n">
+        <v>45</v>
+      </c>
+      <c r="L964" t="n">
+        <v>0</v>
+      </c>
+      <c r="M964" t="n">
+        <v>14</v>
+      </c>
+      <c r="N964" t="inlineStr"/>
+      <c r="O964" t="inlineStr"/>
+      <c r="P964" t="inlineStr"/>
+      <c r="Q964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="2" t="n">
+        <v>45750.23958333334</v>
+      </c>
+      <c r="B965" t="n">
+        <v>1489.550048828125</v>
+      </c>
+      <c r="C965" t="n">
+        <v>1489.550048828125</v>
+      </c>
+      <c r="D965" t="n">
+        <v>1483.650024414062</v>
+      </c>
+      <c r="E965" t="n">
+        <v>1483.650024414062</v>
+      </c>
+      <c r="F965" t="n">
+        <v>80</v>
+      </c>
+      <c r="G965" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H965" t="n">
+        <v>4</v>
+      </c>
+      <c r="I965" t="n">
+        <v>3</v>
+      </c>
+      <c r="J965" t="n">
+        <v>5</v>
+      </c>
+      <c r="K965" t="n">
+        <v>45</v>
+      </c>
+      <c r="L965" t="n">
+        <v>0</v>
+      </c>
+      <c r="M965" t="n">
+        <v>14</v>
+      </c>
+      <c r="N965" t="inlineStr"/>
+      <c r="O965" t="inlineStr"/>
+      <c r="P965" t="inlineStr"/>
+      <c r="Q965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="2" t="n">
+        <v>45750.28125</v>
+      </c>
+      <c r="B966" t="n">
+        <v>1479.849975585938</v>
+      </c>
+      <c r="C966" t="n">
+        <v>1479.849975585938</v>
+      </c>
+      <c r="D966" t="n">
+        <v>1472.349975585938</v>
+      </c>
+      <c r="E966" t="n">
+        <v>1476.199951171875</v>
+      </c>
+      <c r="F966" t="n">
+        <v>13</v>
+      </c>
+      <c r="G966" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H966" t="n">
+        <v>4</v>
+      </c>
+      <c r="I966" t="n">
+        <v>3</v>
+      </c>
+      <c r="J966" t="n">
+        <v>6</v>
+      </c>
+      <c r="K966" t="n">
+        <v>45</v>
+      </c>
+      <c r="L966" t="n">
+        <v>0</v>
+      </c>
+      <c r="M966" t="n">
+        <v>14</v>
+      </c>
+      <c r="N966" t="inlineStr"/>
+      <c r="O966" t="inlineStr"/>
+      <c r="P966" t="inlineStr"/>
+      <c r="Q966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="2" t="n">
+        <v>45750.32291666666</v>
+      </c>
+      <c r="B967" t="n">
+        <v>1471.400024414062</v>
+      </c>
+      <c r="C967" t="n">
+        <v>1489.550048828125</v>
+      </c>
+      <c r="D967" t="n">
+        <v>1471.400024414062</v>
+      </c>
+      <c r="E967" t="n">
+        <v>1483.099975585938</v>
+      </c>
+      <c r="F967" t="n">
+        <v>38</v>
+      </c>
+      <c r="G967" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H967" t="n">
+        <v>4</v>
+      </c>
+      <c r="I967" t="n">
+        <v>3</v>
+      </c>
+      <c r="J967" t="n">
+        <v>7</v>
+      </c>
+      <c r="K967" t="n">
+        <v>45</v>
+      </c>
+      <c r="L967" t="n">
+        <v>0</v>
+      </c>
+      <c r="M967" t="n">
+        <v>14</v>
+      </c>
+      <c r="N967" t="inlineStr"/>
+      <c r="O967" t="inlineStr"/>
+      <c r="P967" t="inlineStr"/>
+      <c r="Q967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="2" t="n">
+        <v>45750.36458333334</v>
+      </c>
+      <c r="B968" t="n">
+        <v>1480.050048828125</v>
+      </c>
+      <c r="C968" t="n">
+        <v>1491.699951171875</v>
+      </c>
+      <c r="D968" t="n">
+        <v>1480.050048828125</v>
+      </c>
+      <c r="E968" t="n">
+        <v>1491.699951171875</v>
+      </c>
+      <c r="F968" t="n">
+        <v>110</v>
+      </c>
+      <c r="G968" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H968" t="n">
+        <v>4</v>
+      </c>
+      <c r="I968" t="n">
+        <v>3</v>
+      </c>
+      <c r="J968" t="n">
+        <v>8</v>
+      </c>
+      <c r="K968" t="n">
+        <v>45</v>
+      </c>
+      <c r="L968" t="n">
+        <v>0</v>
+      </c>
+      <c r="M968" t="n">
+        <v>14</v>
+      </c>
+      <c r="N968" t="inlineStr"/>
+      <c r="O968" t="inlineStr"/>
+      <c r="P968" t="inlineStr"/>
+      <c r="Q968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="2" t="n">
+        <v>45750.40625</v>
+      </c>
+      <c r="B969" t="n">
+        <v>1491.099975585938</v>
+      </c>
+      <c r="C969" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D969" t="n">
+        <v>1485.900024414062</v>
+      </c>
+      <c r="E969" t="n">
+        <v>1491.800048828125</v>
+      </c>
+      <c r="F969" t="n">
+        <v>38</v>
+      </c>
+      <c r="G969" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H969" t="n">
+        <v>4</v>
+      </c>
+      <c r="I969" t="n">
+        <v>3</v>
+      </c>
+      <c r="J969" t="n">
+        <v>9</v>
+      </c>
+      <c r="K969" t="n">
+        <v>45</v>
+      </c>
+      <c r="L969" t="n">
+        <v>0</v>
+      </c>
+      <c r="M969" t="n">
+        <v>14</v>
+      </c>
+      <c r="N969" t="inlineStr"/>
+      <c r="O969" t="inlineStr"/>
+      <c r="P969" t="inlineStr"/>
+      <c r="Q969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="2" t="n">
+        <v>45751.15625</v>
+      </c>
+      <c r="B970" t="n">
+        <v>1466.900024414062</v>
+      </c>
+      <c r="C970" t="n">
+        <v>1472.050048828125</v>
+      </c>
+      <c r="D970" t="n">
+        <v>1456.050048828125</v>
+      </c>
+      <c r="E970" t="n">
+        <v>1472.050048828125</v>
+      </c>
+      <c r="F970" t="n">
+        <v>0</v>
+      </c>
+      <c r="G970" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H970" t="n">
+        <v>4</v>
+      </c>
+      <c r="I970" t="n">
+        <v>4</v>
+      </c>
+      <c r="J970" t="n">
+        <v>3</v>
+      </c>
+      <c r="K970" t="n">
+        <v>45</v>
+      </c>
+      <c r="L970" t="n">
+        <v>0</v>
+      </c>
+      <c r="M970" t="n">
+        <v>14</v>
+      </c>
+      <c r="N970" t="inlineStr"/>
+      <c r="O970" t="inlineStr"/>
+      <c r="P970" t="inlineStr"/>
+      <c r="Q970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="2" t="n">
+        <v>45751.19791666666</v>
+      </c>
+      <c r="B971" t="n">
+        <v>1480.099975585938</v>
+      </c>
+      <c r="C971" t="n">
+        <v>1480.099975585938</v>
+      </c>
+      <c r="D971" t="n">
+        <v>1471.25</v>
+      </c>
+      <c r="E971" t="n">
+        <v>1471.25</v>
+      </c>
+      <c r="F971" t="n">
+        <v>9</v>
+      </c>
+      <c r="G971" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H971" t="n">
+        <v>4</v>
+      </c>
+      <c r="I971" t="n">
+        <v>4</v>
+      </c>
+      <c r="J971" t="n">
+        <v>4</v>
+      </c>
+      <c r="K971" t="n">
+        <v>45</v>
+      </c>
+      <c r="L971" t="n">
+        <v>0</v>
+      </c>
+      <c r="M971" t="n">
+        <v>14</v>
+      </c>
+      <c r="N971" t="inlineStr"/>
+      <c r="O971" t="inlineStr"/>
+      <c r="P971" t="inlineStr"/>
+      <c r="Q971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="2" t="n">
+        <v>45751.23958333334</v>
+      </c>
+      <c r="B972" t="n">
+        <v>1466.5</v>
+      </c>
+      <c r="C972" t="n">
+        <v>1466.5</v>
+      </c>
+      <c r="D972" t="n">
+        <v>1461.800048828125</v>
+      </c>
+      <c r="E972" t="n">
+        <v>1464.050048828125</v>
+      </c>
+      <c r="F972" t="n">
+        <v>25</v>
+      </c>
+      <c r="G972" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H972" t="n">
+        <v>4</v>
+      </c>
+      <c r="I972" t="n">
+        <v>4</v>
+      </c>
+      <c r="J972" t="n">
+        <v>5</v>
+      </c>
+      <c r="K972" t="n">
+        <v>45</v>
+      </c>
+      <c r="L972" t="n">
+        <v>0</v>
+      </c>
+      <c r="M972" t="n">
+        <v>14</v>
+      </c>
+      <c r="N972" t="inlineStr"/>
+      <c r="O972" t="inlineStr"/>
+      <c r="P972" t="inlineStr"/>
+      <c r="Q972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="2" t="n">
+        <v>45751.28125</v>
+      </c>
+      <c r="B973" t="n">
+        <v>1455</v>
+      </c>
+      <c r="C973" t="n">
+        <v>1455</v>
+      </c>
+      <c r="D973" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E973" t="n">
+        <v>1450</v>
+      </c>
+      <c r="F973" t="n">
+        <v>13</v>
+      </c>
+      <c r="G973" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H973" t="n">
+        <v>4</v>
+      </c>
+      <c r="I973" t="n">
+        <v>4</v>
+      </c>
+      <c r="J973" t="n">
+        <v>6</v>
+      </c>
+      <c r="K973" t="n">
+        <v>45</v>
+      </c>
+      <c r="L973" t="n">
+        <v>0</v>
+      </c>
+      <c r="M973" t="n">
+        <v>14</v>
+      </c>
+      <c r="N973" t="inlineStr"/>
+      <c r="O973" t="inlineStr"/>
+      <c r="P973" t="inlineStr"/>
+      <c r="Q973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="2" t="n">
+        <v>45751.32291666666</v>
+      </c>
+      <c r="B974" t="n">
+        <v>1446.150024414062</v>
+      </c>
+      <c r="C974" t="n">
+        <v>1446.150024414062</v>
+      </c>
+      <c r="D974" t="n">
+        <v>1446.150024414062</v>
+      </c>
+      <c r="E974" t="n">
+        <v>1446.150024414062</v>
+      </c>
+      <c r="F974" t="n">
+        <v>2</v>
+      </c>
+      <c r="G974" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H974" t="n">
+        <v>4</v>
+      </c>
+      <c r="I974" t="n">
+        <v>4</v>
+      </c>
+      <c r="J974" t="n">
+        <v>7</v>
+      </c>
+      <c r="K974" t="n">
+        <v>45</v>
+      </c>
+      <c r="L974" t="n">
+        <v>0</v>
+      </c>
+      <c r="M974" t="n">
+        <v>14</v>
+      </c>
+      <c r="N974" t="inlineStr"/>
+      <c r="O974" t="inlineStr"/>
+      <c r="P974" t="inlineStr"/>
+      <c r="Q974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="2" t="n">
+        <v>45751.36458333334</v>
+      </c>
+      <c r="B975" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C975" t="n">
+        <v>1446.699951171875</v>
+      </c>
+      <c r="D975" t="n">
+        <v>1436.050048828125</v>
+      </c>
+      <c r="E975" t="n">
+        <v>1446.699951171875</v>
+      </c>
+      <c r="F975" t="n">
+        <v>98</v>
+      </c>
+      <c r="G975" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H975" t="n">
+        <v>4</v>
+      </c>
+      <c r="I975" t="n">
+        <v>4</v>
+      </c>
+      <c r="J975" t="n">
+        <v>8</v>
+      </c>
+      <c r="K975" t="n">
+        <v>45</v>
+      </c>
+      <c r="L975" t="n">
+        <v>0</v>
+      </c>
+      <c r="M975" t="n">
+        <v>14</v>
+      </c>
+      <c r="N975" t="inlineStr"/>
+      <c r="O975" t="inlineStr"/>
+      <c r="P975" t="inlineStr"/>
+      <c r="Q975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="2" t="n">
+        <v>45751.40625</v>
+      </c>
+      <c r="B976" t="n">
+        <v>1436.849975585938</v>
+      </c>
+      <c r="C976" t="n">
+        <v>1453.449951171875</v>
+      </c>
+      <c r="D976" t="n">
+        <v>1419.5</v>
+      </c>
+      <c r="E976" t="n">
+        <v>1436.050048828125</v>
+      </c>
+      <c r="F976" t="n">
+        <v>113</v>
+      </c>
+      <c r="G976" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H976" t="n">
+        <v>4</v>
+      </c>
+      <c r="I976" t="n">
+        <v>4</v>
+      </c>
+      <c r="J976" t="n">
+        <v>9</v>
+      </c>
+      <c r="K976" t="n">
+        <v>45</v>
+      </c>
+      <c r="L976" t="n">
+        <v>0</v>
+      </c>
+      <c r="M976" t="n">
+        <v>14</v>
+      </c>
+      <c r="N976" t="inlineStr"/>
+      <c r="O976" t="inlineStr"/>
+      <c r="P976" t="inlineStr"/>
+      <c r="Q976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="2" t="n">
+        <v>45754.15625</v>
+      </c>
+      <c r="B977" t="n">
+        <v>1375.25</v>
+      </c>
+      <c r="C977" t="n">
+        <v>1403.650024414062</v>
+      </c>
+      <c r="D977" t="n">
+        <v>1352.349975585938</v>
+      </c>
+      <c r="E977" t="n">
+        <v>1366.199951171875</v>
+      </c>
+      <c r="F977" t="n">
+        <v>283</v>
+      </c>
+      <c r="G977" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H977" t="n">
+        <v>4</v>
+      </c>
+      <c r="I977" t="n">
+        <v>7</v>
+      </c>
+      <c r="J977" t="n">
+        <v>3</v>
+      </c>
+      <c r="K977" t="n">
+        <v>45</v>
+      </c>
+      <c r="L977" t="n">
+        <v>0</v>
+      </c>
+      <c r="M977" t="n">
+        <v>15</v>
+      </c>
+      <c r="N977" t="inlineStr"/>
+      <c r="O977" t="inlineStr"/>
+      <c r="P977" t="inlineStr"/>
+      <c r="Q977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="2" t="n">
+        <v>45754.19791666666</v>
+      </c>
+      <c r="B978" t="n">
+        <v>1369.550048828125</v>
+      </c>
+      <c r="C978" t="n">
+        <v>1388.25</v>
+      </c>
+      <c r="D978" t="n">
+        <v>1365</v>
+      </c>
+      <c r="E978" t="n">
+        <v>1371</v>
+      </c>
+      <c r="F978" t="n">
+        <v>1303</v>
+      </c>
+      <c r="G978" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H978" t="n">
+        <v>4</v>
+      </c>
+      <c r="I978" t="n">
+        <v>7</v>
+      </c>
+      <c r="J978" t="n">
+        <v>4</v>
+      </c>
+      <c r="K978" t="n">
+        <v>45</v>
+      </c>
+      <c r="L978" t="n">
+        <v>0</v>
+      </c>
+      <c r="M978" t="n">
+        <v>15</v>
+      </c>
+      <c r="N978" t="inlineStr"/>
+      <c r="O978" t="inlineStr"/>
+      <c r="P978" t="inlineStr"/>
+      <c r="Q978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="2" t="n">
+        <v>45754.23958333334</v>
+      </c>
+      <c r="B979" t="n">
+        <v>1371</v>
+      </c>
+      <c r="C979" t="n">
+        <v>1373.75</v>
+      </c>
+      <c r="D979" t="n">
+        <v>1359</v>
+      </c>
+      <c r="E979" t="n">
+        <v>1359</v>
+      </c>
+      <c r="F979" t="n">
+        <v>36</v>
+      </c>
+      <c r="G979" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H979" t="n">
+        <v>4</v>
+      </c>
+      <c r="I979" t="n">
+        <v>7</v>
+      </c>
+      <c r="J979" t="n">
+        <v>5</v>
+      </c>
+      <c r="K979" t="n">
+        <v>45</v>
+      </c>
+      <c r="L979" t="n">
+        <v>0</v>
+      </c>
+      <c r="M979" t="n">
+        <v>15</v>
+      </c>
+      <c r="N979" t="inlineStr"/>
+      <c r="O979" t="inlineStr"/>
+      <c r="P979" t="inlineStr"/>
+      <c r="Q979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="2" t="n">
+        <v>45754.28125</v>
+      </c>
+      <c r="B980" t="n">
+        <v>1351</v>
+      </c>
+      <c r="C980" t="n">
+        <v>1351</v>
+      </c>
+      <c r="D980" t="n">
+        <v>1300.599975585938</v>
+      </c>
+      <c r="E980" t="n">
+        <v>1320</v>
+      </c>
+      <c r="F980" t="n">
+        <v>1416</v>
+      </c>
+      <c r="G980" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H980" t="n">
+        <v>4</v>
+      </c>
+      <c r="I980" t="n">
+        <v>7</v>
+      </c>
+      <c r="J980" t="n">
+        <v>6</v>
+      </c>
+      <c r="K980" t="n">
+        <v>45</v>
+      </c>
+      <c r="L980" t="n">
+        <v>0</v>
+      </c>
+      <c r="M980" t="n">
+        <v>15</v>
+      </c>
+      <c r="N980" t="inlineStr"/>
+      <c r="O980" t="inlineStr"/>
+      <c r="P980" t="inlineStr"/>
+      <c r="Q980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="2" t="n">
+        <v>45754.32291666666</v>
+      </c>
+      <c r="B981" t="n">
+        <v>1320</v>
+      </c>
+      <c r="C981" t="n">
+        <v>1320</v>
+      </c>
+      <c r="D981" t="n">
+        <v>1270</v>
+      </c>
+      <c r="E981" t="n">
+        <v>1272.949951171875</v>
+      </c>
+      <c r="F981" t="n">
+        <v>2968</v>
+      </c>
+      <c r="G981" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H981" t="n">
+        <v>4</v>
+      </c>
+      <c r="I981" t="n">
+        <v>7</v>
+      </c>
+      <c r="J981" t="n">
+        <v>7</v>
+      </c>
+      <c r="K981" t="n">
+        <v>45</v>
+      </c>
+      <c r="L981" t="n">
+        <v>0</v>
+      </c>
+      <c r="M981" t="n">
+        <v>15</v>
+      </c>
+      <c r="N981" t="inlineStr"/>
+      <c r="O981" t="inlineStr"/>
+      <c r="P981" t="inlineStr"/>
+      <c r="Q981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="2" t="n">
+        <v>45754.36458333334</v>
+      </c>
+      <c r="B982" t="n">
+        <v>1272.949951171875</v>
+      </c>
+      <c r="C982" t="n">
+        <v>1336.550048828125</v>
+      </c>
+      <c r="D982" t="n">
+        <v>1265</v>
+      </c>
+      <c r="E982" t="n">
+        <v>1317</v>
+      </c>
+      <c r="F982" t="n">
+        <v>2760</v>
+      </c>
+      <c r="G982" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H982" t="n">
+        <v>4</v>
+      </c>
+      <c r="I982" t="n">
+        <v>7</v>
+      </c>
+      <c r="J982" t="n">
+        <v>8</v>
+      </c>
+      <c r="K982" t="n">
+        <v>45</v>
+      </c>
+      <c r="L982" t="n">
+        <v>0</v>
+      </c>
+      <c r="M982" t="n">
+        <v>15</v>
+      </c>
+      <c r="N982" t="inlineStr"/>
+      <c r="O982" t="inlineStr"/>
+      <c r="P982" t="inlineStr"/>
+      <c r="Q982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="2" t="n">
+        <v>45754.40625</v>
+      </c>
+      <c r="B983" t="n">
+        <v>1317</v>
+      </c>
+      <c r="C983" t="n">
+        <v>1317.050048828125</v>
+      </c>
+      <c r="D983" t="n">
+        <v>1305</v>
+      </c>
+      <c r="E983" t="n">
+        <v>1317.050048828125</v>
+      </c>
+      <c r="F983" t="n">
+        <v>1057</v>
+      </c>
+      <c r="G983" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H983" t="n">
+        <v>4</v>
+      </c>
+      <c r="I983" t="n">
+        <v>7</v>
+      </c>
+      <c r="J983" t="n">
+        <v>9</v>
+      </c>
+      <c r="K983" t="n">
+        <v>45</v>
+      </c>
+      <c r="L983" t="n">
+        <v>0</v>
+      </c>
+      <c r="M983" t="n">
+        <v>15</v>
+      </c>
+      <c r="N983" t="inlineStr"/>
+      <c r="O983" t="inlineStr"/>
+      <c r="P983" t="inlineStr"/>
+      <c r="Q983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="2" t="n">
+        <v>45755.15625</v>
+      </c>
+      <c r="B984" t="n">
+        <v>1364.550048828125</v>
+      </c>
+      <c r="C984" t="n">
+        <v>1370</v>
+      </c>
+      <c r="D984" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E984" t="n">
+        <v>1342.650024414062</v>
+      </c>
+      <c r="F984" t="n">
+        <v>0</v>
+      </c>
+      <c r="G984" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H984" t="n">
+        <v>4</v>
+      </c>
+      <c r="I984" t="n">
+        <v>8</v>
+      </c>
+      <c r="J984" t="n">
+        <v>3</v>
+      </c>
+      <c r="K984" t="n">
+        <v>45</v>
+      </c>
+      <c r="L984" t="n">
+        <v>0</v>
+      </c>
+      <c r="M984" t="n">
+        <v>15</v>
+      </c>
+      <c r="N984" t="inlineStr"/>
+      <c r="O984" t="inlineStr"/>
+      <c r="P984" t="inlineStr"/>
+      <c r="Q984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="2" t="n">
+        <v>45755.19791666666</v>
+      </c>
+      <c r="B985" t="n">
+        <v>1345.5</v>
+      </c>
+      <c r="C985" t="n">
+        <v>1371.949951171875</v>
+      </c>
+      <c r="D985" t="n">
+        <v>1338.199951171875</v>
+      </c>
+      <c r="E985" t="n">
+        <v>1348.050048828125</v>
+      </c>
+      <c r="F985" t="n">
+        <v>349</v>
+      </c>
+      <c r="G985" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H985" t="n">
+        <v>4</v>
+      </c>
+      <c r="I985" t="n">
+        <v>8</v>
+      </c>
+      <c r="J985" t="n">
+        <v>4</v>
+      </c>
+      <c r="K985" t="n">
+        <v>45</v>
+      </c>
+      <c r="L985" t="n">
+        <v>0</v>
+      </c>
+      <c r="M985" t="n">
+        <v>15</v>
+      </c>
+      <c r="N985" t="inlineStr"/>
+      <c r="O985" t="inlineStr"/>
+      <c r="P985" t="inlineStr"/>
+      <c r="Q985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="2" t="n">
+        <v>45755.23958333334</v>
+      </c>
+      <c r="B986" t="n">
+        <v>1348.050048828125</v>
+      </c>
+      <c r="C986" t="n">
+        <v>1348.849975585938</v>
+      </c>
+      <c r="D986" t="n">
+        <v>1348.050048828125</v>
+      </c>
+      <c r="E986" t="n">
+        <v>1348.849975585938</v>
+      </c>
+      <c r="F986" t="n">
+        <v>103</v>
+      </c>
+      <c r="G986" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H986" t="n">
+        <v>4</v>
+      </c>
+      <c r="I986" t="n">
+        <v>8</v>
+      </c>
+      <c r="J986" t="n">
+        <v>5</v>
+      </c>
+      <c r="K986" t="n">
+        <v>45</v>
+      </c>
+      <c r="L986" t="n">
+        <v>0</v>
+      </c>
+      <c r="M986" t="n">
+        <v>15</v>
+      </c>
+      <c r="N986" t="inlineStr"/>
+      <c r="O986" t="inlineStr"/>
+      <c r="P986" t="inlineStr"/>
+      <c r="Q986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="2" t="n">
+        <v>45755.28125</v>
+      </c>
+      <c r="B987" t="n">
+        <v>1348.050048828125</v>
+      </c>
+      <c r="C987" t="n">
+        <v>1349</v>
+      </c>
+      <c r="D987" t="n">
+        <v>1346.150024414062</v>
+      </c>
+      <c r="E987" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F987" t="n">
+        <v>4563</v>
+      </c>
+      <c r="G987" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H987" t="n">
+        <v>4</v>
+      </c>
+      <c r="I987" t="n">
+        <v>8</v>
+      </c>
+      <c r="J987" t="n">
+        <v>6</v>
+      </c>
+      <c r="K987" t="n">
+        <v>45</v>
+      </c>
+      <c r="L987" t="n">
+        <v>0</v>
+      </c>
+      <c r="M987" t="n">
+        <v>15</v>
+      </c>
+      <c r="N987" t="inlineStr"/>
+      <c r="O987" t="inlineStr"/>
+      <c r="P987" t="inlineStr"/>
+      <c r="Q987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="2" t="n">
+        <v>45755.32291666666</v>
+      </c>
+      <c r="B988" t="n">
+        <v>1354.199951171875</v>
+      </c>
+      <c r="C988" t="n">
+        <v>1376.449951171875</v>
+      </c>
+      <c r="D988" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E988" t="n">
+        <v>1354.199951171875</v>
+      </c>
+      <c r="F988" t="n">
+        <v>384</v>
+      </c>
+      <c r="G988" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H988" t="n">
+        <v>4</v>
+      </c>
+      <c r="I988" t="n">
+        <v>8</v>
+      </c>
+      <c r="J988" t="n">
+        <v>7</v>
+      </c>
+      <c r="K988" t="n">
+        <v>45</v>
+      </c>
+      <c r="L988" t="n">
+        <v>0</v>
+      </c>
+      <c r="M988" t="n">
+        <v>15</v>
+      </c>
+      <c r="N988" t="inlineStr"/>
+      <c r="O988" t="inlineStr"/>
+      <c r="P988" t="inlineStr"/>
+      <c r="Q988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="2" t="n">
+        <v>45755.36458333334</v>
+      </c>
+      <c r="B989" t="n">
+        <v>1354.199951171875</v>
+      </c>
+      <c r="C989" t="n">
+        <v>1358.800048828125</v>
+      </c>
+      <c r="D989" t="n">
+        <v>1338.300048828125</v>
+      </c>
+      <c r="E989" t="n">
+        <v>1346</v>
+      </c>
+      <c r="F989" t="n">
+        <v>693</v>
+      </c>
+      <c r="G989" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H989" t="n">
+        <v>4</v>
+      </c>
+      <c r="I989" t="n">
+        <v>8</v>
+      </c>
+      <c r="J989" t="n">
+        <v>8</v>
+      </c>
+      <c r="K989" t="n">
+        <v>45</v>
+      </c>
+      <c r="L989" t="n">
+        <v>0</v>
+      </c>
+      <c r="M989" t="n">
+        <v>15</v>
+      </c>
+      <c r="N989" t="inlineStr"/>
+      <c r="O989" t="inlineStr"/>
+      <c r="P989" t="inlineStr"/>
+      <c r="Q989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="2" t="n">
+        <v>45755.40625</v>
+      </c>
+      <c r="B990" t="n">
+        <v>1346.050048828125</v>
+      </c>
+      <c r="C990" t="n">
+        <v>1346.050048828125</v>
+      </c>
+      <c r="D990" t="n">
+        <v>1344.800048828125</v>
+      </c>
+      <c r="E990" t="n">
+        <v>1344.800048828125</v>
+      </c>
+      <c r="F990" t="n">
+        <v>113</v>
+      </c>
+      <c r="G990" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H990" t="n">
+        <v>4</v>
+      </c>
+      <c r="I990" t="n">
+        <v>8</v>
+      </c>
+      <c r="J990" t="n">
+        <v>9</v>
+      </c>
+      <c r="K990" t="n">
+        <v>45</v>
+      </c>
+      <c r="L990" t="n">
+        <v>0</v>
+      </c>
+      <c r="M990" t="n">
+        <v>15</v>
+      </c>
+      <c r="N990" t="inlineStr"/>
+      <c r="O990" t="inlineStr"/>
+      <c r="P990" t="inlineStr"/>
+      <c r="Q990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="2" t="n">
+        <v>45756.15625</v>
+      </c>
+      <c r="B991" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C991" t="n">
+        <v>1330</v>
+      </c>
+      <c r="D991" t="n">
+        <v>1303.699951171875</v>
+      </c>
+      <c r="E991" t="n">
+        <v>1303.699951171875</v>
+      </c>
+      <c r="F991" t="n">
+        <v>0</v>
+      </c>
+      <c r="G991" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H991" t="n">
+        <v>4</v>
+      </c>
+      <c r="I991" t="n">
+        <v>9</v>
+      </c>
+      <c r="J991" t="n">
+        <v>3</v>
+      </c>
+      <c r="K991" t="n">
+        <v>45</v>
+      </c>
+      <c r="L991" t="n">
+        <v>0</v>
+      </c>
+      <c r="M991" t="n">
+        <v>15</v>
+      </c>
+      <c r="N991" t="inlineStr"/>
+      <c r="O991" t="inlineStr"/>
+      <c r="P991" t="inlineStr"/>
+      <c r="Q991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="2" t="n">
+        <v>45756.19791666666</v>
+      </c>
+      <c r="B992" t="n">
+        <v>1303.699951171875</v>
+      </c>
+      <c r="C992" t="n">
+        <v>1303.699951171875</v>
+      </c>
+      <c r="D992" t="n">
+        <v>1288.150024414062</v>
+      </c>
+      <c r="E992" t="n">
+        <v>1296.099975585938</v>
+      </c>
+      <c r="F992" t="n">
+        <v>336</v>
+      </c>
+      <c r="G992" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H992" t="n">
+        <v>4</v>
+      </c>
+      <c r="I992" t="n">
+        <v>9</v>
+      </c>
+      <c r="J992" t="n">
+        <v>4</v>
+      </c>
+      <c r="K992" t="n">
+        <v>45</v>
+      </c>
+      <c r="L992" t="n">
+        <v>0</v>
+      </c>
+      <c r="M992" t="n">
+        <v>15</v>
+      </c>
+      <c r="N992" t="inlineStr"/>
+      <c r="O992" t="inlineStr"/>
+      <c r="P992" t="inlineStr"/>
+      <c r="Q992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="2" t="n">
+        <v>45756.23958333334</v>
+      </c>
+      <c r="B993" t="n">
+        <v>1287.949951171875</v>
+      </c>
+      <c r="C993" t="n">
+        <v>1341.550048828125</v>
+      </c>
+      <c r="D993" t="n">
+        <v>1287</v>
+      </c>
+      <c r="E993" t="n">
+        <v>1339.75</v>
+      </c>
+      <c r="F993" t="n">
+        <v>53</v>
+      </c>
+      <c r="G993" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H993" t="n">
+        <v>4</v>
+      </c>
+      <c r="I993" t="n">
+        <v>9</v>
+      </c>
+      <c r="J993" t="n">
+        <v>5</v>
+      </c>
+      <c r="K993" t="n">
+        <v>45</v>
+      </c>
+      <c r="L993" t="n">
+        <v>0</v>
+      </c>
+      <c r="M993" t="n">
+        <v>15</v>
+      </c>
+      <c r="N993" t="inlineStr"/>
+      <c r="O993" t="inlineStr"/>
+      <c r="P993" t="inlineStr"/>
+      <c r="Q993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>45756.28125</v>
+      </c>
+      <c r="B994" t="n">
+        <v>1336</v>
+      </c>
+      <c r="C994" t="n">
+        <v>1352.949951171875</v>
+      </c>
+      <c r="D994" t="n">
+        <v>1332</v>
+      </c>
+      <c r="E994" t="n">
+        <v>1352.949951171875</v>
+      </c>
+      <c r="F994" t="n">
+        <v>25</v>
+      </c>
+      <c r="G994" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H994" t="n">
+        <v>4</v>
+      </c>
+      <c r="I994" t="n">
+        <v>9</v>
+      </c>
+      <c r="J994" t="n">
+        <v>6</v>
+      </c>
+      <c r="K994" t="n">
+        <v>45</v>
+      </c>
+      <c r="L994" t="n">
+        <v>0</v>
+      </c>
+      <c r="M994" t="n">
+        <v>15</v>
+      </c>
+      <c r="N994" t="inlineStr"/>
+      <c r="O994" t="inlineStr"/>
+      <c r="P994" t="inlineStr"/>
+      <c r="Q994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>45756.32291666666</v>
+      </c>
+      <c r="B995" t="n">
+        <v>1363.150024414062</v>
+      </c>
+      <c r="C995" t="n">
+        <v>1363.150024414062</v>
+      </c>
+      <c r="D995" t="n">
+        <v>1363.150024414062</v>
+      </c>
+      <c r="E995" t="n">
+        <v>1363.150024414062</v>
+      </c>
+      <c r="F995" t="n">
+        <v>2</v>
+      </c>
+      <c r="G995" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H995" t="n">
+        <v>4</v>
+      </c>
+      <c r="I995" t="n">
+        <v>9</v>
+      </c>
+      <c r="J995" t="n">
+        <v>7</v>
+      </c>
+      <c r="K995" t="n">
+        <v>45</v>
+      </c>
+      <c r="L995" t="n">
+        <v>0</v>
+      </c>
+      <c r="M995" t="n">
+        <v>15</v>
+      </c>
+      <c r="N995" t="inlineStr"/>
+      <c r="O995" t="inlineStr"/>
+      <c r="P995" t="inlineStr"/>
+      <c r="Q995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>45756.36458333334</v>
+      </c>
+      <c r="B996" t="n">
+        <v>1353.300048828125</v>
+      </c>
+      <c r="C996" t="n">
+        <v>1374.699951171875</v>
+      </c>
+      <c r="D996" t="n">
+        <v>1352.5</v>
+      </c>
+      <c r="E996" t="n">
+        <v>1374.699951171875</v>
+      </c>
+      <c r="F996" t="n">
+        <v>28</v>
+      </c>
+      <c r="G996" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H996" t="n">
+        <v>4</v>
+      </c>
+      <c r="I996" t="n">
+        <v>9</v>
+      </c>
+      <c r="J996" t="n">
+        <v>8</v>
+      </c>
+      <c r="K996" t="n">
+        <v>45</v>
+      </c>
+      <c r="L996" t="n">
+        <v>0</v>
+      </c>
+      <c r="M996" t="n">
+        <v>15</v>
+      </c>
+      <c r="N996" t="inlineStr"/>
+      <c r="O996" t="inlineStr"/>
+      <c r="P996" t="inlineStr"/>
+      <c r="Q996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45756.40625</v>
+      </c>
+      <c r="B997" t="n">
+        <v>1362</v>
+      </c>
+      <c r="C997" t="n">
+        <v>1375.849975585938</v>
+      </c>
+      <c r="D997" t="n">
+        <v>1360</v>
+      </c>
+      <c r="E997" t="n">
+        <v>1365.199951171875</v>
+      </c>
+      <c r="F997" t="n">
+        <v>25</v>
+      </c>
+      <c r="G997" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H997" t="n">
+        <v>4</v>
+      </c>
+      <c r="I997" t="n">
+        <v>9</v>
+      </c>
+      <c r="J997" t="n">
+        <v>9</v>
+      </c>
+      <c r="K997" t="n">
+        <v>45</v>
+      </c>
+      <c r="L997" t="n">
+        <v>0</v>
+      </c>
+      <c r="M997" t="n">
+        <v>15</v>
+      </c>
+      <c r="N997" t="inlineStr"/>
+      <c r="O997" t="inlineStr"/>
+      <c r="P997" t="inlineStr"/>
+      <c r="Q997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45758.15625</v>
+      </c>
+      <c r="B998" t="n">
+        <v>1383.650024414062</v>
+      </c>
+      <c r="C998" t="n">
+        <v>1385</v>
+      </c>
+      <c r="D998" t="n">
+        <v>1365.099975585938</v>
+      </c>
+      <c r="E998" t="n">
+        <v>1367.300048828125</v>
+      </c>
+      <c r="F998" t="n">
+        <v>0</v>
+      </c>
+      <c r="G998" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H998" t="n">
+        <v>4</v>
+      </c>
+      <c r="I998" t="n">
+        <v>11</v>
+      </c>
+      <c r="J998" t="n">
+        <v>3</v>
+      </c>
+      <c r="K998" t="n">
+        <v>45</v>
+      </c>
+      <c r="L998" t="n">
+        <v>0</v>
+      </c>
+      <c r="M998" t="n">
+        <v>15</v>
+      </c>
+      <c r="N998" t="inlineStr"/>
+      <c r="O998" t="inlineStr"/>
+      <c r="P998" t="inlineStr"/>
+      <c r="Q998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45758.19791666666</v>
+      </c>
+      <c r="B999" t="n">
+        <v>1377.949951171875</v>
+      </c>
+      <c r="C999" t="n">
+        <v>1380</v>
+      </c>
+      <c r="D999" t="n">
+        <v>1371.949951171875</v>
+      </c>
+      <c r="E999" t="n">
+        <v>1371.949951171875</v>
+      </c>
+      <c r="F999" t="n">
+        <v>170</v>
+      </c>
+      <c r="G999" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H999" t="n">
+        <v>4</v>
+      </c>
+      <c r="I999" t="n">
+        <v>11</v>
+      </c>
+      <c r="J999" t="n">
+        <v>4</v>
+      </c>
+      <c r="K999" t="n">
+        <v>45</v>
+      </c>
+      <c r="L999" t="n">
+        <v>0</v>
+      </c>
+      <c r="M999" t="n">
+        <v>15</v>
+      </c>
+      <c r="N999" t="inlineStr"/>
+      <c r="O999" t="inlineStr"/>
+      <c r="P999" t="inlineStr"/>
+      <c r="Q999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45758.23958333334</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>1367.5</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>1367.5</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>1367.5</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>1367.5</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1000" t="inlineStr"/>
+      <c r="O1000" t="inlineStr"/>
+      <c r="P1000" t="inlineStr"/>
+      <c r="Q1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45758.28125</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>1375</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>1375</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>1375</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>1375</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1001" t="inlineStr"/>
+      <c r="O1001" t="inlineStr"/>
+      <c r="P1001" t="inlineStr"/>
+      <c r="Q1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45758.32291666666</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>1370.25</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>1370.25</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>1364</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>1364</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1002" t="inlineStr"/>
+      <c r="O1002" t="inlineStr"/>
+      <c r="P1002" t="inlineStr"/>
+      <c r="Q1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45758.36458333334</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>1364</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>1381.5</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>1361.800048828125</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>1381.5</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1003" t="inlineStr"/>
+      <c r="O1003" t="inlineStr"/>
+      <c r="P1003" t="inlineStr"/>
+      <c r="Q1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45758.40625</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>1381.5</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>1392.349975585938</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>1360</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>1371.699951171875</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>223</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1004" t="inlineStr"/>
+      <c r="O1004" t="inlineStr"/>
+      <c r="P1004" t="inlineStr"/>
+      <c r="Q1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45762.15625</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>1390</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>1439.800048828125</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>1390</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>1439.800048828125</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1005" t="inlineStr"/>
+      <c r="O1005" t="inlineStr"/>
+      <c r="P1005" t="inlineStr"/>
+      <c r="Q1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45762.19791666666</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>1449.849975585938</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>1449.849975585938</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1006" t="inlineStr"/>
+      <c r="O1006" t="inlineStr"/>
+      <c r="P1006" t="inlineStr"/>
+      <c r="Q1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45762.23958333334</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>1439.800048828125</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>1445.099975585938</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>1439.800048828125</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>1445.099975585938</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1007" t="inlineStr"/>
+      <c r="O1007" t="inlineStr"/>
+      <c r="P1007" t="inlineStr"/>
+      <c r="Q1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45762.28125</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>1450.25</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>1450.25</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>1450.25</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>1450.25</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1008" t="inlineStr"/>
+      <c r="O1008" t="inlineStr"/>
+      <c r="P1008" t="inlineStr"/>
+      <c r="Q1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45762.40625</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>1467.5</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>1455.800048828125</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>15</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1009" t="inlineStr"/>
+      <c r="O1009" t="inlineStr"/>
+      <c r="P1009" t="inlineStr"/>
+      <c r="Q1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45763.15625</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>1488.5</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>1464.150024414062</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>1473.699951171875</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>330</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1010" t="inlineStr"/>
+      <c r="O1010" t="inlineStr"/>
+      <c r="P1010" t="inlineStr"/>
+      <c r="Q1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45763.19791666666</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>1468</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>1472</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>1451.099975585938</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>1451.099975585938</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>39</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1011" t="inlineStr"/>
+      <c r="O1011" t="inlineStr"/>
+      <c r="P1011" t="inlineStr"/>
+      <c r="Q1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45763.23958333334</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>1452.550048828125</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>1464.099975585938</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>1452</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>198</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1012" t="inlineStr"/>
+      <c r="O1012" t="inlineStr"/>
+      <c r="P1012" t="inlineStr"/>
+      <c r="Q1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45763.28125</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>1452</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>1462.349975585938</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>1462.349975585938</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>44</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1013" t="inlineStr"/>
+      <c r="O1013" t="inlineStr"/>
+      <c r="P1013" t="inlineStr"/>
+      <c r="Q1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45763.32291666666</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>1461.300048828125</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>1463.449951171875</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>1452.5</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>1463.449951171875</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1014" t="inlineStr"/>
+      <c r="O1014" t="inlineStr"/>
+      <c r="P1014" t="inlineStr"/>
+      <c r="Q1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45763.36458333334</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>1464</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>1489.25</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>1464</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>1489.25</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1015" t="inlineStr"/>
+      <c r="O1015" t="inlineStr"/>
+      <c r="P1015" t="inlineStr"/>
+      <c r="Q1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45763.40625</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>1479.900024414062</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>1479.900024414062</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>1458</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>1472.099975585938</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>249</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>16</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1016" t="inlineStr"/>
+      <c r="O1016" t="inlineStr"/>
+      <c r="P1016" t="inlineStr"/>
+      <c r="Q1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45764.15625</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>1481.699951171875</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>1470</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>1480.75</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1017" t="inlineStr"/>
+      <c r="O1017" t="inlineStr"/>
+      <c r="P1017" t="inlineStr"/>
+      <c r="Q1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45764.19791666666</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>1484.699951171875</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>1491.650024414062</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>1484.699951171875</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>1487</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1018" t="inlineStr"/>
+      <c r="O1018" t="inlineStr"/>
+      <c r="P1018" t="inlineStr"/>
+      <c r="Q1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45764.23958333334</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>1487</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>1496.300048828125</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>1485</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>1485</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1019" t="inlineStr"/>
+      <c r="O1019" t="inlineStr"/>
+      <c r="P1019" t="inlineStr"/>
+      <c r="Q1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45764.28125</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>1497.550048828125</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>1486.449951171875</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>1486.449951171875</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>15</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1020" t="inlineStr"/>
+      <c r="O1020" t="inlineStr"/>
+      <c r="P1020" t="inlineStr"/>
+      <c r="Q1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45764.32291666666</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>1486.300048828125</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>1498.449951171875</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>1469.900024414062</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>1481.5</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1021" t="inlineStr"/>
+      <c r="O1021" t="inlineStr"/>
+      <c r="P1021" t="inlineStr"/>
+      <c r="Q1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45764.36458333334</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>1490.349975585938</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>1490.349975585938</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>1486.349975585938</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>1486.349975585938</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>21</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1022" t="inlineStr"/>
+      <c r="O1022" t="inlineStr"/>
+      <c r="P1022" t="inlineStr"/>
+      <c r="Q1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45764.40625</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>1481</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>1482.949951171875</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>1471.300048828125</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>1482.949951171875</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>33</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>17</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1023" t="inlineStr"/>
+      <c r="O1023" t="inlineStr"/>
+      <c r="P1023" t="inlineStr"/>
+      <c r="Q1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45768.15625</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>1495.900024414062</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>1495.900024414062</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>1462.449951171875</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>1490.349975585938</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1024" t="inlineStr"/>
+      <c r="O1024" t="inlineStr"/>
+      <c r="P1024" t="inlineStr"/>
+      <c r="Q1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45768.19791666666</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>1487.900024414062</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>1491.599975585938</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>1482</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>1491.599975585938</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1025" t="inlineStr"/>
+      <c r="O1025" t="inlineStr"/>
+      <c r="P1025" t="inlineStr"/>
+      <c r="Q1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45768.23958333334</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>1489.699951171875</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>1513.400024414062</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>1489.699951171875</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>1510</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>98</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1026" t="inlineStr"/>
+      <c r="O1026" t="inlineStr"/>
+      <c r="P1026" t="inlineStr"/>
+      <c r="Q1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45768.28125</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>1510.5</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>1519.849975585938</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>1510.5</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>1519.849975585938</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1027" t="inlineStr"/>
+      <c r="O1027" t="inlineStr"/>
+      <c r="P1027" t="inlineStr"/>
+      <c r="Q1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45768.32291666666</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>1521.650024414062</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>1521.650024414062</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>1513</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>1516.75</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>37</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1028" t="inlineStr"/>
+      <c r="O1028" t="inlineStr"/>
+      <c r="P1028" t="inlineStr"/>
+      <c r="Q1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45768.36458333334</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>1520</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>1489.75</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>1501.400024414062</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>237</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1029" t="inlineStr"/>
+      <c r="O1029" t="inlineStr"/>
+      <c r="P1029" t="inlineStr"/>
+      <c r="Q1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45768.40625</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>1511</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>1528</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>1498</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>1502.900024414062</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>171</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1030" t="inlineStr"/>
+      <c r="O1030" t="inlineStr"/>
+      <c r="P1030" t="inlineStr"/>
+      <c r="Q1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45769.15625</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>1522.849975585938</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>1510</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>1512.550048828125</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1031" t="inlineStr"/>
+      <c r="O1031" t="inlineStr"/>
+      <c r="P1031" t="inlineStr"/>
+      <c r="Q1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45769.19791666666</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>1513.25</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>1513.25</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>1512.5</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>1512.5</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1032" t="inlineStr"/>
+      <c r="O1032" t="inlineStr"/>
+      <c r="P1032" t="inlineStr"/>
+      <c r="Q1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45769.23958333334</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>1515.599975585938</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>1515.599975585938</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>1510.300048828125</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>1510.300048828125</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1033" t="inlineStr"/>
+      <c r="O1033" t="inlineStr"/>
+      <c r="P1033" t="inlineStr"/>
+      <c r="Q1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45769.28125</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>1500.5</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>1503.650024414062</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>1500.5</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>1503.650024414062</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>14</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1034" t="inlineStr"/>
+      <c r="O1034" t="inlineStr"/>
+      <c r="P1034" t="inlineStr"/>
+      <c r="Q1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45769.32291666666</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>1503.650024414062</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>1503.650024414062</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>1510</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1035" t="inlineStr"/>
+      <c r="O1035" t="inlineStr"/>
+      <c r="P1035" t="inlineStr"/>
+      <c r="Q1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45769.36458333334</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>1501.5</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>1514.599975585938</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>1495.550048828125</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>1495.550048828125</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1036" t="inlineStr"/>
+      <c r="O1036" t="inlineStr"/>
+      <c r="P1036" t="inlineStr"/>
+      <c r="Q1036" t="inlineStr"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45769.40625</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>1495.050048828125</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>1522.150024414062</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>1495.050048828125</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>1500.099975585938</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>22</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1037" t="inlineStr"/>
+      <c r="O1037" t="inlineStr"/>
+      <c r="P1037" t="inlineStr"/>
+      <c r="Q1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45770.15625</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>1518</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>1518</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>1480</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>1480</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1038" t="inlineStr"/>
+      <c r="O1038" t="inlineStr"/>
+      <c r="P1038" t="inlineStr"/>
+      <c r="Q1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45770.19791666666</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>1475.800048828125</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>1477.800048828125</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>1463.300048828125</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>1469</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>586</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1039" t="inlineStr"/>
+      <c r="O1039" t="inlineStr"/>
+      <c r="P1039" t="inlineStr"/>
+      <c r="Q1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45770.23958333334</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>1469</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>1475</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>1469</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>1475</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>221</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1040" t="inlineStr"/>
+      <c r="O1040" t="inlineStr"/>
+      <c r="P1040" t="inlineStr"/>
+      <c r="Q1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45770.28125</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>1475</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>1485.300048828125</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>1475</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>1485</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>162</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1041" t="inlineStr"/>
+      <c r="O1041" t="inlineStr"/>
+      <c r="P1041" t="inlineStr"/>
+      <c r="Q1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45770.32291666666</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>1474</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>1486.599975585938</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>1474</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>1477.800048828125</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1042" t="inlineStr"/>
+      <c r="O1042" t="inlineStr"/>
+      <c r="P1042" t="inlineStr"/>
+      <c r="Q1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45770.36458333334</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>1478.800048828125</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>1479</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>1470.050048828125</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>1474.050048828125</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>332</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1043" t="inlineStr"/>
+      <c r="O1043" t="inlineStr"/>
+      <c r="P1043" t="inlineStr"/>
+      <c r="Q1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45770.40625</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>1478.5</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>1480</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>1474</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>1478.900024414062</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>23</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1044" t="inlineStr"/>
+      <c r="O1044" t="inlineStr"/>
+      <c r="P1044" t="inlineStr"/>
+      <c r="Q1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45771.15625</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>1462.650024414062</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>1490</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>1462.650024414062</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>1488.050048828125</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>229</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1045" t="inlineStr"/>
+      <c r="O1045" t="inlineStr"/>
+      <c r="P1045" t="inlineStr"/>
+      <c r="Q1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45771.19791666666</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>1491.150024414062</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>1495</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>1477.099975585938</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>1489.650024414062</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>220</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1046" t="inlineStr"/>
+      <c r="O1046" t="inlineStr"/>
+      <c r="P1046" t="inlineStr"/>
+      <c r="Q1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45771.23958333334</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>1489.949951171875</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>1489.949951171875</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>1482.5</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>1482.5</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1047" t="inlineStr"/>
+      <c r="O1047" t="inlineStr"/>
+      <c r="P1047" t="inlineStr"/>
+      <c r="Q1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45771.28125</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>1482.5</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>1485.349975585938</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>1476.300048828125</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>1476.300048828125</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>142</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1048" t="inlineStr"/>
+      <c r="O1048" t="inlineStr"/>
+      <c r="P1048" t="inlineStr"/>
+      <c r="Q1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45771.32291666666</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>1444.449951171875</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>1466.349975585938</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>1444.449951171875</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>1464.75</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>491</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1049" t="inlineStr"/>
+      <c r="O1049" t="inlineStr"/>
+      <c r="P1049" t="inlineStr"/>
+      <c r="Q1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45771.36458333334</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>1464.75</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>1472.400024414062</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>1464.75</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>1472.400024414062</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>1016</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1050" t="inlineStr"/>
+      <c r="O1050" t="inlineStr"/>
+      <c r="P1050" t="inlineStr"/>
+      <c r="Q1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45771.40625</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>1480.400024414062</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>1483.5</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>1455.949951171875</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>1481.599975585938</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>129</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1051" t="inlineStr"/>
+      <c r="O1051" t="inlineStr"/>
+      <c r="P1051" t="inlineStr"/>
+      <c r="Q1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45772.15625</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>1462.25</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>1462.25</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>1422</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>1432.949951171875</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1052" t="inlineStr"/>
+      <c r="O1052" t="inlineStr"/>
+      <c r="P1052" t="inlineStr"/>
+      <c r="Q1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45772.19791666666</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>1403</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>1430.199951171875</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>1403</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>1430.199951171875</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>134</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1053" t="inlineStr"/>
+      <c r="O1053" t="inlineStr"/>
+      <c r="P1053" t="inlineStr"/>
+      <c r="Q1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45772.23958333334</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>1418.650024414062</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>1418.650024414062</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>1356.849975585938</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>1382.800048828125</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>1218</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1054" t="inlineStr"/>
+      <c r="O1054" t="inlineStr"/>
+      <c r="P1054" t="inlineStr"/>
+      <c r="Q1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45772.28125</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>1382.800048828125</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>1405</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>1373.949951171875</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>1397.650024414062</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>1194</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1055" t="inlineStr"/>
+      <c r="O1055" t="inlineStr"/>
+      <c r="P1055" t="inlineStr"/>
+      <c r="Q1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45772.32291666666</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>1401.949951171875</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>1410.150024414062</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>1397</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>228</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1056" t="inlineStr"/>
+      <c r="O1056" t="inlineStr"/>
+      <c r="P1056" t="inlineStr"/>
+      <c r="Q1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45772.36458333334</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>1397.699951171875</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>1407.550048828125</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>1369</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>400</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1057" t="inlineStr"/>
+      <c r="O1057" t="inlineStr"/>
+      <c r="P1057" t="inlineStr"/>
+      <c r="Q1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45772.40625</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>1384</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>1393.25</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>340</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>25</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>45</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1058" t="inlineStr"/>
+      <c r="O1058" t="inlineStr"/>
+      <c r="P1058" t="inlineStr"/>
+      <c r="Q1058" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
